--- a/processed/order-data-processed.xlsx
+++ b/processed/order-data-processed.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\13-CertyBox-Data_Science\github-repo\transport-data-analysis\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A409919C-BF7E-4160-B3B2-AC216D314B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529E962-70B1-4B71-A19B-89A5294697CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Order Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Cookie-Index-Match" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Processed Order Data'!$A$1:$I$854</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="867">
   <si>
     <t>order_id</t>
   </si>
@@ -2619,13 +2631,49 @@
   </si>
   <si>
     <t>188674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using index match function </t>
+  </si>
+  <si>
+    <t>Give the value of</t>
+  </si>
+  <si>
+    <t>Give the value of cookies from order ID using Index Match</t>
+  </si>
+  <si>
+    <t>Formula in Use: = 
+INDEX(
+     [Result Collumn - Cookies],
+     MATCH(
+             [Match_Value - A2], 
+             [Match Search Column - Order ID] ,
+             [Match Type - Exact Match]
+      )
+)</t>
+  </si>
+  <si>
+    <t>Note: I needed am extra TEXT transformation on the Order ID as there were Promo order ID of trype string (XXXXXX). So in MATCH I needed to use a TEXT function as well to cast type. Else I was getting No Match.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2634,15 +2682,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2665,20 +2719,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency 2" xfId="1" xr:uid="{00AE9876-47E6-4CB6-B31C-A1A5C3460123}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2860,29 +3247,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2918,17 +3282,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FAA7C73-FDF5-449A-AB12-F542A23164CE}" name="Order_Data" displayName="Order_Data" ref="A1:I854" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I854" xr:uid="{6FAA7C73-FDF5-449A-AB12-F542A23164CE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6DC4F6AE-171B-4E76-A1AF-8C2D0AA2650E}" uniqueName="1" name="order_id" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{62DB4515-EB02-4334-962F-5D2BC0EB6750}" uniqueName="2" name="customer_id" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7D309EFF-6663-426F-BF2A-C08CF204AAA9}" uniqueName="3" name="customer_name" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D3A51FEF-716E-41F2-9647-E0A10E563E72}" uniqueName="4" name="cookies_shipped" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{06E36B5D-5031-4543-B5CE-1AEEB493C27D}" uniqueName="5" name="revenue_in_dollars" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1B8AF4BF-C4F1-4B57-B2A4-673F99F7A551}" uniqueName="6" name="cost_in_dollars" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{95099792-6A17-4058-BE56-446F5EA2154F}" uniqueName="7" name="order_date" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2354DD0D-C8DF-4607-8D6D-135127BB0EF3}" uniqueName="8" name="ship_date" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{AA941596-554C-4ED1-8BB3-150B82F16744}" uniqueName="9" name="order_status" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6DC4F6AE-171B-4E76-A1AF-8C2D0AA2650E}" uniqueName="1" name="order_id" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{62DB4515-EB02-4334-962F-5D2BC0EB6750}" uniqueName="2" name="customer_id" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7D309EFF-6663-426F-BF2A-C08CF204AAA9}" uniqueName="3" name="customer_name" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D3A51FEF-716E-41F2-9647-E0A10E563E72}" uniqueName="4" name="cookies_shipped" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{06E36B5D-5031-4543-B5CE-1AEEB493C27D}" uniqueName="5" name="revenue_in_dollars" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1B8AF4BF-C4F1-4B57-B2A4-673F99F7A551}" uniqueName="6" name="cost_in_dollars" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{95099792-6A17-4058-BE56-446F5EA2154F}" uniqueName="7" name="order_date" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{2354DD0D-C8DF-4607-8D6D-135127BB0EF3}" uniqueName="8" name="ship_date" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{AA941596-554C-4ED1-8BB3-150B82F16744}" uniqueName="9" name="order_status" queryTableFieldId="9" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A93A7666-65BD-4142-9DAB-C047FB3A5BE6}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:C5" xr:uid="{A93A7666-65BD-4142-9DAB-C047FB3A5BE6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D080E713-6E84-4067-AF27-408F9A12AE61}" name="Give the value of" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E0C49523-74A3-45A9-BC6B-8B3197738234}" name="cookies " dataDxfId="0">
+      <calculatedColumnFormula>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Give the value of]], "0"), Order_Data[order_id], 0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4292A5C7-B940-445F-A635-004D6E1FC5EF}" name="using index match function " dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3197,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE22C36-8033-44CA-8295-FCD27B76D58A}">
   <dimension ref="A1:I854"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3244,7 +3622,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3273,7 +3651,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3302,7 +3680,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3331,7 +3709,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3360,7 +3738,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3389,7 +3767,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3418,7 +3796,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3447,7 +3825,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3476,7 +3854,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3505,7 +3883,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3534,7 +3912,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3563,7 +3941,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3592,7 +3970,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3621,7 +3999,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3650,7 +4028,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3679,7 +4057,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3708,7 +4086,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3737,7 +4115,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3766,7 +4144,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3795,7 +4173,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3824,7 +4202,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3853,7 +4231,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3882,7 +4260,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3911,7 +4289,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3940,7 +4318,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3969,7 +4347,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3998,7 +4376,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4027,7 +4405,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4056,7 +4434,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4085,7 +4463,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4114,7 +4492,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4143,7 +4521,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4172,7 +4550,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4201,7 +4579,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4230,7 +4608,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4259,7 +4637,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4288,7 +4666,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4317,7 +4695,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4346,7 +4724,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4375,7 +4753,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4404,7 +4782,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4433,7 +4811,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4462,7 +4840,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4491,7 +4869,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4520,7 +4898,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4549,7 +4927,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4578,7 +4956,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4607,7 +4985,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4636,7 +5014,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4665,7 +5043,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4694,7 +5072,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4723,7 +5101,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4752,7 +5130,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4781,7 +5159,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4810,7 +5188,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4839,7 +5217,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4868,7 +5246,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4897,7 +5275,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4926,7 +5304,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4955,7 +5333,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4984,7 +5362,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5013,7 +5391,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5042,7 +5420,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5071,7 +5449,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5100,7 +5478,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5129,7 +5507,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5158,7 +5536,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5187,7 +5565,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5216,7 +5594,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5245,7 +5623,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5274,7 +5652,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5303,7 +5681,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5332,7 +5710,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5361,7 +5739,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5390,7 +5768,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -5419,7 +5797,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5448,7 +5826,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5477,7 +5855,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5506,7 +5884,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -5535,7 +5913,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -5564,7 +5942,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -5593,7 +5971,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -5622,7 +6000,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -5651,7 +6029,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5680,7 +6058,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5709,7 +6087,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5738,7 +6116,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5767,7 +6145,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5796,7 +6174,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5825,7 +6203,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5854,7 +6232,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5883,7 +6261,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5912,7 +6290,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5941,7 +6319,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5970,7 +6348,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5999,7 +6377,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6028,7 +6406,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6057,7 +6435,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6086,7 +6464,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6115,7 +6493,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6144,7 +6522,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -6173,7 +6551,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -6202,7 +6580,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -6231,7 +6609,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -6260,7 +6638,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -6289,7 +6667,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6318,7 +6696,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -6347,7 +6725,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -6376,7 +6754,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -6405,7 +6783,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -6434,7 +6812,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -6463,7 +6841,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -6492,7 +6870,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -6521,7 +6899,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -6550,7 +6928,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -6579,7 +6957,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -6608,7 +6986,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -6637,7 +7015,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -6666,7 +7044,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -6695,7 +7073,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -6724,7 +7102,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6753,7 +7131,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6782,7 +7160,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6811,7 +7189,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -6840,7 +7218,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6869,7 +7247,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6898,7 +7276,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -6927,7 +7305,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -6956,7 +7334,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -6985,7 +7363,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -7014,7 +7392,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -7043,7 +7421,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -7072,7 +7450,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -7101,7 +7479,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -7130,7 +7508,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -7159,7 +7537,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -7188,7 +7566,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -7217,7 +7595,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -7246,7 +7624,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -7275,7 +7653,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -7304,7 +7682,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -7333,7 +7711,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -7362,7 +7740,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -7391,7 +7769,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -7420,7 +7798,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -7449,7 +7827,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -7478,7 +7856,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -7507,7 +7885,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -7536,7 +7914,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -7565,7 +7943,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -7594,7 +7972,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -7623,7 +8001,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -7652,7 +8030,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -7681,7 +8059,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -7710,7 +8088,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -7739,7 +8117,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -7768,7 +8146,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -7797,7 +8175,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -7826,7 +8204,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -7855,7 +8233,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -7884,7 +8262,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -7913,7 +8291,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -7942,7 +8320,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="13" t="s">
         <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -7971,7 +8349,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -8000,7 +8378,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -8029,7 +8407,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -8058,7 +8436,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -8087,7 +8465,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -8116,7 +8494,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="13" t="s">
         <v>186</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -8145,7 +8523,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -8174,7 +8552,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -8203,7 +8581,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -8232,7 +8610,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -8261,7 +8639,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -8290,7 +8668,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="13" t="s">
         <v>192</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -8319,7 +8697,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -8348,7 +8726,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -8377,7 +8755,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -8406,7 +8784,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -8435,7 +8813,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -8464,7 +8842,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -8493,7 +8871,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -8522,7 +8900,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -8551,7 +8929,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -8580,7 +8958,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -8609,7 +8987,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -8638,7 +9016,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -8667,7 +9045,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -8696,7 +9074,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -8725,7 +9103,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -8754,7 +9132,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -8783,7 +9161,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -8812,7 +9190,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -8841,7 +9219,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -8870,7 +9248,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -8899,7 +9277,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -8928,7 +9306,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -8957,7 +9335,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -8986,7 +9364,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -9015,7 +9393,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -9044,7 +9422,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="13" t="s">
         <v>218</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -9073,7 +9451,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -9102,7 +9480,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -9131,7 +9509,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -9160,7 +9538,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="13" t="s">
         <v>222</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -9189,7 +9567,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -9218,7 +9596,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -9247,7 +9625,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -9276,7 +9654,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -9305,7 +9683,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -9334,7 +9712,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="13" t="s">
         <v>228</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -9363,7 +9741,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -9392,7 +9770,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -9421,7 +9799,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -9450,7 +9828,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -9479,7 +9857,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -9508,7 +9886,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="13" t="s">
         <v>234</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -9537,7 +9915,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -9566,7 +9944,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="13" t="s">
         <v>236</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -9595,7 +9973,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -9624,7 +10002,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -9653,7 +10031,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -9682,7 +10060,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -9711,7 +10089,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -9740,7 +10118,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -9769,7 +10147,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -9798,7 +10176,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -9827,7 +10205,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -9856,7 +10234,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -9885,7 +10263,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -9914,7 +10292,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -9943,7 +10321,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -9972,7 +10350,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="13" t="s">
         <v>250</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -10001,7 +10379,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="13" t="s">
         <v>251</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -10030,7 +10408,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="13" t="s">
         <v>252</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -10059,7 +10437,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -10088,7 +10466,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -10117,7 +10495,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -10146,7 +10524,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -10175,7 +10553,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -10204,7 +10582,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -10233,7 +10611,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="13" t="s">
         <v>258</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -10262,7 +10640,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="13" t="s">
         <v>259</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -10291,7 +10669,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="13" t="s">
         <v>260</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -10320,7 +10698,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -10349,7 +10727,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="13" t="s">
         <v>262</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -10378,7 +10756,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="13" t="s">
         <v>263</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -10407,7 +10785,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="13" t="s">
         <v>264</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -10436,7 +10814,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -10465,7 +10843,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="13" t="s">
         <v>266</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -10494,7 +10872,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -10523,7 +10901,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -10552,7 +10930,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -10581,7 +10959,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="13" t="s">
         <v>270</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -10610,7 +10988,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -10639,7 +11017,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -10668,7 +11046,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -10697,7 +11075,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="13" t="s">
         <v>274</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -10726,7 +11104,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="13" t="s">
         <v>275</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -10755,7 +11133,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -10784,7 +11162,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -10813,7 +11191,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -10842,7 +11220,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -10871,7 +11249,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -10900,7 +11278,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -10929,7 +11307,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -10958,7 +11336,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -10987,7 +11365,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -11016,7 +11394,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="13" t="s">
         <v>285</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -11045,7 +11423,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -11074,7 +11452,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -11103,7 +11481,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -11132,7 +11510,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -11161,7 +11539,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -11190,7 +11568,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -11219,7 +11597,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -11248,7 +11626,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -11277,7 +11655,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -11306,7 +11684,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="13" t="s">
         <v>294</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -11335,7 +11713,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="13" t="s">
         <v>295</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -11364,7 +11742,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -11393,7 +11771,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -11422,7 +11800,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -11451,7 +11829,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -11480,7 +11858,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -11509,7 +11887,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -11538,7 +11916,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="13" t="s">
         <v>302</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -11567,7 +11945,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -11596,7 +11974,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -11625,7 +12003,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="13" t="s">
         <v>305</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -11654,7 +12032,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="13" t="s">
         <v>306</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -11683,7 +12061,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="13" t="s">
         <v>307</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -11712,7 +12090,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="13" t="s">
         <v>308</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -11741,7 +12119,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="13" t="s">
         <v>309</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -11770,7 +12148,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -11799,7 +12177,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="13" t="s">
         <v>311</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -11828,7 +12206,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -11857,7 +12235,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="13" t="s">
         <v>313</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -11886,7 +12264,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="13" t="s">
         <v>314</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -11915,7 +12293,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="13" t="s">
         <v>315</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -11944,7 +12322,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -11973,7 +12351,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="13" t="s">
         <v>317</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -12002,7 +12380,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -12031,7 +12409,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -12060,7 +12438,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="13" t="s">
         <v>320</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -12089,7 +12467,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="13" t="s">
         <v>321</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -12118,7 +12496,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="13" t="s">
         <v>322</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -12147,7 +12525,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="13" t="s">
         <v>323</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -12176,7 +12554,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="13" t="s">
         <v>324</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -12205,7 +12583,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="13" t="s">
         <v>325</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -12234,7 +12612,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="13" t="s">
         <v>326</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -12263,7 +12641,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="13" t="s">
         <v>327</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -12292,7 +12670,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="13" t="s">
         <v>328</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -12321,7 +12699,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="13" t="s">
         <v>329</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -12350,7 +12728,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="13" t="s">
         <v>330</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -12379,7 +12757,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="13" t="s">
         <v>331</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -12408,7 +12786,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="13" t="s">
         <v>332</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -12437,7 +12815,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="13" t="s">
         <v>333</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -12466,7 +12844,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="13" t="s">
         <v>334</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -12495,7 +12873,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="13" t="s">
         <v>335</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -12524,7 +12902,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="13" t="s">
         <v>336</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -12553,7 +12931,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -12582,7 +12960,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="13" t="s">
         <v>337</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -12611,7 +12989,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="13" t="s">
         <v>338</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -12640,7 +13018,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="13" t="s">
         <v>339</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -12669,7 +13047,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="13" t="s">
         <v>340</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -12698,7 +13076,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="13" t="s">
         <v>341</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -12727,7 +13105,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="13" t="s">
         <v>342</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -12756,7 +13134,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="13" t="s">
         <v>343</v>
       </c>
       <c r="B330" s="1" t="s">
@@ -12785,7 +13163,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="13" t="s">
         <v>344</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -12814,7 +13192,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="13" t="s">
         <v>345</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -12843,7 +13221,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="13" t="s">
         <v>346</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -12872,7 +13250,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="13" t="s">
         <v>347</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -12901,7 +13279,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -12930,7 +13308,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="13" t="s">
         <v>349</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -12959,7 +13337,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="13" t="s">
         <v>350</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -12988,7 +13366,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -13017,7 +13395,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -13046,7 +13424,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="13" t="s">
         <v>353</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -13075,7 +13453,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -13104,7 +13482,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -13133,7 +13511,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="13" t="s">
         <v>356</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -13162,7 +13540,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="13" t="s">
         <v>357</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -13191,7 +13569,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="13" t="s">
         <v>358</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -13220,7 +13598,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="13" t="s">
         <v>359</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -13249,7 +13627,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="13" t="s">
         <v>360</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -13278,7 +13656,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="13" t="s">
         <v>361</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -13307,7 +13685,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="13" t="s">
         <v>362</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -13336,7 +13714,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -13365,7 +13743,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -13394,7 +13772,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="13" t="s">
         <v>365</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -13423,7 +13801,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="13" t="s">
         <v>366</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -13452,7 +13830,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -13481,7 +13859,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="13" t="s">
         <v>368</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -13510,7 +13888,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="13" t="s">
         <v>369</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -13539,7 +13917,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="13" t="s">
         <v>370</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -13568,7 +13946,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="13" t="s">
         <v>371</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -13597,7 +13975,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="13" t="s">
         <v>372</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -13626,7 +14004,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="13" t="s">
         <v>373</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -13655,7 +14033,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="13" t="s">
         <v>374</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -13684,7 +14062,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -13713,7 +14091,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="13" t="s">
         <v>376</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -13742,7 +14120,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="13" t="s">
         <v>377</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -13771,7 +14149,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="13" t="s">
         <v>378</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -13800,7 +14178,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="13" t="s">
         <v>379</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -13829,7 +14207,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="13" t="s">
         <v>380</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -13858,7 +14236,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="13" t="s">
         <v>381</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -13887,7 +14265,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="13" t="s">
         <v>382</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -13916,7 +14294,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -13945,7 +14323,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="13" t="s">
         <v>384</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -13974,7 +14352,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -14003,7 +14381,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="13" t="s">
         <v>386</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -14032,7 +14410,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="13" t="s">
         <v>387</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -14061,7 +14439,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="13" t="s">
         <v>388</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -14090,7 +14468,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -14119,7 +14497,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="13" t="s">
         <v>390</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -14148,7 +14526,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -14177,7 +14555,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="13" t="s">
         <v>392</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -14206,7 +14584,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -14235,7 +14613,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="13" t="s">
         <v>394</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -14264,7 +14642,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -14293,7 +14671,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -14322,7 +14700,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -14351,7 +14729,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="13" t="s">
         <v>398</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -14380,7 +14758,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -14409,7 +14787,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -14438,7 +14816,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="13" t="s">
         <v>401</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -14467,7 +14845,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -14496,7 +14874,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -14525,7 +14903,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -14554,7 +14932,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -14583,7 +14961,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -14612,7 +14990,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -14641,7 +15019,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -14670,7 +15048,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="13" t="s">
         <v>409</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -14699,7 +15077,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="13" t="s">
         <v>410</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -14728,7 +15106,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -14757,7 +15135,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -14786,7 +15164,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="13" t="s">
         <v>413</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -14815,7 +15193,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="13" t="s">
         <v>414</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -14844,7 +15222,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -14873,7 +15251,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="13" t="s">
         <v>416</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -14902,7 +15280,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="13" t="s">
         <v>417</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -14931,7 +15309,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="13" t="s">
         <v>418</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -14960,7 +15338,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -14989,7 +15367,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="13" t="s">
         <v>420</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -15018,7 +15396,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -15047,7 +15425,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="13" t="s">
         <v>422</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -15076,7 +15454,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -15105,7 +15483,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -15134,7 +15512,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -15163,7 +15541,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -15192,7 +15570,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -15221,7 +15599,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -15250,7 +15628,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="13" t="s">
         <v>429</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -15279,7 +15657,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="13" t="s">
         <v>430</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -15308,7 +15686,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="13" t="s">
         <v>431</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -15337,7 +15715,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -15366,7 +15744,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="13" t="s">
         <v>433</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -15395,7 +15773,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="13" t="s">
         <v>434</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -15424,7 +15802,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="13" t="s">
         <v>435</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -15453,7 +15831,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="13" t="s">
         <v>436</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -15482,7 +15860,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="13" t="s">
         <v>437</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -15511,7 +15889,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="13" t="s">
         <v>438</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -15540,7 +15918,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -15569,7 +15947,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -15598,7 +15976,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="13" t="s">
         <v>440</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -15627,7 +16005,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="13" t="s">
         <v>441</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -15656,7 +16034,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="13" t="s">
         <v>442</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -15685,7 +16063,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="13" t="s">
         <v>443</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -15714,7 +16092,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="13" t="s">
         <v>444</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -15743,7 +16121,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="13" t="s">
         <v>445</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -15772,7 +16150,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="13" t="s">
         <v>446</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -15801,7 +16179,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="13" t="s">
         <v>447</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -15830,7 +16208,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="13" t="s">
         <v>448</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -15859,7 +16237,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="13" t="s">
         <v>449</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -15888,7 +16266,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="13" t="s">
         <v>450</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -15917,7 +16295,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="13" t="s">
         <v>451</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -15946,7 +16324,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="13" t="s">
         <v>452</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -15975,7 +16353,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="13" t="s">
         <v>453</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -16004,7 +16382,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="13" t="s">
         <v>454</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -16033,7 +16411,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="13" t="s">
         <v>455</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -16062,7 +16440,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -16091,7 +16469,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="13" t="s">
         <v>457</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -16120,7 +16498,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="13" t="s">
         <v>458</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -16149,7 +16527,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="13" t="s">
         <v>459</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -16178,7 +16556,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="13" t="s">
         <v>460</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -16207,7 +16585,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -16236,7 +16614,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="13" t="s">
         <v>462</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -16265,7 +16643,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="13" t="s">
         <v>463</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -16294,7 +16672,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="13" t="s">
         <v>464</v>
       </c>
       <c r="B452" s="1" t="s">
@@ -16323,7 +16701,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="13" t="s">
         <v>465</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -16352,7 +16730,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -16381,7 +16759,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="13" t="s">
         <v>467</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -16410,7 +16788,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="13" t="s">
         <v>468</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -16439,7 +16817,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="13" t="s">
         <v>469</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -16468,7 +16846,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -16497,7 +16875,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="13" t="s">
         <v>471</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -16526,7 +16904,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="13" t="s">
         <v>472</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -16555,7 +16933,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="13" t="s">
         <v>473</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -16584,7 +16962,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="13" t="s">
         <v>474</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -16613,7 +16991,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="13" t="s">
         <v>475</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -16642,7 +17020,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="13" t="s">
         <v>476</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -16671,7 +17049,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="13" t="s">
         <v>477</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -16700,7 +17078,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="13" t="s">
         <v>478</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -16729,7 +17107,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="13" t="s">
         <v>479</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -16758,7 +17136,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="13" t="s">
         <v>480</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -16787,7 +17165,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="13" t="s">
         <v>481</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -16816,7 +17194,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="13" t="s">
         <v>482</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -16845,7 +17223,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="13" t="s">
         <v>483</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -16874,7 +17252,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="13" t="s">
         <v>484</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -16903,7 +17281,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="13" t="s">
         <v>485</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -16932,7 +17310,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="13" t="s">
         <v>486</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -16961,7 +17339,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="13" t="s">
         <v>487</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -16990,7 +17368,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="13" t="s">
         <v>488</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -17019,7 +17397,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="13" t="s">
         <v>489</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -17048,7 +17426,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="13" t="s">
         <v>490</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -17077,7 +17455,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="13" t="s">
         <v>491</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -17106,7 +17484,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="13" t="s">
         <v>492</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -17135,7 +17513,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -17164,7 +17542,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="13" t="s">
         <v>494</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -17193,7 +17571,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="13" t="s">
         <v>495</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -17222,7 +17600,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="13" t="s">
         <v>496</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -17251,7 +17629,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="13" t="s">
         <v>497</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -17280,7 +17658,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="13" t="s">
         <v>498</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -17309,7 +17687,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="13" t="s">
         <v>499</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -17338,7 +17716,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="13" t="s">
         <v>500</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -17367,7 +17745,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="13" t="s">
         <v>501</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -17396,7 +17774,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="13" t="s">
         <v>502</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -17425,7 +17803,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="13" t="s">
         <v>503</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -17454,7 +17832,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="13" t="s">
         <v>504</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -17483,7 +17861,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="13" t="s">
         <v>505</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -17512,7 +17890,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="13" t="s">
         <v>506</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -17541,7 +17919,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="13" t="s">
         <v>507</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -17570,7 +17948,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="13" t="s">
         <v>508</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -17599,7 +17977,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="13" t="s">
         <v>509</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -17628,7 +18006,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="13" t="s">
         <v>510</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -17657,7 +18035,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="13" t="s">
         <v>511</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -17686,7 +18064,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="13" t="s">
         <v>512</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -17715,7 +18093,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="13" t="s">
         <v>513</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -17744,7 +18122,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="13" t="s">
         <v>514</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -17773,7 +18151,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="13" t="s">
         <v>515</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -17802,7 +18180,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -17831,7 +18209,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="13" t="s">
         <v>517</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -17860,7 +18238,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="13" t="s">
         <v>518</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -17889,7 +18267,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="13" t="s">
         <v>519</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -17918,7 +18296,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="13" t="s">
         <v>520</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -17947,7 +18325,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="13" t="s">
         <v>521</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -17976,7 +18354,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="13" t="s">
         <v>522</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -18005,7 +18383,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="13" t="s">
         <v>523</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -18034,7 +18412,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="13" t="s">
         <v>524</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -18063,7 +18441,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="13" t="s">
         <v>525</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -18092,7 +18470,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="13" t="s">
         <v>526</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -18121,7 +18499,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="13" t="s">
         <v>527</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -18150,7 +18528,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="13" t="s">
         <v>528</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -18179,7 +18557,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -18208,7 +18586,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="13" t="s">
         <v>530</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -18237,7 +18615,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="13" t="s">
         <v>531</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -18266,7 +18644,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="13" t="s">
         <v>532</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -18295,7 +18673,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="13" t="s">
         <v>533</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -18324,7 +18702,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="13" t="s">
         <v>534</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -18353,7 +18731,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="13" t="s">
         <v>535</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -18382,7 +18760,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="13" t="s">
         <v>536</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -18411,7 +18789,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="13" t="s">
         <v>537</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -18440,7 +18818,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="13" t="s">
         <v>538</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -18469,7 +18847,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -18498,7 +18876,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="13" t="s">
         <v>540</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -18527,7 +18905,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -18556,7 +18934,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="13" t="s">
         <v>542</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -18585,7 +18963,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="13" t="s">
         <v>543</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -18614,7 +18992,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="13" t="s">
         <v>544</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -18643,7 +19021,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="13" t="s">
         <v>545</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -18672,7 +19050,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="13" t="s">
         <v>546</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -18701,7 +19079,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -18730,7 +19108,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="13" t="s">
         <v>548</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -18759,7 +19137,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="13" t="s">
         <v>549</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -18788,7 +19166,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="13" t="s">
         <v>550</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -18817,7 +19195,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="13" t="s">
         <v>551</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -18846,7 +19224,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="13" t="s">
         <v>552</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -18875,7 +19253,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="13" t="s">
         <v>553</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -18904,7 +19282,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -18933,7 +19311,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="13" t="s">
         <v>555</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -18962,7 +19340,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="13" t="s">
         <v>556</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -18991,7 +19369,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="13" t="s">
         <v>557</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -19020,7 +19398,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="13" t="s">
         <v>558</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -19049,7 +19427,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="13" t="s">
         <v>559</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -19078,7 +19456,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="13" t="s">
         <v>560</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -19107,7 +19485,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="13" t="s">
         <v>561</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -19136,7 +19514,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="13" t="s">
         <v>562</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -19165,7 +19543,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="13" t="s">
         <v>563</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -19194,7 +19572,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="13" t="s">
         <v>564</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -19223,7 +19601,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="13" t="s">
         <v>565</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -19252,7 +19630,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="13" t="s">
         <v>566</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -19281,7 +19659,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="13" t="s">
         <v>567</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -19310,7 +19688,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="13" t="s">
         <v>568</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -19339,7 +19717,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="13" t="s">
         <v>569</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -19368,7 +19746,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="13" t="s">
         <v>570</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -19397,7 +19775,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="13" t="s">
         <v>571</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -19426,7 +19804,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="13" t="s">
         <v>572</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -19455,7 +19833,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="13" t="s">
         <v>573</v>
       </c>
       <c r="B561" s="1" t="s">
@@ -19484,7 +19862,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="13" t="s">
         <v>574</v>
       </c>
       <c r="B562" s="1" t="s">
@@ -19513,7 +19891,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="13" t="s">
         <v>575</v>
       </c>
       <c r="B563" s="1" t="s">
@@ -19542,7 +19920,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="13" t="s">
         <v>576</v>
       </c>
       <c r="B564" s="1" t="s">
@@ -19571,7 +19949,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="13" t="s">
         <v>577</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -19600,7 +19978,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="13" t="s">
         <v>578</v>
       </c>
       <c r="B566" s="1" t="s">
@@ -19629,7 +20007,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="13" t="s">
         <v>579</v>
       </c>
       <c r="B567" s="1" t="s">
@@ -19658,7 +20036,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="13" t="s">
         <v>580</v>
       </c>
       <c r="B568" s="1" t="s">
@@ -19687,7 +20065,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="13" t="s">
         <v>581</v>
       </c>
       <c r="B569" s="1" t="s">
@@ -19716,7 +20094,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="13" t="s">
         <v>582</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -19745,7 +20123,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="13" t="s">
         <v>583</v>
       </c>
       <c r="B571" s="1" t="s">
@@ -19774,7 +20152,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="13" t="s">
         <v>584</v>
       </c>
       <c r="B572" s="1" t="s">
@@ -19803,7 +20181,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="13" t="s">
         <v>585</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -19832,7 +20210,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="13" t="s">
         <v>586</v>
       </c>
       <c r="B574" s="1" t="s">
@@ -19861,7 +20239,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="13" t="s">
         <v>587</v>
       </c>
       <c r="B575" s="1" t="s">
@@ -19890,7 +20268,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="13" t="s">
         <v>588</v>
       </c>
       <c r="B576" s="1" t="s">
@@ -19919,7 +20297,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A577" s="1" t="s">
+      <c r="A577" s="13" t="s">
         <v>589</v>
       </c>
       <c r="B577" s="1" t="s">
@@ -19948,7 +20326,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A578" s="1" t="s">
+      <c r="A578" s="13" t="s">
         <v>590</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -19977,7 +20355,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="13" t="s">
         <v>591</v>
       </c>
       <c r="B579" s="1" t="s">
@@ -20006,7 +20384,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="13" t="s">
         <v>592</v>
       </c>
       <c r="B580" s="1" t="s">
@@ -20035,7 +20413,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="13" t="s">
         <v>593</v>
       </c>
       <c r="B581" s="1" t="s">
@@ -20064,7 +20442,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="13" t="s">
         <v>594</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -20093,7 +20471,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A583" s="1" t="s">
+      <c r="A583" s="13" t="s">
         <v>595</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -20122,7 +20500,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="13" t="s">
         <v>596</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -20151,7 +20529,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A585" s="1" t="s">
+      <c r="A585" s="13" t="s">
         <v>597</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -20180,7 +20558,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A586" s="1" t="s">
+      <c r="A586" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -20209,7 +20587,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="13" t="s">
         <v>599</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -20238,7 +20616,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="13" t="s">
         <v>600</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -20267,7 +20645,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="13" t="s">
         <v>601</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -20296,7 +20674,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="13" t="s">
         <v>602</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -20325,7 +20703,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A591" s="1" t="s">
+      <c r="A591" s="13" t="s">
         <v>603</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -20354,7 +20732,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A592" s="1" t="s">
+      <c r="A592" s="13" t="s">
         <v>604</v>
       </c>
       <c r="B592" s="1" t="s">
@@ -20383,7 +20761,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A593" s="1" t="s">
+      <c r="A593" s="13" t="s">
         <v>605</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -20412,7 +20790,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A594" s="1" t="s">
+      <c r="A594" s="13" t="s">
         <v>606</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -20441,7 +20819,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A595" s="1" t="s">
+      <c r="A595" s="13" t="s">
         <v>607</v>
       </c>
       <c r="B595" s="1" t="s">
@@ -20470,7 +20848,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A596" s="1" t="s">
+      <c r="A596" s="13" t="s">
         <v>608</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -20499,7 +20877,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A597" s="1" t="s">
+      <c r="A597" s="13" t="s">
         <v>609</v>
       </c>
       <c r="B597" s="1" t="s">
@@ -20528,7 +20906,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A598" s="1" t="s">
+      <c r="A598" s="13" t="s">
         <v>610</v>
       </c>
       <c r="B598" s="1" t="s">
@@ -20557,7 +20935,7 @@
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A599" s="1" t="s">
+      <c r="A599" s="13" t="s">
         <v>611</v>
       </c>
       <c r="B599" s="1" t="s">
@@ -20586,7 +20964,7 @@
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A600" s="1" t="s">
+      <c r="A600" s="13" t="s">
         <v>612</v>
       </c>
       <c r="B600" s="1" t="s">
@@ -20615,7 +20993,7 @@
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A601" s="1" t="s">
+      <c r="A601" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B601" s="1" t="s">
@@ -20644,7 +21022,7 @@
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="13" t="s">
         <v>613</v>
       </c>
       <c r="B602" s="1" t="s">
@@ -20673,7 +21051,7 @@
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="13" t="s">
         <v>614</v>
       </c>
       <c r="B603" s="1" t="s">
@@ -20702,7 +21080,7 @@
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A604" s="1" t="s">
+      <c r="A604" s="13" t="s">
         <v>615</v>
       </c>
       <c r="B604" s="1" t="s">
@@ -20731,7 +21109,7 @@
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A605" s="1" t="s">
+      <c r="A605" s="13" t="s">
         <v>616</v>
       </c>
       <c r="B605" s="1" t="s">
@@ -20760,7 +21138,7 @@
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A606" s="1" t="s">
+      <c r="A606" s="13" t="s">
         <v>617</v>
       </c>
       <c r="B606" s="1" t="s">
@@ -20789,7 +21167,7 @@
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A607" s="1" t="s">
+      <c r="A607" s="13" t="s">
         <v>618</v>
       </c>
       <c r="B607" s="1" t="s">
@@ -20818,7 +21196,7 @@
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="13" t="s">
         <v>619</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -20847,7 +21225,7 @@
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="13" t="s">
         <v>620</v>
       </c>
       <c r="B609" s="1" t="s">
@@ -20876,7 +21254,7 @@
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="13" t="s">
         <v>621</v>
       </c>
       <c r="B610" s="1" t="s">
@@ -20905,7 +21283,7 @@
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A611" s="1" t="s">
+      <c r="A611" s="13" t="s">
         <v>622</v>
       </c>
       <c r="B611" s="1" t="s">
@@ -20934,7 +21312,7 @@
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A612" s="1" t="s">
+      <c r="A612" s="13" t="s">
         <v>623</v>
       </c>
       <c r="B612" s="1" t="s">
@@ -20963,7 +21341,7 @@
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A613" s="1" t="s">
+      <c r="A613" s="13" t="s">
         <v>624</v>
       </c>
       <c r="B613" s="1" t="s">
@@ -20992,7 +21370,7 @@
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A614" s="1" t="s">
+      <c r="A614" s="13" t="s">
         <v>625</v>
       </c>
       <c r="B614" s="1" t="s">
@@ -21021,7 +21399,7 @@
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A615" s="1" t="s">
+      <c r="A615" s="13" t="s">
         <v>626</v>
       </c>
       <c r="B615" s="1" t="s">
@@ -21050,7 +21428,7 @@
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A616" s="1" t="s">
+      <c r="A616" s="13" t="s">
         <v>627</v>
       </c>
       <c r="B616" s="1" t="s">
@@ -21079,7 +21457,7 @@
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A617" s="1" t="s">
+      <c r="A617" s="13" t="s">
         <v>628</v>
       </c>
       <c r="B617" s="1" t="s">
@@ -21108,7 +21486,7 @@
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B618" s="1" t="s">
@@ -21137,7 +21515,7 @@
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A619" s="1" t="s">
+      <c r="A619" s="13" t="s">
         <v>629</v>
       </c>
       <c r="B619" s="1" t="s">
@@ -21166,7 +21544,7 @@
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A620" s="1" t="s">
+      <c r="A620" s="13" t="s">
         <v>630</v>
       </c>
       <c r="B620" s="1" t="s">
@@ -21195,7 +21573,7 @@
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="13" t="s">
         <v>631</v>
       </c>
       <c r="B621" s="1" t="s">
@@ -21224,7 +21602,7 @@
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A622" s="1" t="s">
+      <c r="A622" s="13" t="s">
         <v>632</v>
       </c>
       <c r="B622" s="1" t="s">
@@ -21253,7 +21631,7 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A623" s="1" t="s">
+      <c r="A623" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B623" s="1" t="s">
@@ -21282,7 +21660,7 @@
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="13" t="s">
         <v>634</v>
       </c>
       <c r="B624" s="1" t="s">
@@ -21311,7 +21689,7 @@
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A625" s="1" t="s">
+      <c r="A625" s="13" t="s">
         <v>635</v>
       </c>
       <c r="B625" s="1" t="s">
@@ -21340,7 +21718,7 @@
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A626" s="1" t="s">
+      <c r="A626" s="13" t="s">
         <v>636</v>
       </c>
       <c r="B626" s="1" t="s">
@@ -21369,7 +21747,7 @@
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A627" s="1" t="s">
+      <c r="A627" s="13" t="s">
         <v>637</v>
       </c>
       <c r="B627" s="1" t="s">
@@ -21398,7 +21776,7 @@
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A628" s="1" t="s">
+      <c r="A628" s="13" t="s">
         <v>638</v>
       </c>
       <c r="B628" s="1" t="s">
@@ -21427,7 +21805,7 @@
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A629" s="1" t="s">
+      <c r="A629" s="13" t="s">
         <v>639</v>
       </c>
       <c r="B629" s="1" t="s">
@@ -21456,7 +21834,7 @@
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A630" s="1" t="s">
+      <c r="A630" s="13" t="s">
         <v>640</v>
       </c>
       <c r="B630" s="1" t="s">
@@ -21485,7 +21863,7 @@
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A631" s="1" t="s">
+      <c r="A631" s="13" t="s">
         <v>641</v>
       </c>
       <c r="B631" s="1" t="s">
@@ -21514,7 +21892,7 @@
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A632" s="1" t="s">
+      <c r="A632" s="13" t="s">
         <v>642</v>
       </c>
       <c r="B632" s="1" t="s">
@@ -21543,7 +21921,7 @@
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A633" s="1" t="s">
+      <c r="A633" s="13" t="s">
         <v>643</v>
       </c>
       <c r="B633" s="1" t="s">
@@ -21572,7 +21950,7 @@
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A634" s="1" t="s">
+      <c r="A634" s="13" t="s">
         <v>644</v>
       </c>
       <c r="B634" s="1" t="s">
@@ -21601,7 +21979,7 @@
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A635" s="1" t="s">
+      <c r="A635" s="13" t="s">
         <v>645</v>
       </c>
       <c r="B635" s="1" t="s">
@@ -21630,7 +22008,7 @@
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A636" s="1" t="s">
+      <c r="A636" s="13" t="s">
         <v>646</v>
       </c>
       <c r="B636" s="1" t="s">
@@ -21659,7 +22037,7 @@
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A637" s="1" t="s">
+      <c r="A637" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B637" s="1" t="s">
@@ -21688,7 +22066,7 @@
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
+      <c r="A638" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B638" s="1" t="s">
@@ -21717,7 +22095,7 @@
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A639" s="1" t="s">
+      <c r="A639" s="13" t="s">
         <v>648</v>
       </c>
       <c r="B639" s="1" t="s">
@@ -21746,7 +22124,7 @@
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A640" s="1" t="s">
+      <c r="A640" s="13" t="s">
         <v>649</v>
       </c>
       <c r="B640" s="1" t="s">
@@ -21775,7 +22153,7 @@
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A641" s="1" t="s">
+      <c r="A641" s="13" t="s">
         <v>650</v>
       </c>
       <c r="B641" s="1" t="s">
@@ -21804,7 +22182,7 @@
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A642" s="1" t="s">
+      <c r="A642" s="13" t="s">
         <v>651</v>
       </c>
       <c r="B642" s="1" t="s">
@@ -21833,7 +22211,7 @@
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A643" s="1" t="s">
+      <c r="A643" s="13" t="s">
         <v>652</v>
       </c>
       <c r="B643" s="1" t="s">
@@ -21862,7 +22240,7 @@
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A644" s="1" t="s">
+      <c r="A644" s="13" t="s">
         <v>653</v>
       </c>
       <c r="B644" s="1" t="s">
@@ -21891,7 +22269,7 @@
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A645" s="1" t="s">
+      <c r="A645" s="13" t="s">
         <v>654</v>
       </c>
       <c r="B645" s="1" t="s">
@@ -21920,7 +22298,7 @@
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A646" s="1" t="s">
+      <c r="A646" s="13" t="s">
         <v>655</v>
       </c>
       <c r="B646" s="1" t="s">
@@ -21949,7 +22327,7 @@
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A647" s="1" t="s">
+      <c r="A647" s="13" t="s">
         <v>656</v>
       </c>
       <c r="B647" s="1" t="s">
@@ -21978,7 +22356,7 @@
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A648" s="1" t="s">
+      <c r="A648" s="13" t="s">
         <v>657</v>
       </c>
       <c r="B648" s="1" t="s">
@@ -22007,7 +22385,7 @@
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A649" s="1" t="s">
+      <c r="A649" s="13" t="s">
         <v>658</v>
       </c>
       <c r="B649" s="1" t="s">
@@ -22036,7 +22414,7 @@
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="13" t="s">
         <v>659</v>
       </c>
       <c r="B650" s="1" t="s">
@@ -22065,7 +22443,7 @@
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A651" s="1" t="s">
+      <c r="A651" s="13" t="s">
         <v>660</v>
       </c>
       <c r="B651" s="1" t="s">
@@ -22094,7 +22472,7 @@
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="13" t="s">
         <v>661</v>
       </c>
       <c r="B652" s="1" t="s">
@@ -22123,7 +22501,7 @@
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="13" t="s">
         <v>662</v>
       </c>
       <c r="B653" s="1" t="s">
@@ -22152,7 +22530,7 @@
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A654" s="1" t="s">
+      <c r="A654" s="13" t="s">
         <v>663</v>
       </c>
       <c r="B654" s="1" t="s">
@@ -22181,7 +22559,7 @@
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A655" s="1" t="s">
+      <c r="A655" s="13" t="s">
         <v>664</v>
       </c>
       <c r="B655" s="1" t="s">
@@ -22210,7 +22588,7 @@
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A656" s="1" t="s">
+      <c r="A656" s="13" t="s">
         <v>665</v>
       </c>
       <c r="B656" s="1" t="s">
@@ -22239,7 +22617,7 @@
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="13" t="s">
         <v>666</v>
       </c>
       <c r="B657" s="1" t="s">
@@ -22268,7 +22646,7 @@
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A658" s="1" t="s">
+      <c r="A658" s="13" t="s">
         <v>667</v>
       </c>
       <c r="B658" s="1" t="s">
@@ -22297,7 +22675,7 @@
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A659" s="1" t="s">
+      <c r="A659" s="13" t="s">
         <v>668</v>
       </c>
       <c r="B659" s="1" t="s">
@@ -22326,7 +22704,7 @@
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A660" s="1" t="s">
+      <c r="A660" s="13" t="s">
         <v>669</v>
       </c>
       <c r="B660" s="1" t="s">
@@ -22355,7 +22733,7 @@
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A661" s="1" t="s">
+      <c r="A661" s="13" t="s">
         <v>670</v>
       </c>
       <c r="B661" s="1" t="s">
@@ -22384,7 +22762,7 @@
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A662" s="1" t="s">
+      <c r="A662" s="13" t="s">
         <v>671</v>
       </c>
       <c r="B662" s="1" t="s">
@@ -22413,7 +22791,7 @@
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A663" s="1" t="s">
+      <c r="A663" s="13" t="s">
         <v>672</v>
       </c>
       <c r="B663" s="1" t="s">
@@ -22442,7 +22820,7 @@
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A664" s="1" t="s">
+      <c r="A664" s="13" t="s">
         <v>673</v>
       </c>
       <c r="B664" s="1" t="s">
@@ -22471,7 +22849,7 @@
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A665" s="1" t="s">
+      <c r="A665" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B665" s="1" t="s">
@@ -22500,7 +22878,7 @@
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="13" t="s">
         <v>675</v>
       </c>
       <c r="B666" s="1" t="s">
@@ -22529,7 +22907,7 @@
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A667" s="1" t="s">
+      <c r="A667" s="13" t="s">
         <v>676</v>
       </c>
       <c r="B667" s="1" t="s">
@@ -22558,7 +22936,7 @@
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A668" s="1" t="s">
+      <c r="A668" s="13" t="s">
         <v>677</v>
       </c>
       <c r="B668" s="1" t="s">
@@ -22587,7 +22965,7 @@
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="13" t="s">
         <v>678</v>
       </c>
       <c r="B669" s="1" t="s">
@@ -22616,7 +22994,7 @@
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="13" t="s">
         <v>679</v>
       </c>
       <c r="B670" s="1" t="s">
@@ -22645,7 +23023,7 @@
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="13" t="s">
         <v>680</v>
       </c>
       <c r="B671" s="1" t="s">
@@ -22674,7 +23052,7 @@
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B672" s="1" t="s">
@@ -22703,7 +23081,7 @@
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A673" s="1" t="s">
+      <c r="A673" s="13" t="s">
         <v>682</v>
       </c>
       <c r="B673" s="1" t="s">
@@ -22732,7 +23110,7 @@
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B674" s="1" t="s">
@@ -22761,7 +23139,7 @@
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B675" s="1" t="s">
@@ -22790,7 +23168,7 @@
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A676" s="1" t="s">
+      <c r="A676" s="13" t="s">
         <v>685</v>
       </c>
       <c r="B676" s="1" t="s">
@@ -22819,7 +23197,7 @@
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A677" s="1" t="s">
+      <c r="A677" s="13" t="s">
         <v>686</v>
       </c>
       <c r="B677" s="1" t="s">
@@ -22848,7 +23226,7 @@
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A678" s="1" t="s">
+      <c r="A678" s="13" t="s">
         <v>687</v>
       </c>
       <c r="B678" s="1" t="s">
@@ -22877,7 +23255,7 @@
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="13" t="s">
         <v>688</v>
       </c>
       <c r="B679" s="1" t="s">
@@ -22906,7 +23284,7 @@
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="13" t="s">
         <v>689</v>
       </c>
       <c r="B680" s="1" t="s">
@@ -22935,7 +23313,7 @@
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="13" t="s">
         <v>690</v>
       </c>
       <c r="B681" s="1" t="s">
@@ -22964,7 +23342,7 @@
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="13" t="s">
         <v>691</v>
       </c>
       <c r="B682" s="1" t="s">
@@ -22993,7 +23371,7 @@
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A683" s="1" t="s">
+      <c r="A683" s="13" t="s">
         <v>692</v>
       </c>
       <c r="B683" s="1" t="s">
@@ -23022,7 +23400,7 @@
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A684" s="1" t="s">
+      <c r="A684" s="13" t="s">
         <v>693</v>
       </c>
       <c r="B684" s="1" t="s">
@@ -23051,7 +23429,7 @@
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A685" s="1" t="s">
+      <c r="A685" s="13" t="s">
         <v>694</v>
       </c>
       <c r="B685" s="1" t="s">
@@ -23080,7 +23458,7 @@
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A686" s="1" t="s">
+      <c r="A686" s="13" t="s">
         <v>695</v>
       </c>
       <c r="B686" s="1" t="s">
@@ -23109,7 +23487,7 @@
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A687" s="1" t="s">
+      <c r="A687" s="13" t="s">
         <v>696</v>
       </c>
       <c r="B687" s="1" t="s">
@@ -23138,7 +23516,7 @@
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A688" s="1" t="s">
+      <c r="A688" s="13" t="s">
         <v>697</v>
       </c>
       <c r="B688" s="1" t="s">
@@ -23167,7 +23545,7 @@
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A689" s="1" t="s">
+      <c r="A689" s="13" t="s">
         <v>698</v>
       </c>
       <c r="B689" s="1" t="s">
@@ -23196,7 +23574,7 @@
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="13" t="s">
         <v>699</v>
       </c>
       <c r="B690" s="1" t="s">
@@ -23225,7 +23603,7 @@
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A691" s="1" t="s">
+      <c r="A691" s="13" t="s">
         <v>700</v>
       </c>
       <c r="B691" s="1" t="s">
@@ -23254,7 +23632,7 @@
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A692" s="1" t="s">
+      <c r="A692" s="13" t="s">
         <v>701</v>
       </c>
       <c r="B692" s="1" t="s">
@@ -23283,7 +23661,7 @@
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="13" t="s">
         <v>702</v>
       </c>
       <c r="B693" s="1" t="s">
@@ -23312,7 +23690,7 @@
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="13" t="s">
         <v>703</v>
       </c>
       <c r="B694" s="1" t="s">
@@ -23341,7 +23719,7 @@
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="13" t="s">
         <v>704</v>
       </c>
       <c r="B695" s="1" t="s">
@@ -23370,7 +23748,7 @@
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="13" t="s">
         <v>705</v>
       </c>
       <c r="B696" s="1" t="s">
@@ -23399,7 +23777,7 @@
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="13" t="s">
         <v>706</v>
       </c>
       <c r="B697" s="1" t="s">
@@ -23428,7 +23806,7 @@
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="13" t="s">
         <v>707</v>
       </c>
       <c r="B698" s="1" t="s">
@@ -23457,7 +23835,7 @@
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="13" t="s">
         <v>708</v>
       </c>
       <c r="B699" s="1" t="s">
@@ -23486,7 +23864,7 @@
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="13" t="s">
         <v>709</v>
       </c>
       <c r="B700" s="1" t="s">
@@ -23515,7 +23893,7 @@
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="13" t="s">
         <v>710</v>
       </c>
       <c r="B701" s="1" t="s">
@@ -23544,7 +23922,7 @@
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="13" t="s">
         <v>711</v>
       </c>
       <c r="B702" s="1" t="s">
@@ -23573,7 +23951,7 @@
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="13" t="s">
         <v>712</v>
       </c>
       <c r="B703" s="1" t="s">
@@ -23602,7 +23980,7 @@
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="13" t="s">
         <v>713</v>
       </c>
       <c r="B704" s="1" t="s">
@@ -23631,7 +24009,7 @@
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="13" t="s">
         <v>714</v>
       </c>
       <c r="B705" s="1" t="s">
@@ -23660,7 +24038,7 @@
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A706" s="1" t="s">
+      <c r="A706" s="13" t="s">
         <v>715</v>
       </c>
       <c r="B706" s="1" t="s">
@@ -23689,7 +24067,7 @@
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A707" s="1" t="s">
+      <c r="A707" s="13" t="s">
         <v>716</v>
       </c>
       <c r="B707" s="1" t="s">
@@ -23718,7 +24096,7 @@
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A708" s="1" t="s">
+      <c r="A708" s="13" t="s">
         <v>717</v>
       </c>
       <c r="B708" s="1" t="s">
@@ -23747,7 +24125,7 @@
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A709" s="1" t="s">
+      <c r="A709" s="13" t="s">
         <v>718</v>
       </c>
       <c r="B709" s="1" t="s">
@@ -23776,7 +24154,7 @@
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A710" s="1" t="s">
+      <c r="A710" s="13" t="s">
         <v>719</v>
       </c>
       <c r="B710" s="1" t="s">
@@ -23805,7 +24183,7 @@
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="13" t="s">
         <v>720</v>
       </c>
       <c r="B711" s="1" t="s">
@@ -23834,7 +24212,7 @@
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A712" s="1" t="s">
+      <c r="A712" s="13" t="s">
         <v>721</v>
       </c>
       <c r="B712" s="1" t="s">
@@ -23863,7 +24241,7 @@
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A713" s="1" t="s">
+      <c r="A713" s="13" t="s">
         <v>722</v>
       </c>
       <c r="B713" s="1" t="s">
@@ -23892,7 +24270,7 @@
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A714" s="1" t="s">
+      <c r="A714" s="13" t="s">
         <v>723</v>
       </c>
       <c r="B714" s="1" t="s">
@@ -23921,7 +24299,7 @@
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A715" s="1" t="s">
+      <c r="A715" s="13" t="s">
         <v>724</v>
       </c>
       <c r="B715" s="1" t="s">
@@ -23950,7 +24328,7 @@
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A716" s="1" t="s">
+      <c r="A716" s="13" t="s">
         <v>725</v>
       </c>
       <c r="B716" s="1" t="s">
@@ -23979,7 +24357,7 @@
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A717" s="1" t="s">
+      <c r="A717" s="13" t="s">
         <v>726</v>
       </c>
       <c r="B717" s="1" t="s">
@@ -24008,7 +24386,7 @@
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A718" s="1" t="s">
+      <c r="A718" s="13" t="s">
         <v>727</v>
       </c>
       <c r="B718" s="1" t="s">
@@ -24037,7 +24415,7 @@
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A719" s="1" t="s">
+      <c r="A719" s="13" t="s">
         <v>728</v>
       </c>
       <c r="B719" s="1" t="s">
@@ -24066,7 +24444,7 @@
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A720" s="1" t="s">
+      <c r="A720" s="13" t="s">
         <v>729</v>
       </c>
       <c r="B720" s="1" t="s">
@@ -24095,7 +24473,7 @@
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A721" s="1" t="s">
+      <c r="A721" s="13" t="s">
         <v>730</v>
       </c>
       <c r="B721" s="1" t="s">
@@ -24124,7 +24502,7 @@
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A722" s="1" t="s">
+      <c r="A722" s="13" t="s">
         <v>731</v>
       </c>
       <c r="B722" s="1" t="s">
@@ -24153,7 +24531,7 @@
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A723" s="1" t="s">
+      <c r="A723" s="13" t="s">
         <v>732</v>
       </c>
       <c r="B723" s="1" t="s">
@@ -24182,7 +24560,7 @@
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A724" s="1" t="s">
+      <c r="A724" s="13" t="s">
         <v>733</v>
       </c>
       <c r="B724" s="1" t="s">
@@ -24211,7 +24589,7 @@
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="13" t="s">
         <v>734</v>
       </c>
       <c r="B725" s="1" t="s">
@@ -24240,7 +24618,7 @@
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A726" s="1" t="s">
+      <c r="A726" s="13" t="s">
         <v>735</v>
       </c>
       <c r="B726" s="1" t="s">
@@ -24269,7 +24647,7 @@
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A727" s="1" t="s">
+      <c r="A727" s="13" t="s">
         <v>736</v>
       </c>
       <c r="B727" s="1" t="s">
@@ -24298,7 +24676,7 @@
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A728" s="1" t="s">
+      <c r="A728" s="13" t="s">
         <v>737</v>
       </c>
       <c r="B728" s="1" t="s">
@@ -24327,7 +24705,7 @@
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A729" s="1" t="s">
+      <c r="A729" s="13" t="s">
         <v>738</v>
       </c>
       <c r="B729" s="1" t="s">
@@ -24356,7 +24734,7 @@
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A730" s="1" t="s">
+      <c r="A730" s="13" t="s">
         <v>739</v>
       </c>
       <c r="B730" s="1" t="s">
@@ -24385,7 +24763,7 @@
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A731" s="1" t="s">
+      <c r="A731" s="13" t="s">
         <v>740</v>
       </c>
       <c r="B731" s="1" t="s">
@@ -24414,7 +24792,7 @@
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A732" s="1" t="s">
+      <c r="A732" s="13" t="s">
         <v>741</v>
       </c>
       <c r="B732" s="1" t="s">
@@ -24443,7 +24821,7 @@
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="13" t="s">
         <v>742</v>
       </c>
       <c r="B733" s="1" t="s">
@@ -24472,7 +24850,7 @@
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="13" t="s">
         <v>743</v>
       </c>
       <c r="B734" s="1" t="s">
@@ -24501,7 +24879,7 @@
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="13" t="s">
         <v>744</v>
       </c>
       <c r="B735" s="1" t="s">
@@ -24530,7 +24908,7 @@
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="13" t="s">
         <v>745</v>
       </c>
       <c r="B736" s="1" t="s">
@@ -24559,7 +24937,7 @@
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="13" t="s">
         <v>746</v>
       </c>
       <c r="B737" s="1" t="s">
@@ -24588,7 +24966,7 @@
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="13" t="s">
         <v>747</v>
       </c>
       <c r="B738" s="1" t="s">
@@ -24617,7 +24995,7 @@
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="13" t="s">
         <v>748</v>
       </c>
       <c r="B739" s="1" t="s">
@@ -24646,7 +25024,7 @@
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="13" t="s">
         <v>749</v>
       </c>
       <c r="B740" s="1" t="s">
@@ -24675,7 +25053,7 @@
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="13" t="s">
         <v>750</v>
       </c>
       <c r="B741" s="1" t="s">
@@ -24704,7 +25082,7 @@
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="13" t="s">
         <v>751</v>
       </c>
       <c r="B742" s="1" t="s">
@@ -24733,7 +25111,7 @@
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A743" s="1" t="s">
+      <c r="A743" s="13" t="s">
         <v>752</v>
       </c>
       <c r="B743" s="1" t="s">
@@ -24762,7 +25140,7 @@
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A744" s="1" t="s">
+      <c r="A744" s="13" t="s">
         <v>753</v>
       </c>
       <c r="B744" s="1" t="s">
@@ -24791,7 +25169,7 @@
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A745" s="1" t="s">
+      <c r="A745" s="13" t="s">
         <v>754</v>
       </c>
       <c r="B745" s="1" t="s">
@@ -24820,7 +25198,7 @@
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A746" s="1" t="s">
+      <c r="A746" s="13" t="s">
         <v>755</v>
       </c>
       <c r="B746" s="1" t="s">
@@ -24849,7 +25227,7 @@
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A747" s="1" t="s">
+      <c r="A747" s="13" t="s">
         <v>756</v>
       </c>
       <c r="B747" s="1" t="s">
@@ -24878,7 +25256,7 @@
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A748" s="1" t="s">
+      <c r="A748" s="13" t="s">
         <v>757</v>
       </c>
       <c r="B748" s="1" t="s">
@@ -24907,7 +25285,7 @@
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A749" s="1" t="s">
+      <c r="A749" s="13" t="s">
         <v>758</v>
       </c>
       <c r="B749" s="1" t="s">
@@ -24936,7 +25314,7 @@
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A750" s="1" t="s">
+      <c r="A750" s="13" t="s">
         <v>759</v>
       </c>
       <c r="B750" s="1" t="s">
@@ -24965,7 +25343,7 @@
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A751" s="1" t="s">
+      <c r="A751" s="13" t="s">
         <v>760</v>
       </c>
       <c r="B751" s="1" t="s">
@@ -24994,7 +25372,7 @@
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A752" s="1" t="s">
+      <c r="A752" s="13" t="s">
         <v>761</v>
       </c>
       <c r="B752" s="1" t="s">
@@ -25023,7 +25401,7 @@
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A753" s="1" t="s">
+      <c r="A753" s="13" t="s">
         <v>762</v>
       </c>
       <c r="B753" s="1" t="s">
@@ -25052,7 +25430,7 @@
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="13" t="s">
         <v>763</v>
       </c>
       <c r="B754" s="1" t="s">
@@ -25081,7 +25459,7 @@
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B755" s="1" t="s">
@@ -25110,7 +25488,7 @@
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A756" s="1" t="s">
+      <c r="A756" s="13" t="s">
         <v>765</v>
       </c>
       <c r="B756" s="1" t="s">
@@ -25139,7 +25517,7 @@
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A757" s="1" t="s">
+      <c r="A757" s="13" t="s">
         <v>766</v>
       </c>
       <c r="B757" s="1" t="s">
@@ -25168,7 +25546,7 @@
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A758" s="1" t="s">
+      <c r="A758" s="13" t="s">
         <v>767</v>
       </c>
       <c r="B758" s="1" t="s">
@@ -25197,7 +25575,7 @@
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A759" s="1" t="s">
+      <c r="A759" s="13" t="s">
         <v>768</v>
       </c>
       <c r="B759" s="1" t="s">
@@ -25226,7 +25604,7 @@
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A760" s="1" t="s">
+      <c r="A760" s="13" t="s">
         <v>769</v>
       </c>
       <c r="B760" s="1" t="s">
@@ -25255,7 +25633,7 @@
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A761" s="1" t="s">
+      <c r="A761" s="13" t="s">
         <v>770</v>
       </c>
       <c r="B761" s="1" t="s">
@@ -25284,7 +25662,7 @@
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A762" s="1" t="s">
+      <c r="A762" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B762" s="1" t="s">
@@ -25313,7 +25691,7 @@
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="13" t="s">
         <v>772</v>
       </c>
       <c r="B763" s="1" t="s">
@@ -25342,7 +25720,7 @@
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="13" t="s">
         <v>773</v>
       </c>
       <c r="B764" s="1" t="s">
@@ -25371,7 +25749,7 @@
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A765" s="1" t="s">
+      <c r="A765" s="13" t="s">
         <v>774</v>
       </c>
       <c r="B765" s="1" t="s">
@@ -25400,7 +25778,7 @@
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A766" s="1" t="s">
+      <c r="A766" s="13" t="s">
         <v>775</v>
       </c>
       <c r="B766" s="1" t="s">
@@ -25429,7 +25807,7 @@
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A767" s="1" t="s">
+      <c r="A767" s="13" t="s">
         <v>776</v>
       </c>
       <c r="B767" s="1" t="s">
@@ -25458,7 +25836,7 @@
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A768" s="1" t="s">
+      <c r="A768" s="13" t="s">
         <v>777</v>
       </c>
       <c r="B768" s="1" t="s">
@@ -25487,7 +25865,7 @@
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="13" t="s">
         <v>778</v>
       </c>
       <c r="B769" s="1" t="s">
@@ -25516,7 +25894,7 @@
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="13" t="s">
         <v>779</v>
       </c>
       <c r="B770" s="1" t="s">
@@ -25545,7 +25923,7 @@
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A771" s="1" t="s">
+      <c r="A771" s="13" t="s">
         <v>780</v>
       </c>
       <c r="B771" s="1" t="s">
@@ -25574,7 +25952,7 @@
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A772" s="1" t="s">
+      <c r="A772" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B772" s="1" t="s">
@@ -25603,7 +25981,7 @@
       </c>
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A773" s="1" t="s">
+      <c r="A773" s="13" t="s">
         <v>782</v>
       </c>
       <c r="B773" s="1" t="s">
@@ -25632,7 +26010,7 @@
       </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A774" s="1" t="s">
+      <c r="A774" s="13" t="s">
         <v>783</v>
       </c>
       <c r="B774" s="1" t="s">
@@ -25661,7 +26039,7 @@
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A775" s="1" t="s">
+      <c r="A775" s="13" t="s">
         <v>784</v>
       </c>
       <c r="B775" s="1" t="s">
@@ -25690,7 +26068,7 @@
       </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A776" s="1" t="s">
+      <c r="A776" s="13" t="s">
         <v>785</v>
       </c>
       <c r="B776" s="1" t="s">
@@ -25719,7 +26097,7 @@
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A777" s="1" t="s">
+      <c r="A777" s="13" t="s">
         <v>786</v>
       </c>
       <c r="B777" s="1" t="s">
@@ -25748,7 +26126,7 @@
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A778" s="1" t="s">
+      <c r="A778" s="13" t="s">
         <v>787</v>
       </c>
       <c r="B778" s="1" t="s">
@@ -25777,7 +26155,7 @@
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A779" s="1" t="s">
+      <c r="A779" s="13" t="s">
         <v>788</v>
       </c>
       <c r="B779" s="1" t="s">
@@ -25806,7 +26184,7 @@
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A780" s="1" t="s">
+      <c r="A780" s="13" t="s">
         <v>789</v>
       </c>
       <c r="B780" s="1" t="s">
@@ -25835,7 +26213,7 @@
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A781" s="1" t="s">
+      <c r="A781" s="13" t="s">
         <v>790</v>
       </c>
       <c r="B781" s="1" t="s">
@@ -25864,7 +26242,7 @@
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A782" s="1" t="s">
+      <c r="A782" s="13" t="s">
         <v>791</v>
       </c>
       <c r="B782" s="1" t="s">
@@ -25893,7 +26271,7 @@
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A783" s="1" t="s">
+      <c r="A783" s="13" t="s">
         <v>792</v>
       </c>
       <c r="B783" s="1" t="s">
@@ -25922,7 +26300,7 @@
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="13" t="s">
         <v>793</v>
       </c>
       <c r="B784" s="1" t="s">
@@ -25951,7 +26329,7 @@
       </c>
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="13" t="s">
         <v>794</v>
       </c>
       <c r="B785" s="1" t="s">
@@ -25980,7 +26358,7 @@
       </c>
     </row>
     <row r="786" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A786" s="1" t="s">
+      <c r="A786" s="13" t="s">
         <v>795</v>
       </c>
       <c r="B786" s="1" t="s">
@@ -26009,7 +26387,7 @@
       </c>
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="13" t="s">
         <v>796</v>
       </c>
       <c r="B787" s="1" t="s">
@@ -26038,7 +26416,7 @@
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A788" s="1" t="s">
+      <c r="A788" s="13" t="s">
         <v>797</v>
       </c>
       <c r="B788" s="1" t="s">
@@ -26067,7 +26445,7 @@
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A789" s="1" t="s">
+      <c r="A789" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B789" s="1" t="s">
@@ -26096,7 +26474,7 @@
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A790" s="1" t="s">
+      <c r="A790" s="13" t="s">
         <v>799</v>
       </c>
       <c r="B790" s="1" t="s">
@@ -26125,7 +26503,7 @@
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A791" s="1" t="s">
+      <c r="A791" s="13" t="s">
         <v>800</v>
       </c>
       <c r="B791" s="1" t="s">
@@ -26154,7 +26532,7 @@
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A792" s="1" t="s">
+      <c r="A792" s="13" t="s">
         <v>801</v>
       </c>
       <c r="B792" s="1" t="s">
@@ -26183,7 +26561,7 @@
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A793" s="1" t="s">
+      <c r="A793" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B793" s="1" t="s">
@@ -26212,7 +26590,7 @@
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A794" s="1" t="s">
+      <c r="A794" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B794" s="1" t="s">
@@ -26241,7 +26619,7 @@
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A795" s="1" t="s">
+      <c r="A795" s="13" t="s">
         <v>802</v>
       </c>
       <c r="B795" s="1" t="s">
@@ -26270,7 +26648,7 @@
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A796" s="1" t="s">
+      <c r="A796" s="13" t="s">
         <v>803</v>
       </c>
       <c r="B796" s="1" t="s">
@@ -26299,7 +26677,7 @@
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A797" s="1" t="s">
+      <c r="A797" s="13" t="s">
         <v>804</v>
       </c>
       <c r="B797" s="1" t="s">
@@ -26328,7 +26706,7 @@
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A798" s="1" t="s">
+      <c r="A798" s="13" t="s">
         <v>805</v>
       </c>
       <c r="B798" s="1" t="s">
@@ -26357,7 +26735,7 @@
       </c>
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A799" s="1" t="s">
+      <c r="A799" s="13" t="s">
         <v>806</v>
       </c>
       <c r="B799" s="1" t="s">
@@ -26386,7 +26764,7 @@
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A800" s="1" t="s">
+      <c r="A800" s="13" t="s">
         <v>807</v>
       </c>
       <c r="B800" s="1" t="s">
@@ -26415,7 +26793,7 @@
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A801" s="1" t="s">
+      <c r="A801" s="13" t="s">
         <v>808</v>
       </c>
       <c r="B801" s="1" t="s">
@@ -26444,7 +26822,7 @@
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A802" s="1" t="s">
+      <c r="A802" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B802" s="1" t="s">
@@ -26473,7 +26851,7 @@
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="13" t="s">
         <v>810</v>
       </c>
       <c r="B803" s="1" t="s">
@@ -26502,7 +26880,7 @@
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B804" s="1" t="s">
@@ -26531,7 +26909,7 @@
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A805" s="1" t="s">
+      <c r="A805" s="13" t="s">
         <v>812</v>
       </c>
       <c r="B805" s="1" t="s">
@@ -26560,7 +26938,7 @@
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A806" s="1" t="s">
+      <c r="A806" s="13" t="s">
         <v>813</v>
       </c>
       <c r="B806" s="1" t="s">
@@ -26589,7 +26967,7 @@
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="13" t="s">
         <v>814</v>
       </c>
       <c r="B807" s="1" t="s">
@@ -26618,7 +26996,7 @@
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A808" s="1" t="s">
+      <c r="A808" s="13" t="s">
         <v>815</v>
       </c>
       <c r="B808" s="1" t="s">
@@ -26647,7 +27025,7 @@
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="13" t="s">
         <v>816</v>
       </c>
       <c r="B809" s="1" t="s">
@@ -26676,7 +27054,7 @@
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="13" t="s">
         <v>817</v>
       </c>
       <c r="B810" s="1" t="s">
@@ -26705,7 +27083,7 @@
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A811" s="1" t="s">
+      <c r="A811" s="13" t="s">
         <v>818</v>
       </c>
       <c r="B811" s="1" t="s">
@@ -26734,7 +27112,7 @@
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A812" s="1" t="s">
+      <c r="A812" s="13" t="s">
         <v>819</v>
       </c>
       <c r="B812" s="1" t="s">
@@ -26763,7 +27141,7 @@
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A813" s="1" t="s">
+      <c r="A813" s="13" t="s">
         <v>820</v>
       </c>
       <c r="B813" s="1" t="s">
@@ -26792,7 +27170,7 @@
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A814" s="1" t="s">
+      <c r="A814" s="13" t="s">
         <v>821</v>
       </c>
       <c r="B814" s="1" t="s">
@@ -26821,7 +27199,7 @@
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="13" t="s">
         <v>822</v>
       </c>
       <c r="B815" s="1" t="s">
@@ -26850,7 +27228,7 @@
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A816" s="1" t="s">
+      <c r="A816" s="13" t="s">
         <v>823</v>
       </c>
       <c r="B816" s="1" t="s">
@@ -26879,7 +27257,7 @@
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A817" s="1" t="s">
+      <c r="A817" s="13" t="s">
         <v>824</v>
       </c>
       <c r="B817" s="1" t="s">
@@ -26908,7 +27286,7 @@
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A818" s="1" t="s">
+      <c r="A818" s="13" t="s">
         <v>825</v>
       </c>
       <c r="B818" s="1" t="s">
@@ -26937,7 +27315,7 @@
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A819" s="1" t="s">
+      <c r="A819" s="13" t="s">
         <v>826</v>
       </c>
       <c r="B819" s="1" t="s">
@@ -26966,7 +27344,7 @@
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="13" t="s">
         <v>827</v>
       </c>
       <c r="B820" s="1" t="s">
@@ -26995,7 +27373,7 @@
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="13" t="s">
         <v>828</v>
       </c>
       <c r="B821" s="1" t="s">
@@ -27024,7 +27402,7 @@
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A822" s="1" t="s">
+      <c r="A822" s="13" t="s">
         <v>829</v>
       </c>
       <c r="B822" s="1" t="s">
@@ -27053,7 +27431,7 @@
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A823" s="1" t="s">
+      <c r="A823" s="13" t="s">
         <v>830</v>
       </c>
       <c r="B823" s="1" t="s">
@@ -27082,7 +27460,7 @@
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A824" s="1" t="s">
+      <c r="A824" s="13" t="s">
         <v>831</v>
       </c>
       <c r="B824" s="1" t="s">
@@ -27111,7 +27489,7 @@
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A825" s="1" t="s">
+      <c r="A825" s="13" t="s">
         <v>832</v>
       </c>
       <c r="B825" s="1" t="s">
@@ -27140,7 +27518,7 @@
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A826" s="1" t="s">
+      <c r="A826" s="13" t="s">
         <v>833</v>
       </c>
       <c r="B826" s="1" t="s">
@@ -27169,7 +27547,7 @@
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A827" s="1" t="s">
+      <c r="A827" s="13" t="s">
         <v>834</v>
       </c>
       <c r="B827" s="1" t="s">
@@ -27198,7 +27576,7 @@
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A828" s="1" t="s">
+      <c r="A828" s="13" t="s">
         <v>835</v>
       </c>
       <c r="B828" s="1" t="s">
@@ -27227,7 +27605,7 @@
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A829" s="1" t="s">
+      <c r="A829" s="13" t="s">
         <v>836</v>
       </c>
       <c r="B829" s="1" t="s">
@@ -27256,7 +27634,7 @@
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A830" s="1" t="s">
+      <c r="A830" s="13" t="s">
         <v>837</v>
       </c>
       <c r="B830" s="1" t="s">
@@ -27285,7 +27663,7 @@
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A831" s="1" t="s">
+      <c r="A831" s="13" t="s">
         <v>838</v>
       </c>
       <c r="B831" s="1" t="s">
@@ -27314,7 +27692,7 @@
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A832" s="1" t="s">
+      <c r="A832" s="13" t="s">
         <v>839</v>
       </c>
       <c r="B832" s="1" t="s">
@@ -27343,7 +27721,7 @@
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A833" s="1" t="s">
+      <c r="A833" s="13" t="s">
         <v>840</v>
       </c>
       <c r="B833" s="1" t="s">
@@ -27372,7 +27750,7 @@
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A834" s="1" t="s">
+      <c r="A834" s="13" t="s">
         <v>841</v>
       </c>
       <c r="B834" s="1" t="s">
@@ -27401,7 +27779,7 @@
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A835" s="1" t="s">
+      <c r="A835" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B835" s="1" t="s">
@@ -27430,7 +27808,7 @@
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="13" t="s">
         <v>842</v>
       </c>
       <c r="B836" s="1" t="s">
@@ -27459,7 +27837,7 @@
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A837" s="1" t="s">
+      <c r="A837" s="13" t="s">
         <v>843</v>
       </c>
       <c r="B837" s="1" t="s">
@@ -27488,7 +27866,7 @@
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="13" t="s">
         <v>844</v>
       </c>
       <c r="B838" s="1" t="s">
@@ -27517,7 +27895,7 @@
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="13" t="s">
         <v>845</v>
       </c>
       <c r="B839" s="1" t="s">
@@ -27546,7 +27924,7 @@
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A840" s="1" t="s">
+      <c r="A840" s="13" t="s">
         <v>846</v>
       </c>
       <c r="B840" s="1" t="s">
@@ -27575,7 +27953,7 @@
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A841" s="1" t="s">
+      <c r="A841" s="13" t="s">
         <v>847</v>
       </c>
       <c r="B841" s="1" t="s">
@@ -27604,7 +27982,7 @@
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A842" s="1" t="s">
+      <c r="A842" s="13" t="s">
         <v>848</v>
       </c>
       <c r="B842" s="1" t="s">
@@ -27633,7 +28011,7 @@
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A843" s="1" t="s">
+      <c r="A843" s="13" t="s">
         <v>849</v>
       </c>
       <c r="B843" s="1" t="s">
@@ -27662,7 +28040,7 @@
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A844" s="1" t="s">
+      <c r="A844" s="13" t="s">
         <v>850</v>
       </c>
       <c r="B844" s="1" t="s">
@@ -27691,7 +28069,7 @@
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A845" s="1" t="s">
+      <c r="A845" s="13" t="s">
         <v>851</v>
       </c>
       <c r="B845" s="1" t="s">
@@ -27720,7 +28098,7 @@
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="13" t="s">
         <v>852</v>
       </c>
       <c r="B846" s="1" t="s">
@@ -27749,7 +28127,7 @@
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A847" s="1" t="s">
+      <c r="A847" s="13" t="s">
         <v>853</v>
       </c>
       <c r="B847" s="1" t="s">
@@ -27778,7 +28156,7 @@
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A848" s="1" t="s">
+      <c r="A848" s="13" t="s">
         <v>854</v>
       </c>
       <c r="B848" s="1" t="s">
@@ -27807,7 +28185,7 @@
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A849" s="1" t="s">
+      <c r="A849" s="13" t="s">
         <v>855</v>
       </c>
       <c r="B849" s="1" t="s">
@@ -27836,7 +28214,7 @@
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="13" t="s">
         <v>856</v>
       </c>
       <c r="B850" s="1" t="s">
@@ -27865,7 +28243,7 @@
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="13" t="s">
         <v>857</v>
       </c>
       <c r="B851" s="1" t="s">
@@ -27894,7 +28272,7 @@
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="13" t="s">
         <v>858</v>
       </c>
       <c r="B852" s="1" t="s">
@@ -27923,7 +28301,7 @@
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A853" s="1" t="s">
+      <c r="A853" s="13" t="s">
         <v>859</v>
       </c>
       <c r="B853" s="1" t="s">
@@ -27952,7 +28330,7 @@
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A854" s="1" t="s">
+      <c r="A854" s="13" t="s">
         <v>860</v>
       </c>
       <c r="B854" s="1" t="s">
@@ -27984,6 +28362,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB9BB5-F058-4690-9A4F-46D61E815A15}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>135063</v>
+      </c>
+      <c r="B2" s="2">
+        <f>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Give the value of]], "0"), Order_Data[order_id], 0))</f>
+        <v>566</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="F2" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>546482</v>
+      </c>
+      <c r="B3" s="2">
+        <f>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Give the value of]], "0"), Order_Data[order_id], 0))</f>
+        <v>102</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>117498</v>
+      </c>
+      <c r="B4" s="2">
+        <f>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Give the value of]], "0"), Order_Data[order_id], 0))</f>
+        <v>560</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>677337</v>
+      </c>
+      <c r="B5" s="7">
+        <f>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Give the value of]], "0"), Order_Data[order_id], 0))</f>
+        <v>432</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="28"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="28"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="28"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="28"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="28"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="28"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="30"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="26"/>
+      <c r="G14" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="28"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17" s="28"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18" s="30"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:N3"/>
+    <mergeCell ref="G14:M18"/>
+    <mergeCell ref="G4:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/processed/order-data-processed.xlsx
+++ b/processed/order-data-processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\13-CertyBox-Data_Science\github-repo\transport-data-analysis\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB2734-2821-4742-89C6-A45503AFAD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C562A58-6412-4164-849C-064E480F4736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2973,7 +2973,7 @@
     <cellStyle name="Currency 2" xfId="1" xr:uid="{00AE9876-47E6-4CB6-B31C-A1A5C3460123}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2989,8 +2989,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3007,8 +3011,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3026,8 +3034,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3045,8 +3057,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3063,8 +3079,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3081,8 +3101,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3099,8 +3123,34 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3118,8 +3168,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3137,8 +3191,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3156,8 +3214,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -14283,13 +14345,13 @@
     <sortCondition descending="1" ref="H1:H854"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6DC4F6AE-171B-4E76-A1AF-8C2D0AA2650E}" uniqueName="1" name="order_id" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{62DB4515-EB02-4334-962F-5D2BC0EB6750}" uniqueName="2" name="customer_id" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{7D309EFF-6663-426F-BF2A-C08CF204AAA9}" uniqueName="3" name="customer_name" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D3A51FEF-716E-41F2-9647-E0A10E563E72}" uniqueName="4" name="cookies_shipped" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1B8AF4BF-C4F1-4B57-B2A4-673F99F7A551}" uniqueName="6" name="cost_in_dollars" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{06E36B5D-5031-4543-B5CE-1AEEB493C27D}" uniqueName="5" name="revenue_in_dollars" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{0B4B8617-95F5-41AC-89A1-4AC40C0A2371}" uniqueName="12" name="retail_in_dollars" queryTableFieldId="11"/>
+    <tableColumn id="1" xr3:uid="{6DC4F6AE-171B-4E76-A1AF-8C2D0AA2650E}" uniqueName="1" name="order_id" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{62DB4515-EB02-4334-962F-5D2BC0EB6750}" uniqueName="2" name="customer_id" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7D309EFF-6663-426F-BF2A-C08CF204AAA9}" uniqueName="3" name="customer_name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D3A51FEF-716E-41F2-9647-E0A10E563E72}" uniqueName="4" name="cookies_shipped" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1B8AF4BF-C4F1-4B57-B2A4-673F99F7A551}" uniqueName="6" name="cost_in_dollars" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{06E36B5D-5031-4543-B5CE-1AEEB493C27D}" uniqueName="5" name="revenue_in_dollars" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{0B4B8617-95F5-41AC-89A1-4AC40C0A2371}" uniqueName="12" name="retail_in_dollars" queryTableFieldId="11" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{95099792-6A17-4058-BE56-446F5EA2154F}" uniqueName="7" name="order_date" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{2354DD0D-C8DF-4607-8D6D-135127BB0EF3}" uniqueName="8" name="ship_date" queryTableFieldId="8" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{AFC4B008-AECB-4FEB-BE9D-35982AC4DAAE}" uniqueName="11" name="days_from_order_to_ship" queryTableFieldId="10" dataDxfId="1"/>
@@ -14300,11 +14362,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A93A7666-65BD-4142-9DAB-C047FB3A5BE6}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A93A7666-65BD-4142-9DAB-C047FB3A5BE6}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:B5" xr:uid="{A93A7666-65BD-4142-9DAB-C047FB3A5BE6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D080E713-6E84-4067-AF27-408F9A12AE61}" name="Order ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E0C49523-74A3-45A9-BC6B-8B3197738234}" name="cookies " dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{D080E713-6E84-4067-AF27-408F9A12AE61}" name="Order ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E0C49523-74A3-45A9-BC6B-8B3197738234}" name="cookies " dataDxfId="11">
       <calculatedColumnFormula>INDEX(Order_Data[cookies_shipped], MATCH(TEXT(Table2[[#This Row],[Order ID]], "0"), Order_Data[order_id], 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14578,7 +14640,7 @@
   <dimension ref="A1:K854"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14644,7 +14706,7 @@
       <c r="F2" s="3">
         <v>2205</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>3307.5</v>
       </c>
       <c r="H2" s="4">
@@ -14679,7 +14741,7 @@
       <c r="F3" s="3">
         <v>510</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>765</v>
       </c>
       <c r="H3" s="4">
@@ -14714,7 +14776,7 @@
       <c r="F4" s="3">
         <v>2800</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>4200</v>
       </c>
       <c r="H4" s="4">
@@ -14749,7 +14811,7 @@
       <c r="F5" s="3">
         <v>2830</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>4245</v>
       </c>
       <c r="H5" s="4">
@@ -14784,7 +14846,7 @@
       <c r="F6" s="3">
         <v>2160</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>3240</v>
       </c>
       <c r="H6" s="4">
@@ -14819,7 +14881,7 @@
       <c r="F7" s="3">
         <v>1885</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>2827.5</v>
       </c>
       <c r="H7" s="4">
@@ -14854,7 +14916,7 @@
       <c r="F8" s="3">
         <v>3345</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>5017.5</v>
       </c>
       <c r="H8" s="4">
@@ -14889,7 +14951,7 @@
       <c r="F9" s="3">
         <v>1655</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>2482.5</v>
       </c>
       <c r="H9" s="4">
@@ -14924,7 +14986,7 @@
       <c r="F10" s="3">
         <v>2915</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>4372.5</v>
       </c>
       <c r="H10" s="4">
@@ -14959,7 +15021,7 @@
       <c r="F11" s="3">
         <v>2095</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>3142.5</v>
       </c>
       <c r="H11" s="4">
@@ -14994,7 +15056,7 @@
       <c r="F12" s="3">
         <v>4280</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>6420</v>
       </c>
       <c r="H12" s="4">
@@ -15029,7 +15091,7 @@
       <c r="F13" s="3">
         <v>3480</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>5220</v>
       </c>
       <c r="H13" s="4">
@@ -15064,7 +15126,7 @@
       <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>1650</v>
       </c>
       <c r="H14" s="4">
@@ -15099,7 +15161,7 @@
       <c r="F15" s="3">
         <v>4660</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>6990</v>
       </c>
       <c r="H15" s="4">
@@ -15134,7 +15196,7 @@
       <c r="F16" s="3">
         <v>3790</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>5685</v>
       </c>
       <c r="H16" s="4">
@@ -15169,7 +15231,7 @@
       <c r="F17" s="3">
         <v>1420</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>2130</v>
       </c>
       <c r="H17" s="4">
@@ -15204,7 +15266,7 @@
       <c r="F18" s="3">
         <v>3330</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>4995</v>
       </c>
       <c r="H18" s="4">
@@ -15239,7 +15301,7 @@
       <c r="F19" s="3">
         <v>440</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>660</v>
       </c>
       <c r="H19" s="4">
@@ -15274,7 +15336,7 @@
       <c r="F20" s="3">
         <v>2430</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>3645</v>
       </c>
       <c r="H20" s="4">
@@ -15309,7 +15371,7 @@
       <c r="F21" s="3">
         <v>615</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>922.5</v>
       </c>
       <c r="H21" s="4">
@@ -15344,7 +15406,7 @@
       <c r="F22" s="3">
         <v>3830</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>5745</v>
       </c>
       <c r="H22" s="4">
@@ -15379,7 +15441,7 @@
       <c r="F23" s="3">
         <v>3095</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>4642.5</v>
       </c>
       <c r="H23" s="4">
@@ -15414,7 +15476,7 @@
       <c r="F24" s="3">
         <v>295</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>442.5</v>
       </c>
       <c r="H24" s="4">
@@ -15449,7 +15511,7 @@
       <c r="F25" s="3">
         <v>405</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>607.5</v>
       </c>
       <c r="H25" s="4">
@@ -15484,7 +15546,7 @@
       <c r="F26" s="3">
         <v>4205</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>6307.5</v>
       </c>
       <c r="H26" s="4">
@@ -15519,7 +15581,7 @@
       <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>5850</v>
       </c>
       <c r="H27" s="4">
@@ -15554,7 +15616,7 @@
       <c r="F28" s="3">
         <v>3175</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>4762.5</v>
       </c>
       <c r="H28" s="4">
@@ -15589,7 +15651,7 @@
       <c r="F29" s="3">
         <v>2965</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>4447.5</v>
       </c>
       <c r="H29" s="4">
@@ -15624,7 +15686,7 @@
       <c r="F30" s="3">
         <v>3725</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>5587.5</v>
       </c>
       <c r="H30" s="4">
@@ -15659,7 +15721,7 @@
       <c r="F31" s="3">
         <v>2420</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>3630</v>
       </c>
       <c r="H31" s="4">
@@ -15694,7 +15756,7 @@
       <c r="F32" s="3">
         <v>1720</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>2580</v>
       </c>
       <c r="H32" s="4">
@@ -15729,7 +15791,7 @@
       <c r="F33" s="3">
         <v>4720</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>7080</v>
       </c>
       <c r="H33" s="4">
@@ -15764,7 +15826,7 @@
       <c r="F34" s="3">
         <v>3760</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>5640</v>
       </c>
       <c r="H34" s="4">
@@ -15799,7 +15861,7 @@
       <c r="F35" s="3">
         <v>1680</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>2520</v>
       </c>
       <c r="H35" s="4">
@@ -15834,7 +15896,7 @@
       <c r="F36" s="3">
         <v>3735</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>5602.5</v>
       </c>
       <c r="H36" s="4">
@@ -15869,7 +15931,7 @@
       <c r="F37" s="3">
         <v>4660</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>6990</v>
       </c>
       <c r="H37" s="4">
@@ -15904,7 +15966,7 @@
       <c r="F38" s="3">
         <v>2490</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>3735</v>
       </c>
       <c r="H38" s="4">
@@ -15939,7 +16001,7 @@
       <c r="F39" s="3">
         <v>2580</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>3870</v>
       </c>
       <c r="H39" s="4">
@@ -15974,7 +16036,7 @@
       <c r="F40" s="3">
         <v>2710</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>4065</v>
       </c>
       <c r="H40" s="4">
@@ -16009,7 +16071,7 @@
       <c r="F41" s="3">
         <v>1520</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>2280</v>
       </c>
       <c r="H41" s="4">
@@ -16044,7 +16106,7 @@
       <c r="F42" s="3">
         <v>2060</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>3090</v>
       </c>
       <c r="H42" s="4">
@@ -16079,7 +16141,7 @@
       <c r="F43" s="3">
         <v>4685</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>7027.5</v>
       </c>
       <c r="H43" s="4">
@@ -16114,7 +16176,7 @@
       <c r="F44" s="3">
         <v>2415</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>3622.5</v>
       </c>
       <c r="H44" s="4">
@@ -16149,7 +16211,7 @@
       <c r="F45" s="3">
         <v>1065</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>1597.5</v>
       </c>
       <c r="H45" s="4">
@@ -16184,7 +16246,7 @@
       <c r="F46" s="3">
         <v>4470</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>6705</v>
       </c>
       <c r="H46" s="4">
@@ -16219,7 +16281,7 @@
       <c r="F47" s="3">
         <v>4020</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>6030</v>
       </c>
       <c r="H47" s="4">
@@ -16254,7 +16316,7 @@
       <c r="F48" s="3">
         <v>4305</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>6457.5</v>
       </c>
       <c r="H48" s="4">
@@ -16289,7 +16351,7 @@
       <c r="F49" s="3">
         <v>2990</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>4485</v>
       </c>
       <c r="H49" s="4">
@@ -16324,7 +16386,7 @@
       <c r="F50" s="3">
         <v>2145</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>3217.5</v>
       </c>
       <c r="H50" s="4">
@@ -16359,7 +16421,7 @@
       <c r="F51" s="3">
         <v>1135</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>1702.5</v>
       </c>
       <c r="H51" s="4">
@@ -16394,7 +16456,7 @@
       <c r="F52" s="3">
         <v>4610</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>6915</v>
       </c>
       <c r="H52" s="4">
@@ -16429,7 +16491,7 @@
       <c r="F53" s="3">
         <v>1255</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>1882.5</v>
       </c>
       <c r="H53" s="4">
@@ -16464,7 +16526,7 @@
       <c r="F54" s="3">
         <v>3980</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>5970</v>
       </c>
       <c r="H54" s="4">
@@ -16499,7 +16561,7 @@
       <c r="F55" s="3">
         <v>3950</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>5925</v>
       </c>
       <c r="H55" s="4">
@@ -16534,7 +16596,7 @@
       <c r="F56" s="3">
         <v>3460</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>5190</v>
       </c>
       <c r="H56" s="4">
@@ -16569,7 +16631,7 @@
       <c r="F57" s="3">
         <v>1725</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>2587.5</v>
       </c>
       <c r="H57" s="4">
@@ -16604,7 +16666,7 @@
       <c r="F58" s="3">
         <v>1640</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>2460</v>
       </c>
       <c r="H58" s="4">
@@ -16639,7 +16701,7 @@
       <c r="F59" s="3">
         <v>3770</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>5655</v>
       </c>
       <c r="H59" s="4">
@@ -16674,7 +16736,7 @@
       <c r="F60" s="3">
         <v>3850</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>5775</v>
       </c>
       <c r="H60" s="4">
@@ -16709,7 +16771,7 @@
       <c r="F61" s="3">
         <v>2325</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>3487.5</v>
       </c>
       <c r="H61" s="4">
@@ -16744,7 +16806,7 @@
       <c r="F62" s="3">
         <v>3590</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>5385</v>
       </c>
       <c r="H62" s="4">
@@ -16779,7 +16841,7 @@
       <c r="F63" s="3">
         <v>1590</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>2385</v>
       </c>
       <c r="H63" s="4">
@@ -16814,7 +16876,7 @@
       <c r="F64" s="3">
         <v>3850</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>5775</v>
       </c>
       <c r="H64" s="4">
@@ -16849,7 +16911,7 @@
       <c r="F65" s="3">
         <v>1035</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>1552.5</v>
       </c>
       <c r="H65" s="4">
@@ -16884,7 +16946,7 @@
       <c r="F66" s="3">
         <v>1830</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>2745</v>
       </c>
       <c r="H66" s="4">
@@ -16919,7 +16981,7 @@
       <c r="F67" s="3">
         <v>3265</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>4897.5</v>
       </c>
       <c r="H67" s="4">
@@ -16954,7 +17016,7 @@
       <c r="F68" s="3">
         <v>2015</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>3022.5</v>
       </c>
       <c r="H68" s="4">
@@ -16989,7 +17051,7 @@
       <c r="F69" s="3">
         <v>1590</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>2385</v>
       </c>
       <c r="H69" s="4">
@@ -17024,7 +17086,7 @@
       <c r="F70" s="3">
         <v>2410</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>3615</v>
       </c>
       <c r="H70" s="4">
@@ -17059,7 +17121,7 @@
       <c r="F71" s="3">
         <v>435</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>652.5</v>
       </c>
       <c r="H71" s="4">
@@ -17094,7 +17156,7 @@
       <c r="F72" s="3">
         <v>1400</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>2100</v>
       </c>
       <c r="H72" s="4">
@@ -17129,7 +17191,7 @@
       <c r="F73" s="3">
         <v>1165</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>1747.5</v>
       </c>
       <c r="H73" s="4">
@@ -17164,7 +17226,7 @@
       <c r="F74" s="3">
         <v>4155</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>6232.5</v>
       </c>
       <c r="H74" s="4">
@@ -17199,7 +17261,7 @@
       <c r="F75" s="3">
         <v>4010</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>6015</v>
       </c>
       <c r="H75" s="4">
@@ -17234,7 +17296,7 @@
       <c r="F76" s="3">
         <v>4640</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>6960</v>
       </c>
       <c r="H76" s="4">
@@ -17269,7 +17331,7 @@
       <c r="F77" s="3">
         <v>1925</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>2887.5</v>
       </c>
       <c r="H77" s="4">
@@ -17304,7 +17366,7 @@
       <c r="F78" s="3">
         <v>2430</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>3645</v>
       </c>
       <c r="H78" s="4">
@@ -17339,7 +17401,7 @@
       <c r="F79" s="3">
         <v>3725</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>5587.5</v>
       </c>
       <c r="H79" s="4">
@@ -17374,7 +17436,7 @@
       <c r="F80" s="3">
         <v>2250</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>3375</v>
       </c>
       <c r="H80" s="4">
@@ -17409,7 +17471,7 @@
       <c r="F81" s="3">
         <v>4790</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>7185</v>
       </c>
       <c r="H81" s="4">
@@ -17444,7 +17506,7 @@
       <c r="F82" s="3">
         <v>3230</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>4845</v>
       </c>
       <c r="H82" s="4">
@@ -17479,7 +17541,7 @@
       <c r="F83" s="3">
         <v>290</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>435</v>
       </c>
       <c r="H83" s="4">
@@ -17514,7 +17576,7 @@
       <c r="F84" s="3">
         <v>4800</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>7200</v>
       </c>
       <c r="H84" s="4">
@@ -17549,7 +17611,7 @@
       <c r="F85" s="3">
         <v>690</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>1035</v>
       </c>
       <c r="H85" s="4">
@@ -17584,7 +17646,7 @@
       <c r="F86" s="3">
         <v>2260</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>3390</v>
       </c>
       <c r="H86" s="4">
@@ -17619,7 +17681,7 @@
       <c r="F87" s="3">
         <v>1225</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>1837.5</v>
       </c>
       <c r="H87" s="4">
@@ -17654,7 +17716,7 @@
       <c r="F88" s="3">
         <v>2265</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>3397.5</v>
       </c>
       <c r="H88" s="4">
@@ -17689,7 +17751,7 @@
       <c r="F89" s="3">
         <v>4615</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>6922.5</v>
       </c>
       <c r="H89" s="4">
@@ -17724,7 +17786,7 @@
       <c r="F90" s="3">
         <v>1955</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>2932.5</v>
       </c>
       <c r="H90" s="4">
@@ -17759,7 +17821,7 @@
       <c r="F91" s="3">
         <v>1495</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>2242.5</v>
       </c>
       <c r="H91" s="4">
@@ -17794,7 +17856,7 @@
       <c r="F92" s="3">
         <v>3210</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>4815</v>
       </c>
       <c r="H92" s="4">
@@ -17829,7 +17891,7 @@
       <c r="F93" s="3">
         <v>3290</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>4935</v>
       </c>
       <c r="H93" s="4">
@@ -17864,7 +17926,7 @@
       <c r="F94" s="3">
         <v>3485</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>5227.5</v>
       </c>
       <c r="H94" s="4">
@@ -17899,7 +17961,7 @@
       <c r="F95" s="3">
         <v>1095</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>1642.5</v>
       </c>
       <c r="H95" s="4">
@@ -17934,7 +17996,7 @@
       <c r="F96" s="3">
         <v>4075</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>6112.5</v>
       </c>
       <c r="H96" s="4">
@@ -17969,7 +18031,7 @@
       <c r="F97" s="3">
         <v>855</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>1282.5</v>
       </c>
       <c r="H97" s="4">
@@ -18004,7 +18066,7 @@
       <c r="F98" s="3">
         <v>1690</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>2535</v>
       </c>
       <c r="H98" s="4">
@@ -18039,7 +18101,7 @@
       <c r="F99" s="3">
         <v>1645</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>2467.5</v>
       </c>
       <c r="H99" s="4">
@@ -18074,7 +18136,7 @@
       <c r="F100" s="3">
         <v>2475</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>3712.5</v>
       </c>
       <c r="H100" s="4">
@@ -18109,7 +18171,7 @@
       <c r="F101" s="3">
         <v>1860</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>2790</v>
       </c>
       <c r="H101" s="4">
@@ -18144,7 +18206,7 @@
       <c r="F102" s="3">
         <v>1830</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>2745</v>
       </c>
       <c r="H102" s="4">
@@ -18179,7 +18241,7 @@
       <c r="F103" s="3">
         <v>3810</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>5715</v>
       </c>
       <c r="H103" s="4">
@@ -18214,7 +18276,7 @@
       <c r="F104" s="3">
         <v>1925</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>2887.5</v>
       </c>
       <c r="H104" s="4">
@@ -18249,7 +18311,7 @@
       <c r="F105" s="3">
         <v>1310</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>1965</v>
       </c>
       <c r="H105" s="4">
@@ -18284,7 +18346,7 @@
       <c r="F106" s="3">
         <v>870</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>1305</v>
       </c>
       <c r="H106" s="4">
@@ -18319,7 +18381,7 @@
       <c r="F107" s="3">
         <v>3485</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>5227.5</v>
       </c>
       <c r="H107" s="4">
@@ -18354,7 +18416,7 @@
       <c r="F108" s="3">
         <v>1255</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>1882.5</v>
       </c>
       <c r="H108" s="4">
@@ -18389,7 +18451,7 @@
       <c r="F109" s="3">
         <v>2685</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>4027.5</v>
       </c>
       <c r="H109" s="4">
@@ -18424,7 +18486,7 @@
       <c r="F110" s="3">
         <v>1145</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>1717.5</v>
       </c>
       <c r="H110" s="4">
@@ -18459,7 +18521,7 @@
       <c r="F111" s="3">
         <v>3740</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>5610</v>
       </c>
       <c r="H111" s="4">
@@ -18494,7 +18556,7 @@
       <c r="F112" s="3">
         <v>3150</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>4725</v>
       </c>
       <c r="H112" s="4">
@@ -18529,7 +18591,7 @@
       <c r="F113" s="3">
         <v>1800</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>2700</v>
       </c>
       <c r="H113" s="4">
@@ -18564,7 +18626,7 @@
       <c r="F114" s="3">
         <v>1615</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>2422.5</v>
       </c>
       <c r="H114" s="4">
@@ -18599,7 +18661,7 @@
       <c r="F115" s="3">
         <v>2425</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>3637.5</v>
       </c>
       <c r="H115" s="4">
@@ -18634,7 +18696,7 @@
       <c r="F116" s="3">
         <v>545</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>817.5</v>
       </c>
       <c r="H116" s="4">
@@ -18669,7 +18731,7 @@
       <c r="F117" s="3">
         <v>4680</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <v>7020</v>
       </c>
       <c r="H117" s="4">
@@ -18704,7 +18766,7 @@
       <c r="F118" s="3">
         <v>4390</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <v>6585</v>
       </c>
       <c r="H118" s="4">
@@ -18739,7 +18801,7 @@
       <c r="F119" s="3">
         <v>1245</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <v>1867.5</v>
       </c>
       <c r="H119" s="4">
@@ -18774,7 +18836,7 @@
       <c r="F120" s="3">
         <v>3845</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <v>5767.5</v>
       </c>
       <c r="H120" s="4">
@@ -18809,7 +18871,7 @@
       <c r="F121" s="3">
         <v>4485</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <v>6727.5</v>
       </c>
       <c r="H121" s="4">
@@ -18844,7 +18906,7 @@
       <c r="F122" s="3">
         <v>1190</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="3">
         <v>1785</v>
       </c>
       <c r="H122" s="4">
@@ -18879,7 +18941,7 @@
       <c r="F123" s="3">
         <v>2780</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="3">
         <v>4170</v>
       </c>
       <c r="H123" s="4">
@@ -18914,7 +18976,7 @@
       <c r="F124" s="3">
         <v>1295</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="3">
         <v>1942.5</v>
       </c>
       <c r="H124" s="4">
@@ -18949,7 +19011,7 @@
       <c r="F125" s="3">
         <v>1460</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="3">
         <v>2190</v>
       </c>
       <c r="H125" s="4">
@@ -18984,7 +19046,7 @@
       <c r="F126" s="3">
         <v>385</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="3">
         <v>577.5</v>
       </c>
       <c r="H126" s="4">
@@ -19019,7 +19081,7 @@
       <c r="F127" s="3">
         <v>1630</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="3">
         <v>2445</v>
       </c>
       <c r="H127" s="4">
@@ -19054,7 +19116,7 @@
       <c r="F128" s="3">
         <v>2030</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>3045</v>
       </c>
       <c r="H128" s="4">
@@ -19089,7 +19151,7 @@
       <c r="F129" s="3">
         <v>1540</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="3">
         <v>2310</v>
       </c>
       <c r="H129" s="4">
@@ -19124,7 +19186,7 @@
       <c r="F130" s="3">
         <v>3300</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="3">
         <v>4950</v>
       </c>
       <c r="H130" s="4">
@@ -19159,7 +19221,7 @@
       <c r="F131" s="3">
         <v>4070</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="3">
         <v>6105</v>
       </c>
       <c r="H131" s="4">
@@ -19194,7 +19256,7 @@
       <c r="F132" s="3">
         <v>2875</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="3">
         <v>4312.5</v>
       </c>
       <c r="H132" s="4">
@@ -19229,7 +19291,7 @@
       <c r="F133" s="3">
         <v>1050</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="3">
         <v>1575</v>
       </c>
       <c r="H133" s="4">
@@ -19264,7 +19326,7 @@
       <c r="F134" s="3">
         <v>980</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="3">
         <v>1470</v>
       </c>
       <c r="H134" s="4">
@@ -19299,7 +19361,7 @@
       <c r="F135" s="3">
         <v>1760</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="3">
         <v>2640</v>
       </c>
       <c r="H135" s="4">
@@ -19334,7 +19396,7 @@
       <c r="F136" s="3">
         <v>790</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="3">
         <v>1185</v>
       </c>
       <c r="H136" s="4">
@@ -19369,7 +19431,7 @@
       <c r="F137" s="3">
         <v>3080</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="3">
         <v>4620</v>
       </c>
       <c r="H137" s="4">
@@ -19404,7 +19466,7 @@
       <c r="F138" s="3">
         <v>885</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="3">
         <v>1327.5</v>
       </c>
       <c r="H138" s="4">
@@ -19439,7 +19501,7 @@
       <c r="F139" s="3">
         <v>2985</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="3">
         <v>4477.5</v>
       </c>
       <c r="H139" s="4">
@@ -19474,7 +19536,7 @@
       <c r="F140" s="3">
         <v>4625</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="3">
         <v>6937.5</v>
       </c>
       <c r="H140" s="4">
@@ -19509,7 +19571,7 @@
       <c r="F141" s="3">
         <v>1275</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="3">
         <v>1912.5</v>
       </c>
       <c r="H141" s="4">
@@ -19544,7 +19606,7 @@
       <c r="F142" s="3">
         <v>1420</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="3">
         <v>2130</v>
       </c>
       <c r="H142" s="4">
@@ -19579,7 +19641,7 @@
       <c r="F143" s="3">
         <v>4505</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="3">
         <v>6757.5</v>
       </c>
       <c r="H143" s="4">
@@ -19614,7 +19676,7 @@
       <c r="F144" s="3">
         <v>4805</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="3">
         <v>7207.5</v>
       </c>
       <c r="H144" s="4">
@@ -19649,7 +19711,7 @@
       <c r="F145" s="3">
         <v>3695</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="3">
         <v>5542.5</v>
       </c>
       <c r="H145" s="4">
@@ -19684,7 +19746,7 @@
       <c r="F146" s="3">
         <v>3875</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="3">
         <v>5812.5</v>
       </c>
       <c r="H146" s="4">
@@ -19719,7 +19781,7 @@
       <c r="F147" s="3">
         <v>1345</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="3">
         <v>2017.5</v>
       </c>
       <c r="H147" s="4">
@@ -19754,7 +19816,7 @@
       <c r="F148" s="3">
         <v>2890</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="3">
         <v>4335</v>
       </c>
       <c r="H148" s="4">
@@ -19789,7 +19851,7 @@
       <c r="F149" s="3">
         <v>2830</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="3">
         <v>4245</v>
       </c>
       <c r="H149" s="4">
@@ -19824,7 +19886,7 @@
       <c r="F150" s="3">
         <v>1315</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="3">
         <v>1972.5</v>
       </c>
       <c r="H150" s="4">
@@ -19859,7 +19921,7 @@
       <c r="F151" s="3">
         <v>4610</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="3">
         <v>6915</v>
       </c>
       <c r="H151" s="4">
@@ -19894,7 +19956,7 @@
       <c r="F152" s="3">
         <v>4070</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="3">
         <v>6105</v>
       </c>
       <c r="H152" s="4">
@@ -19929,7 +19991,7 @@
       <c r="F153" s="3">
         <v>485</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="3">
         <v>727.5</v>
       </c>
       <c r="H153" s="4">
@@ -19964,7 +20026,7 @@
       <c r="F154" s="3">
         <v>1900</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="3">
         <v>2850</v>
       </c>
       <c r="H154" s="4">
@@ -19999,7 +20061,7 @@
       <c r="F155" s="3">
         <v>2115</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="3">
         <v>3172.5</v>
       </c>
       <c r="H155" s="4">
@@ -20034,7 +20096,7 @@
       <c r="F156" s="3">
         <v>1565</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="3">
         <v>2347.5</v>
       </c>
       <c r="H156" s="4">
@@ -20069,7 +20131,7 @@
       <c r="F157" s="3">
         <v>4785</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="3">
         <v>7177.5</v>
       </c>
       <c r="H157" s="4">
@@ -20104,7 +20166,7 @@
       <c r="F158" s="3">
         <v>1720</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="3">
         <v>2580</v>
       </c>
       <c r="H158" s="4">
@@ -20139,7 +20201,7 @@
       <c r="F159" s="3">
         <v>3020</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="3">
         <v>4530</v>
       </c>
       <c r="H159" s="4">
@@ -20174,7 +20236,7 @@
       <c r="F160" s="3">
         <v>3475</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="3">
         <v>5212.5</v>
       </c>
       <c r="H160" s="4">
@@ -20209,7 +20271,7 @@
       <c r="F161" s="3">
         <v>4615</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="3">
         <v>6922.5</v>
       </c>
       <c r="H161" s="4">
@@ -20244,7 +20306,7 @@
       <c r="F162" s="3">
         <v>2950</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="3">
         <v>4425</v>
       </c>
       <c r="H162" s="4">
@@ -20279,7 +20341,7 @@
       <c r="F163" s="3">
         <v>1225</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="3">
         <v>1837.5</v>
       </c>
       <c r="H163" s="4">
@@ -20314,7 +20376,7 @@
       <c r="F164" s="3">
         <v>4175</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="3">
         <v>6262.5</v>
       </c>
       <c r="H164" s="4">
@@ -20349,7 +20411,7 @@
       <c r="F165" s="3">
         <v>1145</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="3">
         <v>1717.5</v>
       </c>
       <c r="H165" s="4">
@@ -20384,7 +20446,7 @@
       <c r="F166" s="3">
         <v>3165</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="3">
         <v>4747.5</v>
       </c>
       <c r="H166" s="4">
@@ -20419,7 +20481,7 @@
       <c r="F167" s="3">
         <v>1190</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="3">
         <v>1785</v>
       </c>
       <c r="H167" s="4">
@@ -20454,7 +20516,7 @@
       <c r="F168" s="3">
         <v>3690</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="3">
         <v>5535</v>
       </c>
       <c r="H168" s="4">
@@ -20489,7 +20551,7 @@
       <c r="F169" s="3">
         <v>680</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="3">
         <v>1020</v>
       </c>
       <c r="H169" s="4">
@@ -20524,7 +20586,7 @@
       <c r="F170" s="3">
         <v>2925</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="3">
         <v>4387.5</v>
       </c>
       <c r="H170" s="4">
@@ -20559,7 +20621,7 @@
       <c r="F171" s="3">
         <v>3340</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="3">
         <v>5010</v>
       </c>
       <c r="H171" s="4">
@@ -20594,7 +20656,7 @@
       <c r="F172" s="3">
         <v>2345</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="3">
         <v>3517.5</v>
       </c>
       <c r="H172" s="4">
@@ -20629,7 +20691,7 @@
       <c r="F173" s="3">
         <v>1715</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="3">
         <v>2572.5</v>
       </c>
       <c r="H173" s="4">
@@ -20664,7 +20726,7 @@
       <c r="F174" s="3">
         <v>500</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="3">
         <v>750</v>
       </c>
       <c r="H174" s="4">
@@ -20699,7 +20761,7 @@
       <c r="F175" s="3">
         <v>2020</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="3">
         <v>3030</v>
       </c>
       <c r="H175" s="4">
@@ -20734,7 +20796,7 @@
       <c r="F176" s="3">
         <v>335</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="3">
         <v>502.5</v>
       </c>
       <c r="H176" s="4">
@@ -20769,7 +20831,7 @@
       <c r="F177" s="3">
         <v>4285</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="3">
         <v>6427.5</v>
       </c>
       <c r="H177" s="4">
@@ -20804,7 +20866,7 @@
       <c r="F178" s="3">
         <v>1075</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="3">
         <v>1612.5</v>
       </c>
       <c r="H178" s="4">
@@ -20839,7 +20901,7 @@
       <c r="F179" s="3">
         <v>1345</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="3">
         <v>2017.5</v>
       </c>
       <c r="H179" s="4">
@@ -20874,7 +20936,7 @@
       <c r="F180" s="3">
         <v>810</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="3">
         <v>1215</v>
       </c>
       <c r="H180" s="4">
@@ -20909,7 +20971,7 @@
       <c r="F181" s="3">
         <v>2540</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="3">
         <v>3810</v>
       </c>
       <c r="H181" s="4">
@@ -20944,7 +21006,7 @@
       <c r="F182" s="3">
         <v>2570</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="3">
         <v>3855</v>
       </c>
       <c r="H182" s="4">
@@ -20979,7 +21041,7 @@
       <c r="F183" s="3">
         <v>1845</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="3">
         <v>2767.5</v>
       </c>
       <c r="H183" s="4">
@@ -21014,7 +21076,7 @@
       <c r="F184" s="3">
         <v>1570</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="3">
         <v>2355</v>
       </c>
       <c r="H184" s="4">
@@ -21049,7 +21111,7 @@
       <c r="F185" s="3">
         <v>4125</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="3">
         <v>6187.5</v>
       </c>
       <c r="H185" s="4">
@@ -21084,7 +21146,7 @@
       <c r="F186" s="3">
         <v>4905</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="3">
         <v>7357.5</v>
       </c>
       <c r="H186" s="4">
@@ -21119,7 +21181,7 @@
       <c r="F187" s="3">
         <v>3000</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="3">
         <v>4500</v>
       </c>
       <c r="H187" s="4">
@@ -21154,7 +21216,7 @@
       <c r="F188" s="3">
         <v>3080</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="3">
         <v>4620</v>
       </c>
       <c r="H188" s="4">
@@ -21189,7 +21251,7 @@
       <c r="F189" s="3">
         <v>2140</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="3">
         <v>3210</v>
       </c>
       <c r="H189" s="4">
@@ -21224,7 +21286,7 @@
       <c r="F190" s="3">
         <v>1695</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="3">
         <v>2542.5</v>
       </c>
       <c r="H190" s="4">
@@ -21259,7 +21321,7 @@
       <c r="F191" s="3">
         <v>1560</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="3">
         <v>2340</v>
       </c>
       <c r="H191" s="4">
@@ -21294,7 +21356,7 @@
       <c r="F192" s="3">
         <v>1130</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="3">
         <v>1695</v>
       </c>
       <c r="H192" s="4">
@@ -21329,7 +21391,7 @@
       <c r="F193" s="3">
         <v>2525</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="3">
         <v>3787.5</v>
       </c>
       <c r="H193" s="4">
@@ -21364,7 +21426,7 @@
       <c r="F194" s="3">
         <v>2465</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="3">
         <v>3697.5</v>
       </c>
       <c r="H194" s="4">
@@ -21399,7 +21461,7 @@
       <c r="F195" s="3">
         <v>1680</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="3">
         <v>2520</v>
       </c>
       <c r="H195" s="4">
@@ -21434,7 +21496,7 @@
       <c r="F196" s="3">
         <v>2090</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="3">
         <v>3135</v>
       </c>
       <c r="H196" s="4">
@@ -21469,7 +21531,7 @@
       <c r="F197" s="3">
         <v>865</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="3">
         <v>1297.5</v>
       </c>
       <c r="H197" s="4">
@@ -21504,7 +21566,7 @@
       <c r="F198" s="3">
         <v>3070</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="3">
         <v>4605</v>
       </c>
       <c r="H198" s="4">
@@ -21539,7 +21601,7 @@
       <c r="F199" s="3">
         <v>3060</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="3">
         <v>4590</v>
       </c>
       <c r="H199" s="4">
@@ -21574,7 +21636,7 @@
       <c r="F200" s="3">
         <v>775</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="3">
         <v>1162.5</v>
       </c>
       <c r="H200" s="4">
@@ -21609,7 +21671,7 @@
       <c r="F201" s="3">
         <v>4515</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="3">
         <v>6772.5</v>
       </c>
       <c r="H201" s="4">
@@ -21644,7 +21706,7 @@
       <c r="F202" s="3">
         <v>3165</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="3">
         <v>4747.5</v>
       </c>
       <c r="H202" s="4">
@@ -21679,7 +21741,7 @@
       <c r="F203" s="3">
         <v>3670</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="3">
         <v>5505</v>
       </c>
       <c r="H203" s="4">
@@ -21714,7 +21776,7 @@
       <c r="F204" s="3">
         <v>4795</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="3">
         <v>7192.5</v>
       </c>
       <c r="H204" s="4">
@@ -21749,7 +21811,7 @@
       <c r="F205" s="3">
         <v>4700</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="3">
         <v>7050</v>
       </c>
       <c r="H205" s="4">
@@ -21784,7 +21846,7 @@
       <c r="F206" s="3">
         <v>1665</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="3">
         <v>2497.5</v>
       </c>
       <c r="H206" s="4">
@@ -21819,7 +21881,7 @@
       <c r="F207" s="3">
         <v>2885</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="3">
         <v>4327.5</v>
       </c>
       <c r="H207" s="4">
@@ -21854,7 +21916,7 @@
       <c r="F208" s="3">
         <v>4200</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="3">
         <v>6300</v>
       </c>
       <c r="H208" s="4">
@@ -21889,7 +21951,7 @@
       <c r="F209" s="3">
         <v>3115</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="3">
         <v>4672.5</v>
       </c>
       <c r="H209" s="4">
@@ -21924,7 +21986,7 @@
       <c r="F210" s="3">
         <v>2890</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="3">
         <v>4335</v>
       </c>
       <c r="H210" s="4">
@@ -21959,7 +22021,7 @@
       <c r="F211" s="3">
         <v>1180</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="3">
         <v>1770</v>
       </c>
       <c r="H211" s="4">
@@ -21994,7 +22056,7 @@
       <c r="F212" s="3">
         <v>1245</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="3">
         <v>1867.5</v>
       </c>
       <c r="H212" s="4">
@@ -22029,7 +22091,7 @@
       <c r="F213" s="3">
         <v>390</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="3">
         <v>585</v>
       </c>
       <c r="H213" s="4">
@@ -22064,7 +22126,7 @@
       <c r="F214" s="3">
         <v>3870</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="3">
         <v>5805</v>
       </c>
       <c r="H214" s="4">
@@ -22099,7 +22161,7 @@
       <c r="F215" s="3">
         <v>2940</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="3">
         <v>4410</v>
       </c>
       <c r="H215" s="4">
@@ -22134,7 +22196,7 @@
       <c r="F216" s="3">
         <v>4950</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="3">
         <v>7425</v>
       </c>
       <c r="H216" s="4">
@@ -22169,7 +22231,7 @@
       <c r="F217" s="3">
         <v>2560</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="3">
         <v>3840</v>
       </c>
       <c r="H217" s="4">
@@ -22204,7 +22266,7 @@
       <c r="F218" s="3">
         <v>1655</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="3">
         <v>2482.5</v>
       </c>
       <c r="H218" s="4">
@@ -22239,7 +22301,7 @@
       <c r="F219" s="3">
         <v>1370</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="3">
         <v>2055</v>
       </c>
       <c r="H219" s="4">
@@ -22274,7 +22336,7 @@
       <c r="F220" s="3">
         <v>4730</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="3">
         <v>7095</v>
       </c>
       <c r="H220" s="4">
@@ -22309,7 +22371,7 @@
       <c r="F221" s="3">
         <v>1480</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="3">
         <v>2220</v>
       </c>
       <c r="H221" s="4">
@@ -22344,7 +22406,7 @@
       <c r="F222" s="3">
         <v>4255</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="3">
         <v>6382.5</v>
       </c>
       <c r="H222" s="4">
@@ -22379,7 +22441,7 @@
       <c r="F223" s="3">
         <v>3485</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="3">
         <v>5227.5</v>
       </c>
       <c r="H223" s="4">
@@ -22414,7 +22476,7 @@
       <c r="F224" s="3">
         <v>4455</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="3">
         <v>6682.5</v>
       </c>
       <c r="H224" s="4">
@@ -22449,7 +22511,7 @@
       <c r="F225" s="3">
         <v>1555</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="3">
         <v>2332.5</v>
       </c>
       <c r="H225" s="4">
@@ -22484,7 +22546,7 @@
       <c r="F226" s="3">
         <v>3870</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="3">
         <v>5805</v>
       </c>
       <c r="H226" s="4">
@@ -22519,7 +22581,7 @@
       <c r="F227" s="3">
         <v>2250</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="3">
         <v>3375</v>
       </c>
       <c r="H227" s="4">
@@ -22554,7 +22616,7 @@
       <c r="F228" s="3">
         <v>1435</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="3">
         <v>2152.5</v>
       </c>
       <c r="H228" s="4">
@@ -22589,7 +22651,7 @@
       <c r="F229" s="3">
         <v>3070</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="3">
         <v>4605</v>
       </c>
       <c r="H229" s="4">
@@ -22624,7 +22686,7 @@
       <c r="F230" s="3">
         <v>1695</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="3">
         <v>2542.5</v>
       </c>
       <c r="H230" s="4">
@@ -22659,7 +22721,7 @@
       <c r="F231" s="3">
         <v>2175</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="3">
         <v>3262.5</v>
       </c>
       <c r="H231" s="4">
@@ -22694,7 +22756,7 @@
       <c r="F232" s="3">
         <v>1960</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="3">
         <v>2940</v>
       </c>
       <c r="H232" s="4">
@@ -22729,7 +22791,7 @@
       <c r="F233" s="3">
         <v>4605</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="3">
         <v>6907.5</v>
       </c>
       <c r="H233" s="4">
@@ -22764,7 +22826,7 @@
       <c r="F234" s="3">
         <v>4345</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="3">
         <v>6517.5</v>
       </c>
       <c r="H234" s="4">
@@ -22799,7 +22861,7 @@
       <c r="F235" s="3">
         <v>1965</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="3">
         <v>2947.5</v>
       </c>
       <c r="H235" s="4">
@@ -22834,7 +22896,7 @@
       <c r="F236" s="3">
         <v>3565</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="3">
         <v>5347.5</v>
       </c>
       <c r="H236" s="4">
@@ -22869,7 +22931,7 @@
       <c r="F237" s="3">
         <v>1085</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="3">
         <v>1627.5</v>
       </c>
       <c r="H237" s="4">
@@ -22904,7 +22966,7 @@
       <c r="F238" s="3">
         <v>1145</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="3">
         <v>1717.5</v>
       </c>
       <c r="H238" s="4">
@@ -22939,7 +23001,7 @@
       <c r="F239" s="3">
         <v>325</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="3">
         <v>487.5</v>
       </c>
       <c r="H239" s="4">
@@ -22974,7 +23036,7 @@
       <c r="F240" s="3">
         <v>2380</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="3">
         <v>3570</v>
       </c>
       <c r="H240" s="4">
@@ -23009,7 +23071,7 @@
       <c r="F241" s="3">
         <v>2245</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="3">
         <v>3367.5</v>
       </c>
       <c r="H241" s="4">
@@ -23044,7 +23106,7 @@
       <c r="F242" s="3">
         <v>2945</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="3">
         <v>4417.5</v>
       </c>
       <c r="H242" s="4">
@@ -23079,7 +23141,7 @@
       <c r="F243" s="3">
         <v>1835</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="3">
         <v>2752.5</v>
       </c>
       <c r="H243" s="4">
@@ -23114,7 +23176,7 @@
       <c r="F244" s="3">
         <v>1570</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="3">
         <v>2355</v>
       </c>
       <c r="H244" s="4">
@@ -23149,7 +23211,7 @@
       <c r="F245" s="3">
         <v>3790</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="3">
         <v>5685</v>
       </c>
       <c r="H245" s="4">
@@ -23184,7 +23246,7 @@
       <c r="F246" s="3">
         <v>3540</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="3">
         <v>5310</v>
       </c>
       <c r="H246" s="4">
@@ -23219,7 +23281,7 @@
       <c r="F247" s="3">
         <v>3750</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="3">
         <v>5625</v>
       </c>
       <c r="H247" s="4">
@@ -23254,7 +23316,7 @@
       <c r="F248" s="3">
         <v>1950</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="3">
         <v>2925</v>
       </c>
       <c r="H248" s="4">
@@ -23289,7 +23351,7 @@
       <c r="F249" s="3">
         <v>4050</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="3">
         <v>6075</v>
       </c>
       <c r="H249" s="4">
@@ -23324,7 +23386,7 @@
       <c r="F250" s="3">
         <v>1585</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="3">
         <v>2377.5</v>
       </c>
       <c r="H250" s="4">
@@ -23359,7 +23421,7 @@
       <c r="F251" s="3">
         <v>310</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="3">
         <v>465</v>
       </c>
       <c r="H251" s="4">
@@ -23394,7 +23456,7 @@
       <c r="F252" s="3">
         <v>940</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="3">
         <v>1410</v>
       </c>
       <c r="H252" s="4">
@@ -23429,7 +23491,7 @@
       <c r="F253" s="3">
         <v>3825</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="3">
         <v>5737.5</v>
       </c>
       <c r="H253" s="4">
@@ -23464,7 +23526,7 @@
       <c r="F254" s="3">
         <v>4115</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="3">
         <v>6172.5</v>
       </c>
       <c r="H254" s="4">
@@ -23499,7 +23561,7 @@
       <c r="F255" s="3">
         <v>4405</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="3">
         <v>6607.5</v>
       </c>
       <c r="H255" s="4">
@@ -23534,7 +23596,7 @@
       <c r="F256" s="3">
         <v>340</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="3">
         <v>510</v>
       </c>
       <c r="H256" s="4">
@@ -23569,7 +23631,7 @@
       <c r="F257" s="3">
         <v>780</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="3">
         <v>1170</v>
       </c>
       <c r="H257" s="4">
@@ -23604,7 +23666,7 @@
       <c r="F258" s="3">
         <v>1805</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="3">
         <v>2707.5</v>
       </c>
       <c r="H258" s="4">
@@ -23639,7 +23701,7 @@
       <c r="F259" s="3">
         <v>2465</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="3">
         <v>3697.5</v>
       </c>
       <c r="H259" s="4">
@@ -23674,7 +23736,7 @@
       <c r="F260" s="3">
         <v>2130</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="3">
         <v>3195</v>
       </c>
       <c r="H260" s="4">
@@ -23709,7 +23771,7 @@
       <c r="F261" s="3">
         <v>285</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="3">
         <v>427.5</v>
       </c>
       <c r="H261" s="4">
@@ -23744,7 +23806,7 @@
       <c r="F262" s="3">
         <v>770</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="3">
         <v>1155</v>
       </c>
       <c r="H262" s="4">
@@ -23779,7 +23841,7 @@
       <c r="F263" s="3">
         <v>1080</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="3">
         <v>1620</v>
       </c>
       <c r="H263" s="4">
@@ -23814,7 +23876,7 @@
       <c r="F264" s="3">
         <v>4455</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="3">
         <v>6682.5</v>
       </c>
       <c r="H264" s="4">
@@ -23849,7 +23911,7 @@
       <c r="F265" s="3">
         <v>1030</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="3">
         <v>1545</v>
       </c>
       <c r="H265" s="4">
@@ -23884,7 +23946,7 @@
       <c r="F266" s="3">
         <v>1570</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="3">
         <v>2355</v>
       </c>
       <c r="H266" s="4">
@@ -23919,7 +23981,7 @@
       <c r="F267" s="3">
         <v>645</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="3">
         <v>967.5</v>
       </c>
       <c r="H267" s="4">
@@ -23954,7 +24016,7 @@
       <c r="F268" s="3">
         <v>4085</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="3">
         <v>6127.5</v>
       </c>
       <c r="H268" s="4">
@@ -23989,7 +24051,7 @@
       <c r="F269" s="3">
         <v>2035</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="3">
         <v>3052.5</v>
       </c>
       <c r="H269" s="4">
@@ -24024,7 +24086,7 @@
       <c r="F270" s="3">
         <v>3075</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="3">
         <v>4612.5</v>
       </c>
       <c r="H270" s="4">
@@ -24059,7 +24121,7 @@
       <c r="F271" s="3">
         <v>3190</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="3">
         <v>4785</v>
       </c>
       <c r="H271" s="4">
@@ -24094,7 +24156,7 @@
       <c r="F272" s="3">
         <v>2715</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="3">
         <v>4072.5</v>
       </c>
       <c r="H272" s="4">
@@ -24129,7 +24191,7 @@
       <c r="F273" s="3">
         <v>880</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="3">
         <v>1320</v>
       </c>
       <c r="H273" s="4">
@@ -24164,7 +24226,7 @@
       <c r="F274" s="3">
         <v>1880</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="3">
         <v>2820</v>
       </c>
       <c r="H274" s="4">
@@ -24199,7 +24261,7 @@
       <c r="F275" s="3">
         <v>2585</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="3">
         <v>3877.5</v>
       </c>
       <c r="H275" s="4">
@@ -24234,7 +24296,7 @@
       <c r="F276" s="3">
         <v>1865</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="3">
         <v>2797.5</v>
       </c>
       <c r="H276" s="4">
@@ -24269,7 +24331,7 @@
       <c r="F277" s="3">
         <v>505</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="3">
         <v>757.5</v>
       </c>
       <c r="H277" s="4">
@@ -24304,7 +24366,7 @@
       <c r="F278" s="3">
         <v>1775</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="3">
         <v>2662.5</v>
       </c>
       <c r="H278" s="4">
@@ -24339,7 +24401,7 @@
       <c r="F279" s="3">
         <v>745</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="3">
         <v>1117.5</v>
       </c>
       <c r="H279" s="4">
@@ -24374,7 +24436,7 @@
       <c r="F280" s="3">
         <v>4625</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="3">
         <v>6937.5</v>
       </c>
       <c r="H280" s="4">
@@ -24409,7 +24471,7 @@
       <c r="F281" s="3">
         <v>1215</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="3">
         <v>1822.5</v>
       </c>
       <c r="H281" s="4">
@@ -24444,7 +24506,7 @@
       <c r="F282" s="3">
         <v>3920</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="3">
         <v>5880</v>
       </c>
       <c r="H282" s="4">
@@ -24479,7 +24541,7 @@
       <c r="F283" s="3">
         <v>3890</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="3">
         <v>5835</v>
       </c>
       <c r="H283" s="4">
@@ -24514,7 +24576,7 @@
       <c r="F284" s="3">
         <v>2010</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="3">
         <v>3015</v>
       </c>
       <c r="H284" s="4">
@@ -24549,7 +24611,7 @@
       <c r="F285" s="3">
         <v>3850</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="3">
         <v>5775</v>
       </c>
       <c r="H285" s="4">
@@ -24584,7 +24646,7 @@
       <c r="F286" s="3">
         <v>3835</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="3">
         <v>5752.5</v>
       </c>
       <c r="H286" s="4">
@@ -24619,7 +24681,7 @@
       <c r="F287" s="3">
         <v>4270</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="3">
         <v>6405</v>
       </c>
       <c r="H287" s="4">
@@ -24654,7 +24716,7 @@
       <c r="F288" s="3">
         <v>1785</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="3">
         <v>2677.5</v>
       </c>
       <c r="H288" s="4">
@@ -24689,7 +24751,7 @@
       <c r="F289" s="3">
         <v>1805</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="3">
         <v>2707.5</v>
       </c>
       <c r="H289" s="4">
@@ -24724,7 +24786,7 @@
       <c r="F290" s="3">
         <v>3595</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="3">
         <v>5392.5</v>
       </c>
       <c r="H290" s="4">
@@ -24759,7 +24821,7 @@
       <c r="F291" s="3">
         <v>915</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="3">
         <v>1372.5</v>
       </c>
       <c r="H291" s="4">
@@ -24794,7 +24856,7 @@
       <c r="F292" s="3">
         <v>1035</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="3">
         <v>1552.5</v>
       </c>
       <c r="H292" s="4">
@@ -24829,7 +24891,7 @@
       <c r="F293" s="3">
         <v>1455</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="3">
         <v>2182.5</v>
       </c>
       <c r="H293" s="4">
@@ -24864,7 +24926,7 @@
       <c r="F294" s="3">
         <v>4545</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="3">
         <v>6817.5</v>
       </c>
       <c r="H294" s="4">
@@ -24899,7 +24961,7 @@
       <c r="F295" s="3">
         <v>2305</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="3">
         <v>3457.5</v>
       </c>
       <c r="H295" s="4">
@@ -24934,7 +24996,7 @@
       <c r="F296" s="3">
         <v>880</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="3">
         <v>1320</v>
       </c>
       <c r="H296" s="4">
@@ -24969,7 +25031,7 @@
       <c r="F297" s="3">
         <v>1885</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="3">
         <v>2827.5</v>
       </c>
       <c r="H297" s="4">
@@ -25004,7 +25066,7 @@
       <c r="F298" s="3">
         <v>4935</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="3">
         <v>7402.5</v>
       </c>
       <c r="H298" s="4">
@@ -25039,7 +25101,7 @@
       <c r="F299" s="3">
         <v>1695</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="3">
         <v>2542.5</v>
       </c>
       <c r="H299" s="4">
@@ -25074,7 +25136,7 @@
       <c r="F300" s="3">
         <v>540</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="3">
         <v>810</v>
       </c>
       <c r="H300" s="4">
@@ -25109,7 +25171,7 @@
       <c r="F301" s="3">
         <v>3550</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="3">
         <v>5325</v>
       </c>
       <c r="H301" s="4">
@@ -25144,7 +25206,7 @@
       <c r="F302" s="3">
         <v>405</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="3">
         <v>607.5</v>
       </c>
       <c r="H302" s="4">
@@ -25179,7 +25241,7 @@
       <c r="F303" s="3">
         <v>1035</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="3">
         <v>1552.5</v>
       </c>
       <c r="H303" s="4">
@@ -25214,7 +25276,7 @@
       <c r="F304" s="3">
         <v>2820</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="3">
         <v>4230</v>
       </c>
       <c r="H304" s="4">
@@ -25249,7 +25311,7 @@
       <c r="F305" s="3">
         <v>2550</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="3">
         <v>3825</v>
       </c>
       <c r="H305" s="4">
@@ -25284,7 +25346,7 @@
       <c r="F306" s="3">
         <v>710</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="3">
         <v>1065</v>
       </c>
       <c r="H306" s="4">
@@ -25319,7 +25381,7 @@
       <c r="F307" s="3">
         <v>3065</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="3">
         <v>4597.5</v>
       </c>
       <c r="H307" s="4">
@@ -25354,7 +25416,7 @@
       <c r="F308" s="3">
         <v>4875</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="3">
         <v>7312.5</v>
       </c>
       <c r="H308" s="4">
@@ -25389,7 +25451,7 @@
       <c r="F309" s="3">
         <v>4150</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="3">
         <v>6225</v>
       </c>
       <c r="H309" s="4">
@@ -25424,7 +25486,7 @@
       <c r="F310" s="3">
         <v>4975</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="3">
         <v>7462.5</v>
       </c>
       <c r="H310" s="4">
@@ -25459,7 +25521,7 @@
       <c r="F311" s="3">
         <v>3865</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="3">
         <v>5797.5</v>
       </c>
       <c r="H311" s="4">
@@ -25494,7 +25556,7 @@
       <c r="F312" s="3">
         <v>2730</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="3">
         <v>4095</v>
       </c>
       <c r="H312" s="4">
@@ -25529,7 +25591,7 @@
       <c r="F313" s="3">
         <v>2115</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="3">
         <v>3172.5</v>
       </c>
       <c r="H313" s="4">
@@ -25564,7 +25626,7 @@
       <c r="F314" s="3">
         <v>2170</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="3">
         <v>3255</v>
       </c>
       <c r="H314" s="4">
@@ -25599,7 +25661,7 @@
       <c r="F315" s="3">
         <v>1030</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="3">
         <v>1545</v>
       </c>
       <c r="H315" s="4">
@@ -25634,7 +25696,7 @@
       <c r="F316" s="3">
         <v>1310</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="3">
         <v>1965</v>
       </c>
       <c r="H316" s="4">
@@ -25669,7 +25731,7 @@
       <c r="F317" s="3">
         <v>2135</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="3">
         <v>3202.5</v>
       </c>
       <c r="H317" s="4">
@@ -25704,7 +25766,7 @@
       <c r="F318" s="3">
         <v>3520</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="3">
         <v>5280</v>
       </c>
       <c r="H318" s="4">
@@ -25739,7 +25801,7 @@
       <c r="F319" s="3">
         <v>4200</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="3">
         <v>6300</v>
       </c>
       <c r="H319" s="4">
@@ -25774,7 +25836,7 @@
       <c r="F320" s="3">
         <v>4830</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="3">
         <v>7245</v>
       </c>
       <c r="H320" s="4">
@@ -25809,7 +25871,7 @@
       <c r="F321" s="3">
         <v>3810</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="3">
         <v>5715</v>
       </c>
       <c r="H321" s="4">
@@ -25844,7 +25906,7 @@
       <c r="F322" s="3">
         <v>3825</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="3">
         <v>5737.5</v>
       </c>
       <c r="H322" s="4">
@@ -25879,7 +25941,7 @@
       <c r="F323" s="3">
         <v>2725</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="3">
         <v>4087.5</v>
       </c>
       <c r="H323" s="4">
@@ -25914,7 +25976,7 @@
       <c r="F324" s="3">
         <v>1715</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="3">
         <v>2572.5</v>
       </c>
       <c r="H324" s="4">
@@ -25949,7 +26011,7 @@
       <c r="F325" s="3">
         <v>2120</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="3">
         <v>3180</v>
       </c>
       <c r="H325" s="4">
@@ -25984,7 +26046,7 @@
       <c r="F326" s="3">
         <v>1745</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="3">
         <v>2617.5</v>
       </c>
       <c r="H326" s="4">
@@ -26019,7 +26081,7 @@
       <c r="F327" s="3">
         <v>3410</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="3">
         <v>5115</v>
       </c>
       <c r="H327" s="4">
@@ -26054,7 +26116,7 @@
       <c r="F328" s="3">
         <v>4455</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="3">
         <v>6682.5</v>
       </c>
       <c r="H328" s="4">
@@ -26089,7 +26151,7 @@
       <c r="F329" s="3">
         <v>625</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="3">
         <v>937.5</v>
       </c>
       <c r="H329" s="4">
@@ -26124,7 +26186,7 @@
       <c r="F330" s="3">
         <v>1285</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="3">
         <v>1927.5</v>
       </c>
       <c r="H330" s="4">
@@ -26159,7 +26221,7 @@
       <c r="F331" s="3">
         <v>2065</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="3">
         <v>3097.5</v>
       </c>
       <c r="H331" s="4">
@@ -26194,7 +26256,7 @@
       <c r="F332" s="3">
         <v>4000</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="3">
         <v>6000</v>
       </c>
       <c r="H332" s="4">
@@ -26229,7 +26291,7 @@
       <c r="F333" s="3">
         <v>1470</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="3">
         <v>2205</v>
       </c>
       <c r="H333" s="4">
@@ -26264,7 +26326,7 @@
       <c r="F334" s="3">
         <v>4090</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="3">
         <v>6135</v>
       </c>
       <c r="H334" s="4">
@@ -26299,7 +26361,7 @@
       <c r="F335" s="3">
         <v>1815</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="3">
         <v>2722.5</v>
       </c>
       <c r="H335" s="4">
@@ -26334,7 +26396,7 @@
       <c r="F336" s="3">
         <v>4085</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="3">
         <v>6127.5</v>
       </c>
       <c r="H336" s="4">
@@ -26369,7 +26431,7 @@
       <c r="F337" s="3">
         <v>3860</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="3">
         <v>5790</v>
       </c>
       <c r="H337" s="4">
@@ -26404,7 +26466,7 @@
       <c r="F338" s="3">
         <v>2690</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="3">
         <v>4035</v>
       </c>
       <c r="H338" s="4">
@@ -26439,7 +26501,7 @@
       <c r="F339" s="3">
         <v>1040</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="3">
         <v>1560</v>
       </c>
       <c r="H339" s="4">
@@ -26474,7 +26536,7 @@
       <c r="F340" s="3">
         <v>2080</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="3">
         <v>3120</v>
       </c>
       <c r="H340" s="4">
@@ -26509,7 +26571,7 @@
       <c r="F341" s="3">
         <v>1300</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="3">
         <v>1950</v>
       </c>
       <c r="H341" s="4">
@@ -26544,7 +26606,7 @@
       <c r="F342" s="3">
         <v>2475</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="3">
         <v>3712.5</v>
       </c>
       <c r="H342" s="4">
@@ -26579,7 +26641,7 @@
       <c r="F343" s="3">
         <v>2990</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="3">
         <v>4485</v>
       </c>
       <c r="H343" s="4">
@@ -26614,7 +26676,7 @@
       <c r="F344" s="3">
         <v>415</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="3">
         <v>622.5</v>
       </c>
       <c r="H344" s="4">
@@ -26649,7 +26711,7 @@
       <c r="F345" s="3">
         <v>2070</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="3">
         <v>3105</v>
       </c>
       <c r="H345" s="4">
@@ -26684,7 +26746,7 @@
       <c r="F346" s="3">
         <v>1765</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="3">
         <v>2647.5</v>
       </c>
       <c r="H346" s="4">
@@ -26719,7 +26781,7 @@
       <c r="F347" s="3">
         <v>275</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="3">
         <v>412.5</v>
       </c>
       <c r="H347" s="4">
@@ -26754,7 +26816,7 @@
       <c r="F348" s="3">
         <v>595</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="3">
         <v>892.5</v>
       </c>
       <c r="H348" s="4">
@@ -26789,7 +26851,7 @@
       <c r="F349" s="3">
         <v>4845</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="3">
         <v>7267.5</v>
       </c>
       <c r="H349" s="4">
@@ -26824,7 +26886,7 @@
       <c r="F350" s="3">
         <v>2625</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="3">
         <v>3937.5</v>
       </c>
       <c r="H350" s="4">
@@ -26859,7 +26921,7 @@
       <c r="F351" s="3">
         <v>1150</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="3">
         <v>1725</v>
       </c>
       <c r="H351" s="4">
@@ -26894,7 +26956,7 @@
       <c r="F352" s="3">
         <v>3160</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="3">
         <v>4740</v>
       </c>
       <c r="H352" s="4">
@@ -26929,7 +26991,7 @@
       <c r="F353" s="3">
         <v>705</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="3">
         <v>1057.5</v>
       </c>
       <c r="H353" s="4">
@@ -26964,7 +27026,7 @@
       <c r="F354" s="3">
         <v>2960</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="3">
         <v>4440</v>
       </c>
       <c r="H354" s="4">
@@ -26999,7 +27061,7 @@
       <c r="F355" s="3">
         <v>2690</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="3">
         <v>4035</v>
       </c>
       <c r="H355" s="4">
@@ -27034,7 +27096,7 @@
       <c r="F356" s="3">
         <v>2390</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="3">
         <v>3585</v>
       </c>
       <c r="H356" s="4">
@@ -27069,7 +27131,7 @@
       <c r="F357" s="3">
         <v>4600</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="3">
         <v>6900</v>
       </c>
       <c r="H357" s="4">
@@ -27104,7 +27166,7 @@
       <c r="F358" s="3">
         <v>2785</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="3">
         <v>4177.5</v>
       </c>
       <c r="H358" s="4">
@@ -27139,7 +27201,7 @@
       <c r="F359" s="3">
         <v>4645</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="3">
         <v>6967.5</v>
       </c>
       <c r="H359" s="4">
@@ -27174,7 +27236,7 @@
       <c r="F360" s="3">
         <v>3925</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="3">
         <v>5887.5</v>
       </c>
       <c r="H360" s="4">
@@ -27209,7 +27271,7 @@
       <c r="F361" s="3">
         <v>4955</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="3">
         <v>7432.5</v>
       </c>
       <c r="H361" s="4">
@@ -27244,7 +27306,7 @@
       <c r="F362" s="3">
         <v>3230</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="3">
         <v>4845</v>
       </c>
       <c r="H362" s="4">
@@ -27279,7 +27341,7 @@
       <c r="F363" s="3">
         <v>4655</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="3">
         <v>6982.5</v>
       </c>
       <c r="H363" s="4">
@@ -27314,7 +27376,7 @@
       <c r="F364" s="3">
         <v>2215</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="3">
         <v>3322.5</v>
       </c>
       <c r="H364" s="4">
@@ -27349,7 +27411,7 @@
       <c r="F365" s="3">
         <v>3585</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="3">
         <v>5377.5</v>
       </c>
       <c r="H365" s="4">
@@ -27384,7 +27446,7 @@
       <c r="F366" s="3">
         <v>1470</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="3">
         <v>2205</v>
       </c>
       <c r="H366" s="4">
@@ -27419,7 +27481,7 @@
       <c r="F367" s="3">
         <v>3795</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="3">
         <v>5692.5</v>
       </c>
       <c r="H367" s="4">
@@ -27454,7 +27516,7 @@
       <c r="F368" s="3">
         <v>800</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="3">
         <v>1200</v>
       </c>
       <c r="H368" s="4">
@@ -27489,7 +27551,7 @@
       <c r="F369" s="3">
         <v>2165</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="3">
         <v>3247.5</v>
       </c>
       <c r="H369" s="4">
@@ -27524,7 +27586,7 @@
       <c r="F370" s="3">
         <v>2940</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="3">
         <v>4410</v>
       </c>
       <c r="H370" s="4">
@@ -27559,7 +27621,7 @@
       <c r="F371" s="3">
         <v>1775</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="3">
         <v>2662.5</v>
       </c>
       <c r="H371" s="4">
@@ -27594,7 +27656,7 @@
       <c r="F372" s="3">
         <v>1810</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="3">
         <v>2715</v>
       </c>
       <c r="H372" s="4">
@@ -27629,7 +27691,7 @@
       <c r="F373" s="3">
         <v>3435</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="3">
         <v>5152.5</v>
       </c>
       <c r="H373" s="4">
@@ -27664,7 +27726,7 @@
       <c r="F374" s="3">
         <v>3890</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="3">
         <v>5835</v>
       </c>
       <c r="H374" s="4">
@@ -27699,7 +27761,7 @@
       <c r="F375" s="3">
         <v>4855</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="3">
         <v>7282.5</v>
       </c>
       <c r="H375" s="4">
@@ -27734,7 +27796,7 @@
       <c r="F376" s="3">
         <v>860</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="3">
         <v>1290</v>
       </c>
       <c r="H376" s="4">
@@ -27769,7 +27831,7 @@
       <c r="F377" s="3">
         <v>1655</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="3">
         <v>2482.5</v>
       </c>
       <c r="H377" s="4">
@@ -27804,7 +27866,7 @@
       <c r="F378" s="3">
         <v>735</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="3">
         <v>1102.5</v>
       </c>
       <c r="H378" s="4">
@@ -27839,7 +27901,7 @@
       <c r="F379" s="3">
         <v>740</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="3">
         <v>1110</v>
       </c>
       <c r="H379" s="4">
@@ -27874,7 +27936,7 @@
       <c r="F380" s="3">
         <v>4840</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="3">
         <v>7260</v>
       </c>
       <c r="H380" s="4">
@@ -27909,7 +27971,7 @@
       <c r="F381" s="3">
         <v>4295</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="3">
         <v>6442.5</v>
       </c>
       <c r="H381" s="4">
@@ -27944,7 +28006,7 @@
       <c r="F382" s="3">
         <v>2520</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="3">
         <v>3780</v>
       </c>
       <c r="H382" s="4">
@@ -27979,7 +28041,7 @@
       <c r="F383" s="3">
         <v>3465</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="3">
         <v>5197.5</v>
       </c>
       <c r="H383" s="4">
@@ -28014,7 +28076,7 @@
       <c r="F384" s="3">
         <v>3160</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="3">
         <v>4740</v>
       </c>
       <c r="H384" s="4">
@@ -28049,7 +28111,7 @@
       <c r="F385" s="3">
         <v>4640</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="3">
         <v>6960</v>
       </c>
       <c r="H385" s="4">
@@ -28084,7 +28146,7 @@
       <c r="F386" s="3">
         <v>2285</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="3">
         <v>3427.5</v>
       </c>
       <c r="H386" s="4">
@@ -28119,7 +28181,7 @@
       <c r="F387" s="3">
         <v>935</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="3">
         <v>1402.5</v>
       </c>
       <c r="H387" s="4">
@@ -28154,7 +28216,7 @@
       <c r="F388" s="3">
         <v>3315</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="3">
         <v>4972.5</v>
       </c>
       <c r="H388" s="4">
@@ -28189,7 +28251,7 @@
       <c r="F389" s="3">
         <v>1170</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="3">
         <v>1755</v>
       </c>
       <c r="H389" s="4">
@@ -28224,7 +28286,7 @@
       <c r="F390" s="3">
         <v>780</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="3">
         <v>1170</v>
       </c>
       <c r="H390" s="4">
@@ -28259,7 +28321,7 @@
       <c r="F391" s="3">
         <v>730</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="3">
         <v>1095</v>
       </c>
       <c r="H391" s="4">
@@ -28294,7 +28356,7 @@
       <c r="F392" s="3">
         <v>2195</v>
       </c>
-      <c r="G392">
+      <c r="G392" s="3">
         <v>3292.5</v>
       </c>
       <c r="H392" s="4">
@@ -28329,7 +28391,7 @@
       <c r="F393" s="3">
         <v>395</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="3">
         <v>592.5</v>
       </c>
       <c r="H393" s="4">
@@ -28364,7 +28426,7 @@
       <c r="F394" s="3">
         <v>1480</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="3">
         <v>2220</v>
       </c>
       <c r="H394" s="4">
@@ -28399,7 +28461,7 @@
       <c r="F395" s="3">
         <v>4155</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="3">
         <v>6232.5</v>
       </c>
       <c r="H395" s="4">
@@ -28434,7 +28496,7 @@
       <c r="F396" s="3">
         <v>3780</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="3">
         <v>5670</v>
       </c>
       <c r="H396" s="4">
@@ -28469,7 +28531,7 @@
       <c r="F397" s="3">
         <v>1325</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="3">
         <v>1987.5</v>
       </c>
       <c r="H397" s="4">
@@ -28504,7 +28566,7 @@
       <c r="F398" s="3">
         <v>2110</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="3">
         <v>3165</v>
       </c>
       <c r="H398" s="4">
@@ -28539,7 +28601,7 @@
       <c r="F399" s="3">
         <v>3270</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="3">
         <v>4905</v>
       </c>
       <c r="H399" s="4">
@@ -28574,7 +28636,7 @@
       <c r="F400" s="3">
         <v>3090</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="3">
         <v>4635</v>
       </c>
       <c r="H400" s="4">
@@ -28609,7 +28671,7 @@
       <c r="F401" s="3">
         <v>2940</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="3">
         <v>4410</v>
       </c>
       <c r="H401" s="4">
@@ -28644,7 +28706,7 @@
       <c r="F402" s="3">
         <v>1715</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="3">
         <v>2572.5</v>
       </c>
       <c r="H402" s="4">
@@ -28679,7 +28741,7 @@
       <c r="F403" s="3">
         <v>505</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="3">
         <v>757.5</v>
       </c>
       <c r="H403" s="4">
@@ -28714,7 +28776,7 @@
       <c r="F404" s="3">
         <v>565</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="3">
         <v>847.5</v>
       </c>
       <c r="H404" s="4">
@@ -28749,7 +28811,7 @@
       <c r="F405" s="3">
         <v>845</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="3">
         <v>1267.5</v>
       </c>
       <c r="H405" s="4">
@@ -28784,7 +28846,7 @@
       <c r="F406" s="3">
         <v>4675</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="3">
         <v>7012.5</v>
       </c>
       <c r="H406" s="4">
@@ -28819,7 +28881,7 @@
       <c r="F407" s="3">
         <v>4285</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="3">
         <v>6427.5</v>
       </c>
       <c r="H407" s="4">
@@ -28854,7 +28916,7 @@
       <c r="F408" s="3">
         <v>4155</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="3">
         <v>6232.5</v>
       </c>
       <c r="H408" s="4">
@@ -28889,7 +28951,7 @@
       <c r="F409" s="3">
         <v>4290</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="3">
         <v>6435</v>
       </c>
       <c r="H409" s="4">
@@ -28924,7 +28986,7 @@
       <c r="F410" s="3">
         <v>4455</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="3">
         <v>6682.5</v>
       </c>
       <c r="H410" s="4">
@@ -28959,7 +29021,7 @@
       <c r="F411" s="3">
         <v>2710</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="3">
         <v>4065</v>
       </c>
       <c r="H411" s="4">
@@ -28994,7 +29056,7 @@
       <c r="F412" s="3">
         <v>660</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="3">
         <v>990</v>
       </c>
       <c r="H412" s="4">
@@ -29029,7 +29091,7 @@
       <c r="F413" s="3">
         <v>3890</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="3">
         <v>5835</v>
       </c>
       <c r="H413" s="4">
@@ -29064,7 +29126,7 @@
       <c r="F414" s="3">
         <v>3350</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="3">
         <v>5025</v>
       </c>
       <c r="H414" s="4">
@@ -29099,7 +29161,7 @@
       <c r="F415" s="3">
         <v>1175</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="3">
         <v>1762.5</v>
       </c>
       <c r="H415" s="4">
@@ -29134,7 +29196,7 @@
       <c r="F416" s="3">
         <v>3200</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="3">
         <v>4800</v>
       </c>
       <c r="H416" s="4">
@@ -29169,7 +29231,7 @@
       <c r="F417" s="3">
         <v>2290</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="3">
         <v>3435</v>
       </c>
       <c r="H417" s="4">
@@ -29204,7 +29266,7 @@
       <c r="F418" s="3">
         <v>815</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="3">
         <v>1222.5</v>
       </c>
       <c r="H418" s="4">
@@ -29239,7 +29301,7 @@
       <c r="F419" s="3">
         <v>2430</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="3">
         <v>3645</v>
       </c>
       <c r="H419" s="4">
@@ -29274,7 +29336,7 @@
       <c r="F420" s="3">
         <v>3835</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="3">
         <v>5752.5</v>
       </c>
       <c r="H420" s="4">
@@ -29309,7 +29371,7 @@
       <c r="F421" s="3">
         <v>3570</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="3">
         <v>5355</v>
       </c>
       <c r="H421" s="4">
@@ -29344,7 +29406,7 @@
       <c r="F422" s="3">
         <v>1640</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="3">
         <v>2460</v>
       </c>
       <c r="H422" s="4">
@@ -29379,7 +29441,7 @@
       <c r="F423" s="3">
         <v>3000</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="3">
         <v>4500</v>
       </c>
       <c r="H423" s="4">
@@ -29414,7 +29476,7 @@
       <c r="F424" s="3">
         <v>750</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="3">
         <v>1125</v>
       </c>
       <c r="H424" s="4">
@@ -29449,7 +29511,7 @@
       <c r="F425" s="3">
         <v>1770</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="3">
         <v>2655</v>
       </c>
       <c r="H425" s="4">
@@ -29484,7 +29546,7 @@
       <c r="F426" s="3">
         <v>3475</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="3">
         <v>5212.5</v>
       </c>
       <c r="H426" s="4">
@@ -29519,7 +29581,7 @@
       <c r="F427" s="3">
         <v>4405</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="3">
         <v>6607.5</v>
       </c>
       <c r="H427" s="4">
@@ -29554,7 +29616,7 @@
       <c r="F428" s="3">
         <v>3230</v>
       </c>
-      <c r="G428">
+      <c r="G428" s="3">
         <v>4845</v>
       </c>
       <c r="H428" s="4">
@@ -29589,7 +29651,7 @@
       <c r="F429" s="3">
         <v>3675</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="3">
         <v>5512.5</v>
       </c>
       <c r="H429" s="4">
@@ -29624,7 +29686,7 @@
       <c r="F430" s="3">
         <v>3535</v>
       </c>
-      <c r="G430">
+      <c r="G430" s="3">
         <v>5302.5</v>
       </c>
       <c r="H430" s="4">
@@ -29659,7 +29721,7 @@
       <c r="F431" s="3">
         <v>4205</v>
       </c>
-      <c r="G431">
+      <c r="G431" s="3">
         <v>6307.5</v>
       </c>
       <c r="H431" s="4">
@@ -29694,7 +29756,7 @@
       <c r="F432" s="3">
         <v>3340</v>
       </c>
-      <c r="G432">
+      <c r="G432" s="3">
         <v>5010</v>
       </c>
       <c r="H432" s="4">
@@ -29729,7 +29791,7 @@
       <c r="F433" s="3">
         <v>1550</v>
       </c>
-      <c r="G433">
+      <c r="G433" s="3">
         <v>2325</v>
       </c>
       <c r="H433" s="4">
@@ -29764,7 +29826,7 @@
       <c r="F434" s="3">
         <v>2275</v>
       </c>
-      <c r="G434">
+      <c r="G434" s="3">
         <v>3412.5</v>
       </c>
       <c r="H434" s="4">
@@ -29799,7 +29861,7 @@
       <c r="F435" s="3">
         <v>3275</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="3">
         <v>4912.5</v>
       </c>
       <c r="H435" s="4">
@@ -29834,7 +29896,7 @@
       <c r="F436" s="3">
         <v>4395</v>
       </c>
-      <c r="G436">
+      <c r="G436" s="3">
         <v>6592.5</v>
       </c>
       <c r="H436" s="4">
@@ -29869,7 +29931,7 @@
       <c r="F437" s="3">
         <v>2740</v>
       </c>
-      <c r="G437">
+      <c r="G437" s="3">
         <v>4110</v>
       </c>
       <c r="H437" s="4">
@@ -29904,7 +29966,7 @@
       <c r="F438" s="3">
         <v>3205</v>
       </c>
-      <c r="G438">
+      <c r="G438" s="3">
         <v>4807.5</v>
       </c>
       <c r="H438" s="4">
@@ -29939,7 +30001,7 @@
       <c r="F439" s="3">
         <v>1820</v>
       </c>
-      <c r="G439">
+      <c r="G439" s="3">
         <v>2730</v>
       </c>
       <c r="H439" s="4">
@@ -29974,7 +30036,7 @@
       <c r="F440" s="3">
         <v>3445</v>
       </c>
-      <c r="G440">
+      <c r="G440" s="3">
         <v>5167.5</v>
       </c>
       <c r="H440" s="4">
@@ -30009,7 +30071,7 @@
       <c r="F441" s="3">
         <v>4575</v>
       </c>
-      <c r="G441">
+      <c r="G441" s="3">
         <v>6862.5</v>
       </c>
       <c r="H441" s="4">
@@ -30044,7 +30106,7 @@
       <c r="F442" s="3">
         <v>3870</v>
       </c>
-      <c r="G442">
+      <c r="G442" s="3">
         <v>5805</v>
       </c>
       <c r="H442" s="4">
@@ -30079,7 +30141,7 @@
       <c r="F443" s="3">
         <v>585</v>
       </c>
-      <c r="G443">
+      <c r="G443" s="3">
         <v>877.5</v>
       </c>
       <c r="H443" s="4">
@@ -30114,7 +30176,7 @@
       <c r="F444" s="3">
         <v>2730</v>
       </c>
-      <c r="G444">
+      <c r="G444" s="3">
         <v>4095</v>
       </c>
       <c r="H444" s="4">
@@ -30149,7 +30211,7 @@
       <c r="F445" s="3">
         <v>3140</v>
       </c>
-      <c r="G445">
+      <c r="G445" s="3">
         <v>4710</v>
       </c>
       <c r="H445" s="4">
@@ -30184,7 +30246,7 @@
       <c r="F446" s="3">
         <v>3445</v>
       </c>
-      <c r="G446">
+      <c r="G446" s="3">
         <v>5167.5</v>
       </c>
       <c r="H446" s="4">
@@ -30219,7 +30281,7 @@
       <c r="F447" s="3">
         <v>385</v>
       </c>
-      <c r="G447">
+      <c r="G447" s="3">
         <v>577.5</v>
       </c>
       <c r="H447" s="4">
@@ -30254,7 +30316,7 @@
       <c r="F448" s="3">
         <v>2420</v>
       </c>
-      <c r="G448">
+      <c r="G448" s="3">
         <v>3630</v>
       </c>
       <c r="H448" s="4">
@@ -30289,7 +30351,7 @@
       <c r="F449" s="3">
         <v>3725</v>
       </c>
-      <c r="G449">
+      <c r="G449" s="3">
         <v>5587.5</v>
       </c>
       <c r="H449" s="4">
@@ -30324,7 +30386,7 @@
       <c r="F450" s="3">
         <v>540</v>
       </c>
-      <c r="G450">
+      <c r="G450" s="3">
         <v>810</v>
       </c>
       <c r="H450" s="4">
@@ -30359,7 +30421,7 @@
       <c r="F451" s="3">
         <v>3940</v>
       </c>
-      <c r="G451">
+      <c r="G451" s="3">
         <v>5910</v>
       </c>
       <c r="H451" s="4">
@@ -30394,7 +30456,7 @@
       <c r="F452" s="3">
         <v>3135</v>
       </c>
-      <c r="G452">
+      <c r="G452" s="3">
         <v>4702.5</v>
       </c>
       <c r="H452" s="4">
@@ -30429,7 +30491,7 @@
       <c r="F453" s="3">
         <v>2750</v>
       </c>
-      <c r="G453">
+      <c r="G453" s="3">
         <v>4125</v>
       </c>
       <c r="H453" s="4">
@@ -30464,7 +30526,7 @@
       <c r="F454" s="3">
         <v>4795</v>
       </c>
-      <c r="G454">
+      <c r="G454" s="3">
         <v>7192.5</v>
       </c>
       <c r="H454" s="4">
@@ -30499,7 +30561,7 @@
       <c r="F455" s="3">
         <v>2535</v>
       </c>
-      <c r="G455">
+      <c r="G455" s="3">
         <v>3802.5</v>
       </c>
       <c r="H455" s="4">
@@ -30534,7 +30596,7 @@
       <c r="F456" s="3">
         <v>1590</v>
       </c>
-      <c r="G456">
+      <c r="G456" s="3">
         <v>2385</v>
       </c>
       <c r="H456" s="4">
@@ -30569,7 +30631,7 @@
       <c r="F457" s="3">
         <v>2760</v>
       </c>
-      <c r="G457">
+      <c r="G457" s="3">
         <v>4140</v>
       </c>
       <c r="H457" s="4">
@@ -30604,7 +30666,7 @@
       <c r="F458" s="3">
         <v>1860</v>
       </c>
-      <c r="G458">
+      <c r="G458" s="3">
         <v>2790</v>
       </c>
       <c r="H458" s="4">
@@ -30639,7 +30701,7 @@
       <c r="F459" s="3">
         <v>4795</v>
       </c>
-      <c r="G459">
+      <c r="G459" s="3">
         <v>7192.5</v>
       </c>
       <c r="H459" s="4">
@@ -30674,7 +30736,7 @@
       <c r="F460" s="3">
         <v>3645</v>
       </c>
-      <c r="G460">
+      <c r="G460" s="3">
         <v>5467.5</v>
       </c>
       <c r="H460" s="4">
@@ -30709,7 +30771,7 @@
       <c r="F461" s="3">
         <v>3095</v>
       </c>
-      <c r="G461">
+      <c r="G461" s="3">
         <v>4642.5</v>
       </c>
       <c r="H461" s="4">
@@ -30744,7 +30806,7 @@
       <c r="F462" s="3">
         <v>1895</v>
       </c>
-      <c r="G462">
+      <c r="G462" s="3">
         <v>2842.5</v>
       </c>
       <c r="H462" s="4">
@@ -30779,7 +30841,7 @@
       <c r="F463" s="3">
         <v>2005</v>
       </c>
-      <c r="G463">
+      <c r="G463" s="3">
         <v>3007.5</v>
       </c>
       <c r="H463" s="4">
@@ -30814,7 +30876,7 @@
       <c r="F464" s="3">
         <v>4280</v>
       </c>
-      <c r="G464">
+      <c r="G464" s="3">
         <v>6420</v>
       </c>
       <c r="H464" s="4">
@@ -30849,7 +30911,7 @@
       <c r="F465" s="3">
         <v>4410</v>
       </c>
-      <c r="G465">
+      <c r="G465" s="3">
         <v>6615</v>
       </c>
       <c r="H465" s="4">
@@ -30884,7 +30946,7 @@
       <c r="F466" s="3">
         <v>3700</v>
       </c>
-      <c r="G466">
+      <c r="G466" s="3">
         <v>5550</v>
       </c>
       <c r="H466" s="4">
@@ -30919,7 +30981,7 @@
       <c r="F467" s="3">
         <v>580</v>
       </c>
-      <c r="G467">
+      <c r="G467" s="3">
         <v>870</v>
       </c>
       <c r="H467" s="4">
@@ -30954,7 +31016,7 @@
       <c r="F468" s="3">
         <v>2900</v>
       </c>
-      <c r="G468">
+      <c r="G468" s="3">
         <v>4350</v>
       </c>
       <c r="H468" s="4">
@@ -30989,7 +31051,7 @@
       <c r="F469" s="3">
         <v>1985</v>
       </c>
-      <c r="G469">
+      <c r="G469" s="3">
         <v>2977.5</v>
       </c>
       <c r="H469" s="4">
@@ -31024,7 +31086,7 @@
       <c r="F470" s="3">
         <v>1485</v>
       </c>
-      <c r="G470">
+      <c r="G470" s="3">
         <v>2227.5</v>
       </c>
       <c r="H470" s="4">
@@ -31059,7 +31121,7 @@
       <c r="F471" s="3">
         <v>745</v>
       </c>
-      <c r="G471">
+      <c r="G471" s="3">
         <v>1117.5</v>
       </c>
       <c r="H471" s="4">
@@ -31094,7 +31156,7 @@
       <c r="F472" s="3">
         <v>2395</v>
       </c>
-      <c r="G472">
+      <c r="G472" s="3">
         <v>3592.5</v>
       </c>
       <c r="H472" s="4">
@@ -31129,7 +31191,7 @@
       <c r="F473" s="3">
         <v>410</v>
       </c>
-      <c r="G473">
+      <c r="G473" s="3">
         <v>615</v>
       </c>
       <c r="H473" s="4">
@@ -31164,7 +31226,7 @@
       <c r="F474" s="3">
         <v>2645</v>
       </c>
-      <c r="G474">
+      <c r="G474" s="3">
         <v>3967.5</v>
       </c>
       <c r="H474" s="4">
@@ -31199,7 +31261,7 @@
       <c r="F475" s="3">
         <v>4370</v>
       </c>
-      <c r="G475">
+      <c r="G475" s="3">
         <v>6555</v>
       </c>
       <c r="H475" s="4">
@@ -31234,7 +31296,7 @@
       <c r="F476" s="3">
         <v>550</v>
       </c>
-      <c r="G476">
+      <c r="G476" s="3">
         <v>825</v>
       </c>
       <c r="H476" s="4">
@@ -31269,7 +31331,7 @@
       <c r="F477" s="3">
         <v>440</v>
       </c>
-      <c r="G477">
+      <c r="G477" s="3">
         <v>660</v>
       </c>
       <c r="H477" s="4">
@@ -31304,7 +31366,7 @@
       <c r="F478" s="3">
         <v>880</v>
       </c>
-      <c r="G478">
+      <c r="G478" s="3">
         <v>1320</v>
       </c>
       <c r="H478" s="4">
@@ -31339,7 +31401,7 @@
       <c r="F479" s="3">
         <v>4945</v>
       </c>
-      <c r="G479">
+      <c r="G479" s="3">
         <v>7417.5</v>
       </c>
       <c r="H479" s="4">
@@ -31374,7 +31436,7 @@
       <c r="F480" s="3">
         <v>4550</v>
       </c>
-      <c r="G480">
+      <c r="G480" s="3">
         <v>6825</v>
       </c>
       <c r="H480" s="4">
@@ -31409,7 +31471,7 @@
       <c r="F481" s="3">
         <v>3315</v>
       </c>
-      <c r="G481">
+      <c r="G481" s="3">
         <v>4972.5</v>
       </c>
       <c r="H481" s="4">
@@ -31444,7 +31506,7 @@
       <c r="F482" s="3">
         <v>685</v>
       </c>
-      <c r="G482">
+      <c r="G482" s="3">
         <v>1027.5</v>
       </c>
       <c r="H482" s="4">
@@ -31479,7 +31541,7 @@
       <c r="F483" s="3">
         <v>4995</v>
       </c>
-      <c r="G483">
+      <c r="G483" s="3">
         <v>7492.5</v>
       </c>
       <c r="H483" s="4">
@@ -31514,7 +31576,7 @@
       <c r="F484" s="3">
         <v>1760</v>
       </c>
-      <c r="G484">
+      <c r="G484" s="3">
         <v>2640</v>
       </c>
       <c r="H484" s="4">
@@ -31549,7 +31611,7 @@
       <c r="F485" s="3">
         <v>4905</v>
       </c>
-      <c r="G485">
+      <c r="G485" s="3">
         <v>7357.5</v>
       </c>
       <c r="H485" s="4">
@@ -31584,7 +31646,7 @@
       <c r="F486" s="3">
         <v>3085</v>
       </c>
-      <c r="G486">
+      <c r="G486" s="3">
         <v>4627.5</v>
       </c>
       <c r="H486" s="4">
@@ -31619,7 +31681,7 @@
       <c r="F487" s="3">
         <v>1795</v>
       </c>
-      <c r="G487">
+      <c r="G487" s="3">
         <v>2692.5</v>
       </c>
       <c r="H487" s="4">
@@ -31654,7 +31716,7 @@
       <c r="F488" s="3">
         <v>480</v>
       </c>
-      <c r="G488">
+      <c r="G488" s="3">
         <v>720</v>
       </c>
       <c r="H488" s="4">
@@ -31689,7 +31751,7 @@
       <c r="F489" s="3">
         <v>4165</v>
       </c>
-      <c r="G489">
+      <c r="G489" s="3">
         <v>6247.5</v>
       </c>
       <c r="H489" s="4">
@@ -31724,7 +31786,7 @@
       <c r="F490" s="3">
         <v>4400</v>
       </c>
-      <c r="G490">
+      <c r="G490" s="3">
         <v>6600</v>
       </c>
       <c r="H490" s="4">
@@ -31759,7 +31821,7 @@
       <c r="F491" s="3">
         <v>1750</v>
       </c>
-      <c r="G491">
+      <c r="G491" s="3">
         <v>2625</v>
       </c>
       <c r="H491" s="4">
@@ -31794,7 +31856,7 @@
       <c r="F492" s="3">
         <v>4270</v>
       </c>
-      <c r="G492">
+      <c r="G492" s="3">
         <v>6405</v>
       </c>
       <c r="H492" s="4">
@@ -31829,7 +31891,7 @@
       <c r="F493" s="3">
         <v>1335</v>
       </c>
-      <c r="G493">
+      <c r="G493" s="3">
         <v>2002.5</v>
       </c>
       <c r="H493" s="4">
@@ -31864,7 +31926,7 @@
       <c r="F494" s="3">
         <v>4295</v>
       </c>
-      <c r="G494">
+      <c r="G494" s="3">
         <v>6442.5</v>
       </c>
       <c r="H494" s="4">
@@ -31899,7 +31961,7 @@
       <c r="F495" s="3">
         <v>1585</v>
       </c>
-      <c r="G495">
+      <c r="G495" s="3">
         <v>2377.5</v>
       </c>
       <c r="H495" s="4">
@@ -31934,7 +31996,7 @@
       <c r="F496" s="3">
         <v>1085</v>
       </c>
-      <c r="G496">
+      <c r="G496" s="3">
         <v>1627.5</v>
       </c>
       <c r="H496" s="4">
@@ -31969,7 +32031,7 @@
       <c r="F497" s="3">
         <v>435</v>
       </c>
-      <c r="G497">
+      <c r="G497" s="3">
         <v>652.5</v>
       </c>
       <c r="H497" s="4">
@@ -32004,7 +32066,7 @@
       <c r="F498" s="3">
         <v>1300</v>
       </c>
-      <c r="G498">
+      <c r="G498" s="3">
         <v>1950</v>
       </c>
       <c r="H498" s="4">
@@ -32039,7 +32101,7 @@
       <c r="F499" s="3">
         <v>1395</v>
       </c>
-      <c r="G499">
+      <c r="G499" s="3">
         <v>2092.5</v>
       </c>
       <c r="H499" s="4">
@@ -32074,7 +32136,7 @@
       <c r="F500" s="3">
         <v>3060</v>
       </c>
-      <c r="G500">
+      <c r="G500" s="3">
         <v>4590</v>
       </c>
       <c r="H500" s="4">
@@ -32109,7 +32171,7 @@
       <c r="F501" s="3">
         <v>3805</v>
       </c>
-      <c r="G501">
+      <c r="G501" s="3">
         <v>5707.5</v>
       </c>
       <c r="H501" s="4">
@@ -32144,7 +32206,7 @@
       <c r="F502" s="3">
         <v>3865</v>
       </c>
-      <c r="G502">
+      <c r="G502" s="3">
         <v>5797.5</v>
       </c>
       <c r="H502" s="4">
@@ -32179,7 +32241,7 @@
       <c r="F503" s="3">
         <v>280</v>
       </c>
-      <c r="G503">
+      <c r="G503" s="3">
         <v>420</v>
       </c>
       <c r="H503" s="4">
@@ -32214,7 +32276,7 @@
       <c r="F504" s="3">
         <v>1450</v>
       </c>
-      <c r="G504">
+      <c r="G504" s="3">
         <v>2175</v>
       </c>
       <c r="H504" s="4">
@@ -32249,7 +32311,7 @@
       <c r="F505" s="3">
         <v>2505</v>
       </c>
-      <c r="G505">
+      <c r="G505" s="3">
         <v>3757.5</v>
       </c>
       <c r="H505" s="4">
@@ -32284,7 +32346,7 @@
       <c r="F506" s="3">
         <v>3050</v>
       </c>
-      <c r="G506">
+      <c r="G506" s="3">
         <v>4575</v>
       </c>
       <c r="H506" s="4">
@@ -32319,7 +32381,7 @@
       <c r="F507" s="3">
         <v>1845</v>
       </c>
-      <c r="G507">
+      <c r="G507" s="3">
         <v>2767.5</v>
       </c>
       <c r="H507" s="4">
@@ -32354,7 +32416,7 @@
       <c r="F508" s="3">
         <v>4490</v>
       </c>
-      <c r="G508">
+      <c r="G508" s="3">
         <v>6735</v>
       </c>
       <c r="H508" s="4">
@@ -32389,7 +32451,7 @@
       <c r="F509" s="3">
         <v>2305</v>
       </c>
-      <c r="G509">
+      <c r="G509" s="3">
         <v>3457.5</v>
       </c>
       <c r="H509" s="4">
@@ -32424,7 +32486,7 @@
       <c r="F510" s="3">
         <v>3960</v>
       </c>
-      <c r="G510">
+      <c r="G510" s="3">
         <v>5940</v>
       </c>
       <c r="H510" s="4">
@@ -32459,7 +32521,7 @@
       <c r="F511" s="3">
         <v>1805</v>
       </c>
-      <c r="G511">
+      <c r="G511" s="3">
         <v>2707.5</v>
       </c>
       <c r="H511" s="4">
@@ -32494,7 +32556,7 @@
       <c r="F512" s="3">
         <v>2200</v>
       </c>
-      <c r="G512">
+      <c r="G512" s="3">
         <v>3300</v>
       </c>
       <c r="H512" s="4">
@@ -32529,7 +32591,7 @@
       <c r="F513" s="3">
         <v>3635</v>
       </c>
-      <c r="G513">
+      <c r="G513" s="3">
         <v>5452.5</v>
       </c>
       <c r="H513" s="4">
@@ -32564,7 +32626,7 @@
       <c r="F514" s="3">
         <v>2505</v>
       </c>
-      <c r="G514">
+      <c r="G514" s="3">
         <v>3757.5</v>
       </c>
       <c r="H514" s="4">
@@ -32599,7 +32661,7 @@
       <c r="F515" s="3">
         <v>2275</v>
       </c>
-      <c r="G515">
+      <c r="G515" s="3">
         <v>3412.5</v>
       </c>
       <c r="H515" s="4">
@@ -32634,7 +32696,7 @@
       <c r="F516" s="3">
         <v>3200</v>
       </c>
-      <c r="G516">
+      <c r="G516" s="3">
         <v>4800</v>
       </c>
       <c r="H516" s="4">
@@ -32669,7 +32731,7 @@
       <c r="F517" s="3">
         <v>1500</v>
       </c>
-      <c r="G517">
+      <c r="G517" s="3">
         <v>2250</v>
       </c>
       <c r="H517" s="4">
@@ -32704,7 +32766,7 @@
       <c r="F518" s="3">
         <v>1505</v>
       </c>
-      <c r="G518">
+      <c r="G518" s="3">
         <v>2257.5</v>
       </c>
       <c r="H518" s="4">
@@ -32739,7 +32801,7 @@
       <c r="F519" s="3">
         <v>3490</v>
       </c>
-      <c r="G519">
+      <c r="G519" s="3">
         <v>5235</v>
       </c>
       <c r="H519" s="4">
@@ -32774,7 +32836,7 @@
       <c r="F520" s="3">
         <v>2460</v>
       </c>
-      <c r="G520">
+      <c r="G520" s="3">
         <v>3690</v>
       </c>
       <c r="H520" s="4">
@@ -32809,7 +32871,7 @@
       <c r="F521" s="3">
         <v>3705</v>
       </c>
-      <c r="G521">
+      <c r="G521" s="3">
         <v>5557.5</v>
       </c>
       <c r="H521" s="4">
@@ -32844,7 +32906,7 @@
       <c r="F522" s="3">
         <v>2305</v>
       </c>
-      <c r="G522">
+      <c r="G522" s="3">
         <v>3457.5</v>
       </c>
       <c r="H522" s="4">
@@ -32879,7 +32941,7 @@
       <c r="F523" s="3">
         <v>1695</v>
       </c>
-      <c r="G523">
+      <c r="G523" s="3">
         <v>2542.5</v>
       </c>
       <c r="H523" s="4">
@@ -32914,7 +32976,7 @@
       <c r="F524" s="3">
         <v>3760</v>
       </c>
-      <c r="G524">
+      <c r="G524" s="3">
         <v>5640</v>
       </c>
       <c r="H524" s="4">
@@ -32949,7 +33011,7 @@
       <c r="F525" s="3">
         <v>460</v>
       </c>
-      <c r="G525">
+      <c r="G525" s="3">
         <v>690</v>
       </c>
       <c r="H525" s="4">
@@ -32984,7 +33046,7 @@
       <c r="F526" s="3">
         <v>930</v>
       </c>
-      <c r="G526">
+      <c r="G526" s="3">
         <v>1395</v>
       </c>
       <c r="H526" s="4">
@@ -33019,7 +33081,7 @@
       <c r="F527" s="3">
         <v>3595</v>
       </c>
-      <c r="G527">
+      <c r="G527" s="3">
         <v>5392.5</v>
       </c>
       <c r="H527" s="4">
@@ -33054,7 +33116,7 @@
       <c r="F528" s="3">
         <v>1235</v>
       </c>
-      <c r="G528">
+      <c r="G528" s="3">
         <v>1852.5</v>
       </c>
       <c r="H528" s="4">
@@ -33089,7 +33151,7 @@
       <c r="F529" s="3">
         <v>3380</v>
       </c>
-      <c r="G529">
+      <c r="G529" s="3">
         <v>5070</v>
       </c>
       <c r="H529" s="4">
@@ -33124,7 +33186,7 @@
       <c r="F530" s="3">
         <v>2695</v>
       </c>
-      <c r="G530">
+      <c r="G530" s="3">
         <v>4042.5</v>
       </c>
       <c r="H530" s="4">
@@ -33159,7 +33221,7 @@
       <c r="F531" s="3">
         <v>1075</v>
       </c>
-      <c r="G531">
+      <c r="G531" s="3">
         <v>1612.5</v>
       </c>
       <c r="H531" s="4">
@@ -33194,7 +33256,7 @@
       <c r="F532" s="3">
         <v>3360</v>
       </c>
-      <c r="G532">
+      <c r="G532" s="3">
         <v>5040</v>
       </c>
       <c r="H532" s="4">
@@ -33229,7 +33291,7 @@
       <c r="F533" s="3">
         <v>4000</v>
       </c>
-      <c r="G533">
+      <c r="G533" s="3">
         <v>6000</v>
       </c>
       <c r="H533" s="4">
@@ -33264,7 +33326,7 @@
       <c r="F534" s="3">
         <v>1230</v>
       </c>
-      <c r="G534">
+      <c r="G534" s="3">
         <v>1845</v>
       </c>
       <c r="H534" s="4">
@@ -33299,7 +33361,7 @@
       <c r="F535" s="3">
         <v>2530</v>
       </c>
-      <c r="G535">
+      <c r="G535" s="3">
         <v>3795</v>
       </c>
       <c r="H535" s="4">
@@ -33334,7 +33396,7 @@
       <c r="F536" s="3">
         <v>585</v>
       </c>
-      <c r="G536">
+      <c r="G536" s="3">
         <v>877.5</v>
       </c>
       <c r="H536" s="4">
@@ -33369,7 +33431,7 @@
       <c r="F537" s="3">
         <v>730</v>
       </c>
-      <c r="G537">
+      <c r="G537" s="3">
         <v>1095</v>
       </c>
       <c r="H537" s="4">
@@ -33404,7 +33466,7 @@
       <c r="F538" s="3">
         <v>1065</v>
       </c>
-      <c r="G538">
+      <c r="G538" s="3">
         <v>1597.5</v>
       </c>
       <c r="H538" s="4">
@@ -33439,7 +33501,7 @@
       <c r="F539" s="3">
         <v>4670</v>
       </c>
-      <c r="G539">
+      <c r="G539" s="3">
         <v>7005</v>
       </c>
       <c r="H539" s="4">
@@ -33474,7 +33536,7 @@
       <c r="F540" s="3">
         <v>2175</v>
       </c>
-      <c r="G540">
+      <c r="G540" s="3">
         <v>3262.5</v>
       </c>
       <c r="H540" s="4">
@@ -33509,7 +33571,7 @@
       <c r="F541" s="3">
         <v>3115</v>
       </c>
-      <c r="G541">
+      <c r="G541" s="3">
         <v>4672.5</v>
       </c>
       <c r="H541" s="4">
@@ -33544,7 +33606,7 @@
       <c r="F542" s="3">
         <v>1485</v>
       </c>
-      <c r="G542">
+      <c r="G542" s="3">
         <v>2227.5</v>
       </c>
       <c r="H542" s="4">
@@ -33579,7 +33641,7 @@
       <c r="F543" s="3">
         <v>1360</v>
       </c>
-      <c r="G543">
+      <c r="G543" s="3">
         <v>2040</v>
       </c>
       <c r="H543" s="4">
@@ -33614,7 +33676,7 @@
       <c r="F544" s="3">
         <v>500</v>
       </c>
-      <c r="G544">
+      <c r="G544" s="3">
         <v>750</v>
       </c>
       <c r="H544" s="4">
@@ -33649,7 +33711,7 @@
       <c r="F545" s="3">
         <v>835</v>
       </c>
-      <c r="G545">
+      <c r="G545" s="3">
         <v>1252.5</v>
       </c>
       <c r="H545" s="4">
@@ -33684,7 +33746,7 @@
       <c r="F546" s="3">
         <v>2415</v>
       </c>
-      <c r="G546">
+      <c r="G546" s="3">
         <v>3622.5</v>
       </c>
       <c r="H546" s="4">
@@ -33719,7 +33781,7 @@
       <c r="F547" s="3">
         <v>1265</v>
       </c>
-      <c r="G547">
+      <c r="G547" s="3">
         <v>1897.5</v>
       </c>
       <c r="H547" s="4">
@@ -33754,7 +33816,7 @@
       <c r="F548" s="3">
         <v>4055</v>
       </c>
-      <c r="G548">
+      <c r="G548" s="3">
         <v>6082.5</v>
       </c>
       <c r="H548" s="4">
@@ -33789,7 +33851,7 @@
       <c r="F549" s="3">
         <v>3315</v>
       </c>
-      <c r="G549">
+      <c r="G549" s="3">
         <v>4972.5</v>
       </c>
       <c r="H549" s="4">
@@ -33824,7 +33886,7 @@
       <c r="F550" s="3">
         <v>470</v>
       </c>
-      <c r="G550">
+      <c r="G550" s="3">
         <v>705</v>
       </c>
       <c r="H550" s="4">
@@ -33859,7 +33921,7 @@
       <c r="F551" s="3">
         <v>3550</v>
       </c>
-      <c r="G551">
+      <c r="G551" s="3">
         <v>5325</v>
       </c>
       <c r="H551" s="4">
@@ -33894,7 +33956,7 @@
       <c r="F552" s="3">
         <v>3065</v>
       </c>
-      <c r="G552">
+      <c r="G552" s="3">
         <v>4597.5</v>
       </c>
       <c r="H552" s="4">
@@ -33929,7 +33991,7 @@
       <c r="F553" s="3">
         <v>2565</v>
       </c>
-      <c r="G553">
+      <c r="G553" s="3">
         <v>3847.5</v>
       </c>
       <c r="H553" s="4">
@@ -33964,7 +34026,7 @@
       <c r="F554" s="3">
         <v>600</v>
       </c>
-      <c r="G554">
+      <c r="G554" s="3">
         <v>900</v>
       </c>
       <c r="H554" s="4">
@@ -33999,7 +34061,7 @@
       <c r="F555" s="3">
         <v>2490</v>
       </c>
-      <c r="G555">
+      <c r="G555" s="3">
         <v>3735</v>
       </c>
       <c r="H555" s="4">
@@ -34034,7 +34096,7 @@
       <c r="F556" s="3">
         <v>2220</v>
       </c>
-      <c r="G556">
+      <c r="G556" s="3">
         <v>3330</v>
       </c>
       <c r="H556" s="4">
@@ -34069,7 +34131,7 @@
       <c r="F557" s="3">
         <v>4310</v>
       </c>
-      <c r="G557">
+      <c r="G557" s="3">
         <v>6465</v>
       </c>
       <c r="H557" s="4">
@@ -34104,7 +34166,7 @@
       <c r="F558" s="3">
         <v>3030</v>
       </c>
-      <c r="G558">
+      <c r="G558" s="3">
         <v>4545</v>
       </c>
       <c r="H558" s="4">
@@ -34139,7 +34201,7 @@
       <c r="F559" s="3">
         <v>1590</v>
       </c>
-      <c r="G559">
+      <c r="G559" s="3">
         <v>2385</v>
       </c>
       <c r="H559" s="4">
@@ -34174,7 +34236,7 @@
       <c r="F560" s="3">
         <v>3070</v>
       </c>
-      <c r="G560">
+      <c r="G560" s="3">
         <v>4605</v>
       </c>
       <c r="H560" s="4">
@@ -34209,7 +34271,7 @@
       <c r="F561" s="3">
         <v>4160</v>
       </c>
-      <c r="G561">
+      <c r="G561" s="3">
         <v>6240</v>
       </c>
       <c r="H561" s="4">
@@ -34244,7 +34306,7 @@
       <c r="F562" s="3">
         <v>1540</v>
       </c>
-      <c r="G562">
+      <c r="G562" s="3">
         <v>2310</v>
       </c>
       <c r="H562" s="4">
@@ -34279,7 +34341,7 @@
       <c r="F563" s="3">
         <v>4230</v>
       </c>
-      <c r="G563">
+      <c r="G563" s="3">
         <v>6345</v>
       </c>
       <c r="H563" s="4">
@@ -34314,7 +34376,7 @@
       <c r="F564" s="3">
         <v>1095</v>
       </c>
-      <c r="G564">
+      <c r="G564" s="3">
         <v>1642.5</v>
       </c>
       <c r="H564" s="4">
@@ -34349,7 +34411,7 @@
       <c r="F565" s="3">
         <v>3295</v>
       </c>
-      <c r="G565">
+      <c r="G565" s="3">
         <v>4942.5</v>
       </c>
       <c r="H565" s="4">
@@ -34384,7 +34446,7 @@
       <c r="F566" s="3">
         <v>1745</v>
       </c>
-      <c r="G566">
+      <c r="G566" s="3">
         <v>2617.5</v>
       </c>
       <c r="H566" s="4">
@@ -34419,7 +34481,7 @@
       <c r="F567" s="3">
         <v>3785</v>
       </c>
-      <c r="G567">
+      <c r="G567" s="3">
         <v>5677.5</v>
       </c>
       <c r="H567" s="4">
@@ -34454,7 +34516,7 @@
       <c r="F568" s="3">
         <v>775</v>
       </c>
-      <c r="G568">
+      <c r="G568" s="3">
         <v>1162.5</v>
       </c>
       <c r="H568" s="4">
@@ -34489,7 +34551,7 @@
       <c r="F569" s="3">
         <v>4970</v>
       </c>
-      <c r="G569">
+      <c r="G569" s="3">
         <v>7455</v>
       </c>
       <c r="H569" s="4">
@@ -34524,7 +34586,7 @@
       <c r="F570" s="3">
         <v>3005</v>
       </c>
-      <c r="G570">
+      <c r="G570" s="3">
         <v>4507.5</v>
       </c>
       <c r="H570" s="4">
@@ -34559,7 +34621,7 @@
       <c r="F571" s="3">
         <v>1660</v>
       </c>
-      <c r="G571">
+      <c r="G571" s="3">
         <v>2490</v>
       </c>
       <c r="H571" s="4">
@@ -34594,7 +34656,7 @@
       <c r="F572" s="3">
         <v>2250</v>
       </c>
-      <c r="G572">
+      <c r="G572" s="3">
         <v>3375</v>
       </c>
       <c r="H572" s="4">
@@ -34629,7 +34691,7 @@
       <c r="F573" s="3">
         <v>2860</v>
       </c>
-      <c r="G573">
+      <c r="G573" s="3">
         <v>4290</v>
       </c>
       <c r="H573" s="4">
@@ -34664,7 +34726,7 @@
       <c r="F574" s="3">
         <v>2975</v>
       </c>
-      <c r="G574">
+      <c r="G574" s="3">
         <v>4462.5</v>
       </c>
       <c r="H574" s="4">
@@ -34699,7 +34761,7 @@
       <c r="F575" s="3">
         <v>1205</v>
       </c>
-      <c r="G575">
+      <c r="G575" s="3">
         <v>1807.5</v>
       </c>
       <c r="H575" s="4">
@@ -34734,7 +34796,7 @@
       <c r="F576" s="3">
         <v>350</v>
       </c>
-      <c r="G576">
+      <c r="G576" s="3">
         <v>525</v>
       </c>
       <c r="H576" s="4">
@@ -34769,7 +34831,7 @@
       <c r="F577" s="3">
         <v>3855</v>
       </c>
-      <c r="G577">
+      <c r="G577" s="3">
         <v>5782.5</v>
       </c>
       <c r="H577" s="4">
@@ -34804,7 +34866,7 @@
       <c r="F578" s="3">
         <v>3520</v>
       </c>
-      <c r="G578">
+      <c r="G578" s="3">
         <v>5280</v>
       </c>
       <c r="H578" s="4">
@@ -34839,7 +34901,7 @@
       <c r="F579" s="3">
         <v>1085</v>
       </c>
-      <c r="G579">
+      <c r="G579" s="3">
         <v>1627.5</v>
       </c>
       <c r="H579" s="4">
@@ -34874,7 +34936,7 @@
       <c r="F580" s="3">
         <v>1385</v>
       </c>
-      <c r="G580">
+      <c r="G580" s="3">
         <v>2077.5</v>
       </c>
       <c r="H580" s="4">
@@ -34909,7 +34971,7 @@
       <c r="F581" s="3">
         <v>3570</v>
       </c>
-      <c r="G581">
+      <c r="G581" s="3">
         <v>5355</v>
       </c>
       <c r="H581" s="4">
@@ -34944,7 +35006,7 @@
       <c r="F582" s="3">
         <v>2520</v>
       </c>
-      <c r="G582">
+      <c r="G582" s="3">
         <v>3780</v>
       </c>
       <c r="H582" s="4">
@@ -34979,7 +35041,7 @@
       <c r="F583" s="3">
         <v>2030</v>
       </c>
-      <c r="G583">
+      <c r="G583" s="3">
         <v>3045</v>
       </c>
       <c r="H583" s="4">
@@ -35014,7 +35076,7 @@
       <c r="F584" s="3">
         <v>4025</v>
       </c>
-      <c r="G584">
+      <c r="G584" s="3">
         <v>6037.5</v>
       </c>
       <c r="H584" s="4">
@@ -35049,7 +35111,7 @@
       <c r="F585" s="3">
         <v>2565</v>
       </c>
-      <c r="G585">
+      <c r="G585" s="3">
         <v>3847.5</v>
       </c>
       <c r="H585" s="4">
@@ -35084,7 +35146,7 @@
       <c r="F586" s="3">
         <v>475</v>
       </c>
-      <c r="G586">
+      <c r="G586" s="3">
         <v>712.5</v>
       </c>
       <c r="H586" s="4">
@@ -35119,7 +35181,7 @@
       <c r="F587" s="3">
         <v>3810</v>
       </c>
-      <c r="G587">
+      <c r="G587" s="3">
         <v>5715</v>
       </c>
       <c r="H587" s="4">
@@ -35154,7 +35216,7 @@
       <c r="F588" s="3">
         <v>885</v>
       </c>
-      <c r="G588">
+      <c r="G588" s="3">
         <v>1327.5</v>
       </c>
       <c r="H588" s="4">
@@ -35189,7 +35251,7 @@
       <c r="F589" s="3">
         <v>2475</v>
       </c>
-      <c r="G589">
+      <c r="G589" s="3">
         <v>3712.5</v>
       </c>
       <c r="H589" s="4">
@@ -35224,7 +35286,7 @@
       <c r="F590" s="3">
         <v>1875</v>
       </c>
-      <c r="G590">
+      <c r="G590" s="3">
         <v>2812.5</v>
       </c>
       <c r="H590" s="4">
@@ -35259,7 +35321,7 @@
       <c r="F591" s="3">
         <v>290</v>
       </c>
-      <c r="G591">
+      <c r="G591" s="3">
         <v>435</v>
       </c>
       <c r="H591" s="4">
@@ -35294,7 +35356,7 @@
       <c r="F592" s="3">
         <v>4990</v>
       </c>
-      <c r="G592">
+      <c r="G592" s="3">
         <v>7485</v>
       </c>
       <c r="H592" s="4">
@@ -35329,7 +35391,7 @@
       <c r="F593" s="3">
         <v>2815</v>
       </c>
-      <c r="G593">
+      <c r="G593" s="3">
         <v>4222.5</v>
       </c>
       <c r="H593" s="4">
@@ -35364,7 +35426,7 @@
       <c r="F594" s="3">
         <v>3350</v>
       </c>
-      <c r="G594">
+      <c r="G594" s="3">
         <v>5025</v>
       </c>
       <c r="H594" s="4">
@@ -35399,7 +35461,7 @@
       <c r="F595" s="3">
         <v>2120</v>
       </c>
-      <c r="G595">
+      <c r="G595" s="3">
         <v>3180</v>
       </c>
       <c r="H595" s="4">
@@ -35434,7 +35496,7 @@
       <c r="F596" s="3">
         <v>1065</v>
       </c>
-      <c r="G596">
+      <c r="G596" s="3">
         <v>1597.5</v>
       </c>
       <c r="H596" s="4">
@@ -35469,7 +35531,7 @@
       <c r="F597" s="3">
         <v>4800</v>
       </c>
-      <c r="G597">
+      <c r="G597" s="3">
         <v>7200</v>
       </c>
       <c r="H597" s="4">
@@ -35504,7 +35566,7 @@
       <c r="F598" s="3">
         <v>2640</v>
       </c>
-      <c r="G598">
+      <c r="G598" s="3">
         <v>3960</v>
       </c>
       <c r="H598" s="4">
@@ -35539,7 +35601,7 @@
       <c r="F599" s="3">
         <v>4805</v>
       </c>
-      <c r="G599">
+      <c r="G599" s="3">
         <v>7207.5</v>
       </c>
       <c r="H599" s="4">
@@ -35574,7 +35636,7 @@
       <c r="F600" s="3">
         <v>840</v>
       </c>
-      <c r="G600">
+      <c r="G600" s="3">
         <v>1260</v>
       </c>
       <c r="H600" s="4">
@@ -35609,7 +35671,7 @@
       <c r="F601" s="3">
         <v>710</v>
       </c>
-      <c r="G601">
+      <c r="G601" s="3">
         <v>1065</v>
       </c>
       <c r="H601" s="4">
@@ -35644,7 +35706,7 @@
       <c r="F602" s="3">
         <v>4545</v>
       </c>
-      <c r="G602">
+      <c r="G602" s="3">
         <v>6817.5</v>
       </c>
       <c r="H602" s="4">
@@ -35679,7 +35741,7 @@
       <c r="F603" s="3">
         <v>2785</v>
       </c>
-      <c r="G603">
+      <c r="G603" s="3">
         <v>4177.5</v>
       </c>
       <c r="H603" s="4">
@@ -35714,7 +35776,7 @@
       <c r="F604" s="3">
         <v>840</v>
       </c>
-      <c r="G604">
+      <c r="G604" s="3">
         <v>1260</v>
       </c>
       <c r="H604" s="4">
@@ -35749,7 +35811,7 @@
       <c r="F605" s="3">
         <v>3775</v>
       </c>
-      <c r="G605">
+      <c r="G605" s="3">
         <v>5662.5</v>
       </c>
       <c r="H605" s="4">
@@ -35784,7 +35846,7 @@
       <c r="F606" s="3">
         <v>2280</v>
       </c>
-      <c r="G606">
+      <c r="G606" s="3">
         <v>3420</v>
       </c>
       <c r="H606" s="4">
@@ -35819,7 +35881,7 @@
       <c r="F607" s="3">
         <v>4950</v>
       </c>
-      <c r="G607">
+      <c r="G607" s="3">
         <v>7425</v>
       </c>
       <c r="H607" s="4">
@@ -35854,7 +35916,7 @@
       <c r="F608" s="3">
         <v>2170</v>
       </c>
-      <c r="G608">
+      <c r="G608" s="3">
         <v>3255</v>
       </c>
       <c r="H608" s="4">
@@ -35889,7 +35951,7 @@
       <c r="F609" s="3">
         <v>2240</v>
       </c>
-      <c r="G609">
+      <c r="G609" s="3">
         <v>3360</v>
       </c>
       <c r="H609" s="4">
@@ -35924,7 +35986,7 @@
       <c r="F610" s="3">
         <v>3680</v>
       </c>
-      <c r="G610">
+      <c r="G610" s="3">
         <v>5520</v>
       </c>
       <c r="H610" s="4">
@@ -35959,7 +36021,7 @@
       <c r="F611" s="3">
         <v>1490</v>
       </c>
-      <c r="G611">
+      <c r="G611" s="3">
         <v>2235</v>
       </c>
       <c r="H611" s="4">
@@ -35994,7 +36056,7 @@
       <c r="F612" s="3">
         <v>4110</v>
       </c>
-      <c r="G612">
+      <c r="G612" s="3">
         <v>6165</v>
       </c>
       <c r="H612" s="4">
@@ -36029,7 +36091,7 @@
       <c r="F613" s="3">
         <v>2510</v>
       </c>
-      <c r="G613">
+      <c r="G613" s="3">
         <v>3765</v>
       </c>
       <c r="H613" s="4">
@@ -36064,7 +36126,7 @@
       <c r="F614" s="3">
         <v>2690</v>
       </c>
-      <c r="G614">
+      <c r="G614" s="3">
         <v>4035</v>
       </c>
       <c r="H614" s="4">
@@ -36099,7 +36161,7 @@
       <c r="F615" s="3">
         <v>1365</v>
       </c>
-      <c r="G615">
+      <c r="G615" s="3">
         <v>2047.5</v>
       </c>
       <c r="H615" s="4">
@@ -36134,7 +36196,7 @@
       <c r="F616" s="3">
         <v>2055</v>
       </c>
-      <c r="G616">
+      <c r="G616" s="3">
         <v>3082.5</v>
       </c>
       <c r="H616" s="4">
@@ -36169,7 +36231,7 @@
       <c r="F617" s="3">
         <v>4945</v>
       </c>
-      <c r="G617">
+      <c r="G617" s="3">
         <v>7417.5</v>
       </c>
       <c r="H617" s="4">
@@ -36204,7 +36266,7 @@
       <c r="F618" s="3">
         <v>525</v>
       </c>
-      <c r="G618">
+      <c r="G618" s="3">
         <v>787.5</v>
       </c>
       <c r="H618" s="4">
@@ -36239,7 +36301,7 @@
       <c r="F619" s="3">
         <v>3205</v>
       </c>
-      <c r="G619">
+      <c r="G619" s="3">
         <v>4807.5</v>
       </c>
       <c r="H619" s="4">
@@ -36274,7 +36336,7 @@
       <c r="F620" s="3">
         <v>2685</v>
       </c>
-      <c r="G620">
+      <c r="G620" s="3">
         <v>4027.5</v>
       </c>
       <c r="H620" s="4">
@@ -36309,7 +36371,7 @@
       <c r="F621" s="3">
         <v>450</v>
       </c>
-      <c r="G621">
+      <c r="G621" s="3">
         <v>675</v>
       </c>
       <c r="H621" s="4">
@@ -36344,7 +36406,7 @@
       <c r="F622" s="3">
         <v>400</v>
       </c>
-      <c r="G622">
+      <c r="G622" s="3">
         <v>600</v>
       </c>
       <c r="H622" s="4">
@@ -36379,7 +36441,7 @@
       <c r="F623" s="3">
         <v>3510</v>
       </c>
-      <c r="G623">
+      <c r="G623" s="3">
         <v>5265</v>
       </c>
       <c r="H623" s="4">
@@ -36414,7 +36476,7 @@
       <c r="F624" s="3">
         <v>3210</v>
       </c>
-      <c r="G624">
+      <c r="G624" s="3">
         <v>4815</v>
       </c>
       <c r="H624" s="4">
@@ -36449,7 +36511,7 @@
       <c r="F625" s="3">
         <v>795</v>
       </c>
-      <c r="G625">
+      <c r="G625" s="3">
         <v>1192.5</v>
       </c>
       <c r="H625" s="4">
@@ -36484,7 +36546,7 @@
       <c r="F626" s="3">
         <v>3880</v>
       </c>
-      <c r="G626">
+      <c r="G626" s="3">
         <v>5820</v>
       </c>
       <c r="H626" s="4">
@@ -36519,7 +36581,7 @@
       <c r="F627" s="3">
         <v>4760</v>
       </c>
-      <c r="G627">
+      <c r="G627" s="3">
         <v>7140</v>
       </c>
       <c r="H627" s="4">
@@ -36554,7 +36616,7 @@
       <c r="F628" s="3">
         <v>1260</v>
       </c>
-      <c r="G628">
+      <c r="G628" s="3">
         <v>1890</v>
       </c>
       <c r="H628" s="4">
@@ -36589,7 +36651,7 @@
       <c r="F629" s="3">
         <v>1030</v>
       </c>
-      <c r="G629">
+      <c r="G629" s="3">
         <v>1545</v>
       </c>
       <c r="H629" s="4">
@@ -36624,7 +36686,7 @@
       <c r="F630" s="3">
         <v>1125</v>
       </c>
-      <c r="G630">
+      <c r="G630" s="3">
         <v>1687.5</v>
       </c>
       <c r="H630" s="4">
@@ -36659,7 +36721,7 @@
       <c r="F631" s="3">
         <v>800</v>
       </c>
-      <c r="G631">
+      <c r="G631" s="3">
         <v>1200</v>
       </c>
       <c r="H631" s="4">
@@ -36694,7 +36756,7 @@
       <c r="F632" s="3">
         <v>3565</v>
       </c>
-      <c r="G632">
+      <c r="G632" s="3">
         <v>5347.5</v>
       </c>
       <c r="H632" s="4">
@@ -36729,7 +36791,7 @@
       <c r="F633" s="3">
         <v>4400</v>
       </c>
-      <c r="G633">
+      <c r="G633" s="3">
         <v>6600</v>
       </c>
       <c r="H633" s="4">
@@ -36764,7 +36826,7 @@
       <c r="F634" s="3">
         <v>3440</v>
       </c>
-      <c r="G634">
+      <c r="G634" s="3">
         <v>5160</v>
       </c>
       <c r="H634" s="4">
@@ -36799,7 +36861,7 @@
       <c r="F635" s="3">
         <v>4155</v>
       </c>
-      <c r="G635">
+      <c r="G635" s="3">
         <v>6232.5</v>
       </c>
       <c r="H635" s="4">
@@ -36834,7 +36896,7 @@
       <c r="F636" s="3">
         <v>2750</v>
       </c>
-      <c r="G636">
+      <c r="G636" s="3">
         <v>4125</v>
       </c>
       <c r="H636" s="4">
@@ -36869,7 +36931,7 @@
       <c r="F637" s="3">
         <v>2830</v>
       </c>
-      <c r="G637">
+      <c r="G637" s="3">
         <v>4245</v>
       </c>
       <c r="H637" s="4">
@@ -36904,7 +36966,7 @@
       <c r="F638" s="3">
         <v>4960</v>
       </c>
-      <c r="G638">
+      <c r="G638" s="3">
         <v>7440</v>
       </c>
       <c r="H638" s="4">
@@ -36939,7 +37001,7 @@
       <c r="F639" s="3">
         <v>715</v>
       </c>
-      <c r="G639">
+      <c r="G639" s="3">
         <v>1072.5</v>
       </c>
       <c r="H639" s="4">
@@ -36974,7 +37036,7 @@
       <c r="F640" s="3">
         <v>3725</v>
       </c>
-      <c r="G640">
+      <c r="G640" s="3">
         <v>5587.5</v>
       </c>
       <c r="H640" s="4">
@@ -37009,7 +37071,7 @@
       <c r="F641" s="3">
         <v>2975</v>
       </c>
-      <c r="G641">
+      <c r="G641" s="3">
         <v>4462.5</v>
       </c>
       <c r="H641" s="4">
@@ -37044,7 +37106,7 @@
       <c r="F642" s="3">
         <v>870</v>
       </c>
-      <c r="G642">
+      <c r="G642" s="3">
         <v>1305</v>
       </c>
       <c r="H642" s="4">
@@ -37079,7 +37141,7 @@
       <c r="F643" s="3">
         <v>4985</v>
       </c>
-      <c r="G643">
+      <c r="G643" s="3">
         <v>7477.5</v>
       </c>
       <c r="H643" s="4">
@@ -37114,7 +37176,7 @@
       <c r="F644" s="3">
         <v>4855</v>
       </c>
-      <c r="G644">
+      <c r="G644" s="3">
         <v>7282.5</v>
       </c>
       <c r="H644" s="4">
@@ -37149,7 +37211,7 @@
       <c r="F645" s="3">
         <v>1030</v>
       </c>
-      <c r="G645">
+      <c r="G645" s="3">
         <v>1545</v>
       </c>
       <c r="H645" s="4">
@@ -37184,7 +37246,7 @@
       <c r="F646" s="3">
         <v>3365</v>
       </c>
-      <c r="G646">
+      <c r="G646" s="3">
         <v>5047.5</v>
       </c>
       <c r="H646" s="4">
@@ -37219,7 +37281,7 @@
       <c r="F647" s="3">
         <v>2705</v>
       </c>
-      <c r="G647">
+      <c r="G647" s="3">
         <v>4057.5</v>
       </c>
       <c r="H647" s="4">
@@ -37254,7 +37316,7 @@
       <c r="F648" s="3">
         <v>1185</v>
       </c>
-      <c r="G648">
+      <c r="G648" s="3">
         <v>1777.5</v>
       </c>
       <c r="H648" s="4">
@@ -37289,7 +37351,7 @@
       <c r="F649" s="3">
         <v>4955</v>
       </c>
-      <c r="G649">
+      <c r="G649" s="3">
         <v>7432.5</v>
       </c>
       <c r="H649" s="4">
@@ -37324,7 +37386,7 @@
       <c r="F650" s="3">
         <v>3615</v>
       </c>
-      <c r="G650">
+      <c r="G650" s="3">
         <v>5422.5</v>
       </c>
       <c r="H650" s="4">
@@ -37359,7 +37421,7 @@
       <c r="F651" s="3">
         <v>1165</v>
       </c>
-      <c r="G651">
+      <c r="G651" s="3">
         <v>1747.5</v>
       </c>
       <c r="H651" s="4">
@@ -37394,7 +37456,7 @@
       <c r="F652" s="3">
         <v>2370</v>
       </c>
-      <c r="G652">
+      <c r="G652" s="3">
         <v>3555</v>
       </c>
       <c r="H652" s="4">
@@ -37429,7 +37491,7 @@
       <c r="F653" s="3">
         <v>1200</v>
       </c>
-      <c r="G653">
+      <c r="G653" s="3">
         <v>1800</v>
       </c>
       <c r="H653" s="4">
@@ -37464,7 +37526,7 @@
       <c r="F654" s="3">
         <v>420</v>
       </c>
-      <c r="G654">
+      <c r="G654" s="3">
         <v>630</v>
       </c>
       <c r="H654" s="4">
@@ -37499,7 +37561,7 @@
       <c r="F655" s="3">
         <v>4980</v>
       </c>
-      <c r="G655">
+      <c r="G655" s="3">
         <v>7470</v>
       </c>
       <c r="H655" s="4">
@@ -37534,7 +37596,7 @@
       <c r="F656" s="3">
         <v>4805</v>
       </c>
-      <c r="G656">
+      <c r="G656" s="3">
         <v>7207.5</v>
       </c>
       <c r="H656" s="4">
@@ -37569,7 +37631,7 @@
       <c r="F657" s="3">
         <v>2890</v>
       </c>
-      <c r="G657">
+      <c r="G657" s="3">
         <v>4335</v>
       </c>
       <c r="H657" s="4">
@@ -37604,7 +37666,7 @@
       <c r="F658" s="3">
         <v>1020</v>
       </c>
-      <c r="G658">
+      <c r="G658" s="3">
         <v>1530</v>
       </c>
       <c r="H658" s="4">
@@ -37639,7 +37701,7 @@
       <c r="F659" s="3">
         <v>1085</v>
       </c>
-      <c r="G659">
+      <c r="G659" s="3">
         <v>1627.5</v>
       </c>
       <c r="H659" s="4">
@@ -37674,7 +37736,7 @@
       <c r="F660" s="3">
         <v>3235</v>
       </c>
-      <c r="G660">
+      <c r="G660" s="3">
         <v>4852.5</v>
       </c>
       <c r="H660" s="4">
@@ -37709,7 +37771,7 @@
       <c r="F661" s="3">
         <v>2620</v>
       </c>
-      <c r="G661">
+      <c r="G661" s="3">
         <v>3930</v>
       </c>
       <c r="H661" s="4">
@@ -37744,7 +37806,7 @@
       <c r="F662" s="3">
         <v>2430</v>
       </c>
-      <c r="G662">
+      <c r="G662" s="3">
         <v>3645</v>
       </c>
       <c r="H662" s="4">
@@ -37779,7 +37841,7 @@
       <c r="F663" s="3">
         <v>4275</v>
       </c>
-      <c r="G663">
+      <c r="G663" s="3">
         <v>6412.5</v>
       </c>
       <c r="H663" s="4">
@@ -37814,7 +37876,7 @@
       <c r="F664" s="3">
         <v>920</v>
       </c>
-      <c r="G664">
+      <c r="G664" s="3">
         <v>1380</v>
       </c>
       <c r="H664" s="4">
@@ -37849,7 +37911,7 @@
       <c r="F665" s="3">
         <v>1175</v>
       </c>
-      <c r="G665">
+      <c r="G665" s="3">
         <v>1762.5</v>
       </c>
       <c r="H665" s="4">
@@ -37884,7 +37946,7 @@
       <c r="F666" s="3">
         <v>4290</v>
       </c>
-      <c r="G666">
+      <c r="G666" s="3">
         <v>6435</v>
       </c>
       <c r="H666" s="4">
@@ -37919,7 +37981,7 @@
       <c r="F667" s="3">
         <v>4295</v>
       </c>
-      <c r="G667">
+      <c r="G667" s="3">
         <v>6442.5</v>
       </c>
       <c r="H667" s="4">
@@ -37954,7 +38016,7 @@
       <c r="F668" s="3">
         <v>3405</v>
       </c>
-      <c r="G668">
+      <c r="G668" s="3">
         <v>5107.5</v>
       </c>
       <c r="H668" s="4">
@@ -37989,7 +38051,7 @@
       <c r="F669" s="3">
         <v>3035</v>
       </c>
-      <c r="G669">
+      <c r="G669" s="3">
         <v>4552.5</v>
       </c>
       <c r="H669" s="4">
@@ -38024,7 +38086,7 @@
       <c r="F670" s="3">
         <v>2850</v>
       </c>
-      <c r="G670">
+      <c r="G670" s="3">
         <v>4275</v>
       </c>
       <c r="H670" s="4">
@@ -38059,7 +38121,7 @@
       <c r="F671" s="3">
         <v>2800</v>
       </c>
-      <c r="G671">
+      <c r="G671" s="3">
         <v>4200</v>
       </c>
       <c r="H671" s="4">
@@ -38094,7 +38156,7 @@
       <c r="F672" s="3">
         <v>2265</v>
       </c>
-      <c r="G672">
+      <c r="G672" s="3">
         <v>3397.5</v>
       </c>
       <c r="H672" s="4">
@@ -38129,7 +38191,7 @@
       <c r="F673" s="3">
         <v>1855</v>
       </c>
-      <c r="G673">
+      <c r="G673" s="3">
         <v>2782.5</v>
       </c>
       <c r="H673" s="4">
@@ -38164,7 +38226,7 @@
       <c r="F674" s="3">
         <v>3205</v>
       </c>
-      <c r="G674">
+      <c r="G674" s="3">
         <v>4807.5</v>
       </c>
       <c r="H674" s="4">
@@ -38199,7 +38261,7 @@
       <c r="F675" s="3">
         <v>1790</v>
       </c>
-      <c r="G675">
+      <c r="G675" s="3">
         <v>2685</v>
       </c>
       <c r="H675" s="4">
@@ -38234,7 +38296,7 @@
       <c r="F676" s="3">
         <v>3525</v>
       </c>
-      <c r="G676">
+      <c r="G676" s="3">
         <v>5287.5</v>
       </c>
       <c r="H676" s="4">
@@ -38269,7 +38331,7 @@
       <c r="F677" s="3">
         <v>665</v>
       </c>
-      <c r="G677">
+      <c r="G677" s="3">
         <v>997.5</v>
       </c>
       <c r="H677" s="4">
@@ -38304,7 +38366,7 @@
       <c r="F678" s="3">
         <v>4635</v>
       </c>
-      <c r="G678">
+      <c r="G678" s="3">
         <v>6952.5</v>
       </c>
       <c r="H678" s="4">
@@ -38339,7 +38401,7 @@
       <c r="F679" s="3">
         <v>660</v>
       </c>
-      <c r="G679">
+      <c r="G679" s="3">
         <v>990</v>
       </c>
       <c r="H679" s="4">
@@ -38374,7 +38436,7 @@
       <c r="F680" s="3">
         <v>2545</v>
       </c>
-      <c r="G680">
+      <c r="G680" s="3">
         <v>3817.5</v>
       </c>
       <c r="H680" s="4">
@@ -38409,7 +38471,7 @@
       <c r="F681" s="3">
         <v>4885</v>
       </c>
-      <c r="G681">
+      <c r="G681" s="3">
         <v>7327.5</v>
       </c>
       <c r="H681" s="4">
@@ -38444,7 +38506,7 @@
       <c r="F682" s="3">
         <v>1590</v>
       </c>
-      <c r="G682">
+      <c r="G682" s="3">
         <v>2385</v>
       </c>
       <c r="H682" s="4">
@@ -38479,7 +38541,7 @@
       <c r="F683" s="3">
         <v>3980</v>
       </c>
-      <c r="G683">
+      <c r="G683" s="3">
         <v>5970</v>
       </c>
       <c r="H683" s="4">
@@ -38514,7 +38576,7 @@
       <c r="F684" s="3">
         <v>925</v>
       </c>
-      <c r="G684">
+      <c r="G684" s="3">
         <v>1387.5</v>
       </c>
       <c r="H684" s="4">
@@ -38549,7 +38611,7 @@
       <c r="F685" s="3">
         <v>3475</v>
       </c>
-      <c r="G685">
+      <c r="G685" s="3">
         <v>5212.5</v>
       </c>
       <c r="H685" s="4">
@@ -38584,7 +38646,7 @@
       <c r="F686" s="3">
         <v>4955</v>
       </c>
-      <c r="G686">
+      <c r="G686" s="3">
         <v>7432.5</v>
       </c>
       <c r="H686" s="4">
@@ -38619,7 +38681,7 @@
       <c r="F687" s="3">
         <v>465</v>
       </c>
-      <c r="G687">
+      <c r="G687" s="3">
         <v>697.5</v>
       </c>
       <c r="H687" s="4">
@@ -38654,7 +38716,7 @@
       <c r="F688" s="3">
         <v>980</v>
       </c>
-      <c r="G688">
+      <c r="G688" s="3">
         <v>1470</v>
       </c>
       <c r="H688" s="4">
@@ -38689,7 +38751,7 @@
       <c r="F689" s="3">
         <v>685</v>
       </c>
-      <c r="G689">
+      <c r="G689" s="3">
         <v>1027.5</v>
       </c>
       <c r="H689" s="4">
@@ -38724,7 +38786,7 @@
       <c r="F690" s="3">
         <v>4000</v>
       </c>
-      <c r="G690">
+      <c r="G690" s="3">
         <v>6000</v>
       </c>
       <c r="H690" s="4">
@@ -38759,7 +38821,7 @@
       <c r="F691" s="3">
         <v>3675</v>
       </c>
-      <c r="G691">
+      <c r="G691" s="3">
         <v>5512.5</v>
       </c>
       <c r="H691" s="4">
@@ -38794,7 +38856,7 @@
       <c r="F692" s="3">
         <v>490</v>
       </c>
-      <c r="G692">
+      <c r="G692" s="3">
         <v>735</v>
       </c>
       <c r="H692" s="4">
@@ -38829,7 +38891,7 @@
       <c r="F693" s="3">
         <v>3440</v>
       </c>
-      <c r="G693">
+      <c r="G693" s="3">
         <v>5160</v>
       </c>
       <c r="H693" s="4">
@@ -38864,7 +38926,7 @@
       <c r="F694" s="3">
         <v>1635</v>
       </c>
-      <c r="G694">
+      <c r="G694" s="3">
         <v>2452.5</v>
       </c>
       <c r="H694" s="4">
@@ -38899,7 +38961,7 @@
       <c r="F695" s="3">
         <v>4560</v>
       </c>
-      <c r="G695">
+      <c r="G695" s="3">
         <v>6840</v>
       </c>
       <c r="H695" s="4">
@@ -38934,7 +38996,7 @@
       <c r="F696" s="3">
         <v>4830</v>
       </c>
-      <c r="G696">
+      <c r="G696" s="3">
         <v>7245</v>
       </c>
       <c r="H696" s="4">
@@ -38969,7 +39031,7 @@
       <c r="F697" s="3">
         <v>900</v>
       </c>
-      <c r="G697">
+      <c r="G697" s="3">
         <v>1350</v>
       </c>
       <c r="H697" s="4">
@@ -39004,7 +39066,7 @@
       <c r="F698" s="3">
         <v>4495</v>
       </c>
-      <c r="G698">
+      <c r="G698" s="3">
         <v>6742.5</v>
       </c>
       <c r="H698" s="4">
@@ -39039,7 +39101,7 @@
       <c r="F699" s="3">
         <v>1650</v>
       </c>
-      <c r="G699">
+      <c r="G699" s="3">
         <v>2475</v>
       </c>
       <c r="H699" s="4">
@@ -39074,7 +39136,7 @@
       <c r="F700" s="3">
         <v>2415</v>
       </c>
-      <c r="G700">
+      <c r="G700" s="3">
         <v>3622.5</v>
       </c>
       <c r="H700" s="4">
@@ -39109,7 +39171,7 @@
       <c r="F701" s="3">
         <v>1495</v>
       </c>
-      <c r="G701">
+      <c r="G701" s="3">
         <v>2242.5</v>
       </c>
       <c r="H701" s="4">
@@ -39144,7 +39206,7 @@
       <c r="F702" s="3">
         <v>4930</v>
       </c>
-      <c r="G702">
+      <c r="G702" s="3">
         <v>7395</v>
       </c>
       <c r="H702" s="4">
@@ -39179,7 +39241,7 @@
       <c r="F703" s="3">
         <v>2755</v>
       </c>
-      <c r="G703">
+      <c r="G703" s="3">
         <v>4132.5</v>
       </c>
       <c r="H703" s="4">
@@ -39214,7 +39276,7 @@
       <c r="F704" s="3">
         <v>575</v>
       </c>
-      <c r="G704">
+      <c r="G704" s="3">
         <v>862.5</v>
       </c>
       <c r="H704" s="4">
@@ -39249,7 +39311,7 @@
       <c r="F705" s="3">
         <v>1890</v>
       </c>
-      <c r="G705">
+      <c r="G705" s="3">
         <v>2835</v>
       </c>
       <c r="H705" s="4">
@@ -39284,7 +39346,7 @@
       <c r="F706" s="3">
         <v>2510</v>
       </c>
-      <c r="G706">
+      <c r="G706" s="3">
         <v>3765</v>
       </c>
       <c r="H706" s="4">
@@ -39319,7 +39381,7 @@
       <c r="F707" s="3">
         <v>705</v>
       </c>
-      <c r="G707">
+      <c r="G707" s="3">
         <v>1057.5</v>
       </c>
       <c r="H707" s="4">
@@ -39354,7 +39416,7 @@
       <c r="F708" s="3">
         <v>4180</v>
       </c>
-      <c r="G708">
+      <c r="G708" s="3">
         <v>6270</v>
       </c>
       <c r="H708" s="4">
@@ -39389,7 +39451,7 @@
       <c r="F709" s="3">
         <v>3880</v>
       </c>
-      <c r="G709">
+      <c r="G709" s="3">
         <v>5820</v>
       </c>
       <c r="H709" s="4">
@@ -39424,7 +39486,7 @@
       <c r="F710" s="3">
         <v>4760</v>
       </c>
-      <c r="G710">
+      <c r="G710" s="3">
         <v>7140</v>
       </c>
       <c r="H710" s="4">
@@ -39459,7 +39521,7 @@
       <c r="F711" s="3">
         <v>570</v>
       </c>
-      <c r="G711">
+      <c r="G711" s="3">
         <v>855</v>
       </c>
       <c r="H711" s="4">
@@ -39494,7 +39556,7 @@
       <c r="F712" s="3">
         <v>3025</v>
       </c>
-      <c r="G712">
+      <c r="G712" s="3">
         <v>4537.5</v>
       </c>
       <c r="H712" s="4">
@@ -39529,7 +39591,7 @@
       <c r="F713" s="3">
         <v>3370</v>
       </c>
-      <c r="G713">
+      <c r="G713" s="3">
         <v>5055</v>
       </c>
       <c r="H713" s="4">
@@ -39564,7 +39626,7 @@
       <c r="F714" s="3">
         <v>1300</v>
       </c>
-      <c r="G714">
+      <c r="G714" s="3">
         <v>1950</v>
       </c>
       <c r="H714" s="4">
@@ -39599,7 +39661,7 @@
       <c r="F715" s="3">
         <v>2865</v>
       </c>
-      <c r="G715">
+      <c r="G715" s="3">
         <v>4297.5</v>
       </c>
       <c r="H715" s="4">
@@ -39634,7 +39696,7 @@
       <c r="F716" s="3">
         <v>1595</v>
       </c>
-      <c r="G716">
+      <c r="G716" s="3">
         <v>2392.5</v>
       </c>
       <c r="H716" s="4">
@@ -39669,7 +39731,7 @@
       <c r="F717" s="3">
         <v>1130</v>
       </c>
-      <c r="G717">
+      <c r="G717" s="3">
         <v>1695</v>
       </c>
       <c r="H717" s="4">
@@ -39704,7 +39766,7 @@
       <c r="F718" s="3">
         <v>2920</v>
       </c>
-      <c r="G718">
+      <c r="G718" s="3">
         <v>4380</v>
       </c>
       <c r="H718" s="4">
@@ -39739,7 +39801,7 @@
       <c r="F719" s="3">
         <v>2060</v>
       </c>
-      <c r="G719">
+      <c r="G719" s="3">
         <v>3090</v>
       </c>
       <c r="H719" s="4">
@@ -39774,7 +39836,7 @@
       <c r="F720" s="3">
         <v>3855</v>
       </c>
-      <c r="G720">
+      <c r="G720" s="3">
         <v>5782.5</v>
       </c>
       <c r="H720" s="4">
@@ -39809,7 +39871,7 @@
       <c r="F721" s="3">
         <v>2550</v>
       </c>
-      <c r="G721">
+      <c r="G721" s="3">
         <v>3825</v>
       </c>
       <c r="H721" s="4">
@@ -39844,7 +39906,7 @@
       <c r="F722" s="3">
         <v>875</v>
       </c>
-      <c r="G722">
+      <c r="G722" s="3">
         <v>1312.5</v>
       </c>
       <c r="H722" s="4">
@@ -39879,7 +39941,7 @@
       <c r="F723" s="3">
         <v>3725</v>
       </c>
-      <c r="G723">
+      <c r="G723" s="3">
         <v>5587.5</v>
       </c>
       <c r="H723" s="4">
@@ -39914,7 +39976,7 @@
       <c r="F724" s="3">
         <v>1680</v>
       </c>
-      <c r="G724">
+      <c r="G724" s="3">
         <v>2520</v>
       </c>
       <c r="H724" s="4">
@@ -39949,7 +40011,7 @@
       <c r="F725" s="3">
         <v>345</v>
       </c>
-      <c r="G725">
+      <c r="G725" s="3">
         <v>517.5</v>
       </c>
       <c r="H725" s="4">
@@ -39984,7 +40046,7 @@
       <c r="F726" s="3">
         <v>3480</v>
       </c>
-      <c r="G726">
+      <c r="G726" s="3">
         <v>5220</v>
       </c>
       <c r="H726" s="4">
@@ -40019,7 +40081,7 @@
       <c r="F727" s="3">
         <v>3400</v>
       </c>
-      <c r="G727">
+      <c r="G727" s="3">
         <v>5100</v>
       </c>
       <c r="H727" s="4">
@@ -40054,7 +40116,7 @@
       <c r="F728" s="3">
         <v>405</v>
       </c>
-      <c r="G728">
+      <c r="G728" s="3">
         <v>607.5</v>
       </c>
       <c r="H728" s="4">
@@ -40089,7 +40151,7 @@
       <c r="F729" s="3">
         <v>2985</v>
       </c>
-      <c r="G729">
+      <c r="G729" s="3">
         <v>4477.5</v>
       </c>
       <c r="H729" s="4">
@@ -40124,7 +40186,7 @@
       <c r="F730" s="3">
         <v>1800</v>
       </c>
-      <c r="G730">
+      <c r="G730" s="3">
         <v>2700</v>
       </c>
       <c r="H730" s="4">
@@ -40159,7 +40221,7 @@
       <c r="F731" s="3">
         <v>1900</v>
       </c>
-      <c r="G731">
+      <c r="G731" s="3">
         <v>2850</v>
       </c>
       <c r="H731" s="4">
@@ -40194,7 +40256,7 @@
       <c r="F732" s="3">
         <v>2320</v>
       </c>
-      <c r="G732">
+      <c r="G732" s="3">
         <v>3480</v>
       </c>
       <c r="H732" s="4">
@@ -40229,7 +40291,7 @@
       <c r="F733" s="3">
         <v>4995</v>
       </c>
-      <c r="G733">
+      <c r="G733" s="3">
         <v>7492.5</v>
       </c>
       <c r="H733" s="4">
@@ -40264,7 +40326,7 @@
       <c r="F734" s="3">
         <v>3360</v>
       </c>
-      <c r="G734">
+      <c r="G734" s="3">
         <v>5040</v>
       </c>
       <c r="H734" s="4">
@@ -40299,7 +40361,7 @@
       <c r="F735" s="3">
         <v>590</v>
       </c>
-      <c r="G735">
+      <c r="G735" s="3">
         <v>885</v>
       </c>
       <c r="H735" s="4">
@@ -40334,7 +40396,7 @@
       <c r="F736" s="3">
         <v>1080</v>
       </c>
-      <c r="G736">
+      <c r="G736" s="3">
         <v>1620</v>
       </c>
       <c r="H736" s="4">
@@ -40369,7 +40431,7 @@
       <c r="F737" s="3">
         <v>2900</v>
       </c>
-      <c r="G737">
+      <c r="G737" s="3">
         <v>4350</v>
       </c>
       <c r="H737" s="4">
@@ -40404,7 +40466,7 @@
       <c r="F738" s="3">
         <v>1965</v>
       </c>
-      <c r="G738">
+      <c r="G738" s="3">
         <v>2947.5</v>
       </c>
       <c r="H738" s="4">
@@ -40439,7 +40501,7 @@
       <c r="F739" s="3">
         <v>2630</v>
       </c>
-      <c r="G739">
+      <c r="G739" s="3">
         <v>3945</v>
       </c>
       <c r="H739" s="4">
@@ -40474,7 +40536,7 @@
       <c r="F740" s="3">
         <v>1305</v>
       </c>
-      <c r="G740">
+      <c r="G740" s="3">
         <v>1957.5</v>
       </c>
       <c r="H740" s="4">
@@ -40509,7 +40571,7 @@
       <c r="F741" s="3">
         <v>3780</v>
       </c>
-      <c r="G741">
+      <c r="G741" s="3">
         <v>5670</v>
       </c>
       <c r="H741" s="4">
@@ -40544,7 +40606,7 @@
       <c r="F742" s="3">
         <v>1760</v>
       </c>
-      <c r="G742">
+      <c r="G742" s="3">
         <v>2640</v>
       </c>
       <c r="H742" s="4">
@@ -40579,7 +40641,7 @@
       <c r="F743" s="3">
         <v>1745</v>
       </c>
-      <c r="G743">
+      <c r="G743" s="3">
         <v>2617.5</v>
       </c>
       <c r="H743" s="4">
@@ -40614,7 +40676,7 @@
       <c r="F744" s="3">
         <v>2855</v>
       </c>
-      <c r="G744">
+      <c r="G744" s="3">
         <v>4282.5</v>
       </c>
       <c r="H744" s="4">
@@ -40649,7 +40711,7 @@
       <c r="F745" s="3">
         <v>4435</v>
       </c>
-      <c r="G745">
+      <c r="G745" s="3">
         <v>6652.5</v>
       </c>
       <c r="H745" s="4">
@@ -40684,7 +40746,7 @@
       <c r="F746" s="3">
         <v>2045</v>
       </c>
-      <c r="G746">
+      <c r="G746" s="3">
         <v>3067.5</v>
       </c>
       <c r="H746" s="4">
@@ -40719,7 +40781,7 @@
       <c r="F747" s="3">
         <v>3515</v>
       </c>
-      <c r="G747">
+      <c r="G747" s="3">
         <v>5272.5</v>
       </c>
       <c r="H747" s="4">
@@ -40754,7 +40816,7 @@
       <c r="F748" s="3">
         <v>4275</v>
       </c>
-      <c r="G748">
+      <c r="G748" s="3">
         <v>6412.5</v>
       </c>
       <c r="H748" s="4">
@@ -40789,7 +40851,7 @@
       <c r="F749" s="3">
         <v>2420</v>
       </c>
-      <c r="G749">
+      <c r="G749" s="3">
         <v>3630</v>
       </c>
       <c r="H749" s="4">
@@ -40824,7 +40886,7 @@
       <c r="F750" s="3">
         <v>3920</v>
       </c>
-      <c r="G750">
+      <c r="G750" s="3">
         <v>5880</v>
       </c>
       <c r="H750" s="4">
@@ -40859,7 +40921,7 @@
       <c r="F751" s="3">
         <v>4220</v>
       </c>
-      <c r="G751">
+      <c r="G751" s="3">
         <v>6330</v>
       </c>
       <c r="H751" s="4">
@@ -40894,7 +40956,7 @@
       <c r="F752" s="3">
         <v>365</v>
       </c>
-      <c r="G752">
+      <c r="G752" s="3">
         <v>547.5</v>
       </c>
       <c r="H752" s="4">
@@ -40929,7 +40991,7 @@
       <c r="F753" s="3">
         <v>3910</v>
       </c>
-      <c r="G753">
+      <c r="G753" s="3">
         <v>5865</v>
       </c>
       <c r="H753" s="4">
@@ -40964,7 +41026,7 @@
       <c r="F754" s="3">
         <v>2020</v>
       </c>
-      <c r="G754">
+      <c r="G754" s="3">
         <v>3030</v>
       </c>
       <c r="H754" s="4">
@@ -40999,7 +41061,7 @@
       <c r="F755" s="3">
         <v>1620</v>
       </c>
-      <c r="G755">
+      <c r="G755" s="3">
         <v>2430</v>
       </c>
       <c r="H755" s="4">
@@ -41034,7 +41096,7 @@
       <c r="F756" s="3">
         <v>3200</v>
       </c>
-      <c r="G756">
+      <c r="G756" s="3">
         <v>4800</v>
       </c>
       <c r="H756" s="4">
@@ -41069,7 +41131,7 @@
       <c r="F757" s="3">
         <v>3880</v>
       </c>
-      <c r="G757">
+      <c r="G757" s="3">
         <v>5820</v>
       </c>
       <c r="H757" s="4">
@@ -41104,7 +41166,7 @@
       <c r="F758" s="3">
         <v>2640</v>
       </c>
-      <c r="G758">
+      <c r="G758" s="3">
         <v>3960</v>
       </c>
       <c r="H758" s="4">
@@ -41139,7 +41201,7 @@
       <c r="F759" s="3">
         <v>1445</v>
       </c>
-      <c r="G759">
+      <c r="G759" s="3">
         <v>2167.5</v>
       </c>
       <c r="H759" s="4">
@@ -41174,7 +41236,7 @@
       <c r="F760" s="3">
         <v>2810</v>
       </c>
-      <c r="G760">
+      <c r="G760" s="3">
         <v>4215</v>
       </c>
       <c r="H760" s="4">
@@ -41209,7 +41271,7 @@
       <c r="F761" s="3">
         <v>2315</v>
       </c>
-      <c r="G761">
+      <c r="G761" s="3">
         <v>3472.5</v>
       </c>
       <c r="H761" s="4">
@@ -41244,7 +41306,7 @@
       <c r="F762" s="3">
         <v>915</v>
       </c>
-      <c r="G762">
+      <c r="G762" s="3">
         <v>1372.5</v>
       </c>
       <c r="H762" s="4">
@@ -41279,7 +41341,7 @@
       <c r="F763" s="3">
         <v>580</v>
       </c>
-      <c r="G763">
+      <c r="G763" s="3">
         <v>870</v>
       </c>
       <c r="H763" s="4">
@@ -41314,7 +41376,7 @@
       <c r="F764" s="3">
         <v>3745</v>
       </c>
-      <c r="G764">
+      <c r="G764" s="3">
         <v>5617.5</v>
       </c>
       <c r="H764" s="4">
@@ -41349,7 +41411,7 @@
       <c r="F765" s="3">
         <v>3290</v>
       </c>
-      <c r="G765">
+      <c r="G765" s="3">
         <v>4935</v>
       </c>
       <c r="H765" s="4">
@@ -41384,7 +41446,7 @@
       <c r="F766" s="3">
         <v>785</v>
       </c>
-      <c r="G766">
+      <c r="G766" s="3">
         <v>1177.5</v>
       </c>
       <c r="H766" s="4">
@@ -41419,7 +41481,7 @@
       <c r="F767" s="3">
         <v>1530</v>
       </c>
-      <c r="G767">
+      <c r="G767" s="3">
         <v>2295</v>
       </c>
       <c r="H767" s="4">
@@ -41454,7 +41516,7 @@
       <c r="F768" s="3">
         <v>1630</v>
       </c>
-      <c r="G768">
+      <c r="G768" s="3">
         <v>2445</v>
       </c>
       <c r="H768" s="4">
@@ -41489,7 +41551,7 @@
       <c r="F769" s="3">
         <v>3175</v>
       </c>
-      <c r="G769">
+      <c r="G769" s="3">
         <v>4762.5</v>
       </c>
       <c r="H769" s="4">
@@ -41524,7 +41586,7 @@
       <c r="F770" s="3">
         <v>3205</v>
       </c>
-      <c r="G770">
+      <c r="G770" s="3">
         <v>4807.5</v>
       </c>
       <c r="H770" s="4">
@@ -41559,7 +41621,7 @@
       <c r="F771" s="3">
         <v>3570</v>
       </c>
-      <c r="G771">
+      <c r="G771" s="3">
         <v>5355</v>
       </c>
       <c r="H771" s="4">
@@ -41594,7 +41656,7 @@
       <c r="F772" s="3">
         <v>3025</v>
       </c>
-      <c r="G772">
+      <c r="G772" s="3">
         <v>4537.5</v>
       </c>
       <c r="H772" s="4">
@@ -41629,7 +41691,7 @@
       <c r="F773" s="3">
         <v>1850</v>
       </c>
-      <c r="G773">
+      <c r="G773" s="3">
         <v>2775</v>
       </c>
       <c r="H773" s="4">
@@ -41664,7 +41726,7 @@
       <c r="F774" s="3">
         <v>4820</v>
       </c>
-      <c r="G774">
+      <c r="G774" s="3">
         <v>7230</v>
       </c>
       <c r="H774" s="4">
@@ -41699,7 +41761,7 @@
       <c r="F775" s="3">
         <v>4500</v>
       </c>
-      <c r="G775">
+      <c r="G775" s="3">
         <v>6750</v>
       </c>
       <c r="H775" s="4">
@@ -41734,7 +41796,7 @@
       <c r="F776" s="3">
         <v>4595</v>
       </c>
-      <c r="G776">
+      <c r="G776" s="3">
         <v>6892.5</v>
       </c>
       <c r="H776" s="4">
@@ -41769,7 +41831,7 @@
       <c r="F777" s="3">
         <v>4155</v>
       </c>
-      <c r="G777">
+      <c r="G777" s="3">
         <v>6232.5</v>
       </c>
       <c r="H777" s="4">
@@ -41804,7 +41866,7 @@
       <c r="F778" s="3">
         <v>2095</v>
       </c>
-      <c r="G778">
+      <c r="G778" s="3">
         <v>3142.5</v>
       </c>
       <c r="H778" s="4">
@@ -41839,7 +41901,7 @@
       <c r="F779" s="3">
         <v>515</v>
       </c>
-      <c r="G779">
+      <c r="G779" s="3">
         <v>772.5</v>
       </c>
       <c r="H779" s="4">
@@ -41874,7 +41936,7 @@
       <c r="F780" s="3">
         <v>3830</v>
       </c>
-      <c r="G780">
+      <c r="G780" s="3">
         <v>5745</v>
       </c>
       <c r="H780" s="4">
@@ -41909,7 +41971,7 @@
       <c r="F781" s="3">
         <v>3620</v>
       </c>
-      <c r="G781">
+      <c r="G781" s="3">
         <v>5430</v>
       </c>
       <c r="H781" s="4">
@@ -41944,7 +42006,7 @@
       <c r="F782" s="3">
         <v>3495</v>
       </c>
-      <c r="G782">
+      <c r="G782" s="3">
         <v>5242.5</v>
       </c>
       <c r="H782" s="4">
@@ -41979,7 +42041,7 @@
       <c r="F783" s="3">
         <v>655</v>
       </c>
-      <c r="G783">
+      <c r="G783" s="3">
         <v>982.5</v>
       </c>
       <c r="H783" s="4">
@@ -42014,7 +42076,7 @@
       <c r="F784" s="3">
         <v>3535</v>
       </c>
-      <c r="G784">
+      <c r="G784" s="3">
         <v>5302.5</v>
       </c>
       <c r="H784" s="4">
@@ -42049,7 +42111,7 @@
       <c r="F785" s="3">
         <v>2785</v>
       </c>
-      <c r="G785">
+      <c r="G785" s="3">
         <v>4177.5</v>
       </c>
       <c r="H785" s="4">
@@ -42084,7 +42146,7 @@
       <c r="F786" s="3">
         <v>2835</v>
       </c>
-      <c r="G786">
+      <c r="G786" s="3">
         <v>4252.5</v>
       </c>
       <c r="H786" s="4">
@@ -42119,7 +42181,7 @@
       <c r="F787" s="3">
         <v>975</v>
       </c>
-      <c r="G787">
+      <c r="G787" s="3">
         <v>1462.5</v>
       </c>
       <c r="H787" s="4">
@@ -42154,7 +42216,7 @@
       <c r="F788" s="3">
         <v>4275</v>
       </c>
-      <c r="G788">
+      <c r="G788" s="3">
         <v>6412.5</v>
       </c>
       <c r="H788" s="4">
@@ -42189,7 +42251,7 @@
       <c r="F789" s="3">
         <v>4060</v>
       </c>
-      <c r="G789">
+      <c r="G789" s="3">
         <v>6090</v>
       </c>
       <c r="H789" s="4">
@@ -42224,7 +42286,7 @@
       <c r="F790" s="3">
         <v>370</v>
       </c>
-      <c r="G790">
+      <c r="G790" s="3">
         <v>555</v>
       </c>
       <c r="H790" s="4">
@@ -42259,7 +42321,7 @@
       <c r="F791" s="3">
         <v>4575</v>
       </c>
-      <c r="G791">
+      <c r="G791" s="3">
         <v>6862.5</v>
       </c>
       <c r="H791" s="4">
@@ -42294,7 +42356,7 @@
       <c r="F792" s="3">
         <v>2575</v>
       </c>
-      <c r="G792">
+      <c r="G792" s="3">
         <v>3862.5</v>
       </c>
       <c r="H792" s="4">
@@ -42329,7 +42391,7 @@
       <c r="F793" s="3">
         <v>3305</v>
       </c>
-      <c r="G793">
+      <c r="G793" s="3">
         <v>4957.5</v>
       </c>
       <c r="H793" s="4">
@@ -42364,7 +42426,7 @@
       <c r="F794" s="3">
         <v>3585</v>
       </c>
-      <c r="G794">
+      <c r="G794" s="3">
         <v>5377.5</v>
       </c>
       <c r="H794" s="4">
@@ -42399,7 +42461,7 @@
       <c r="F795" s="3">
         <v>3235</v>
       </c>
-      <c r="G795">
+      <c r="G795" s="3">
         <v>4852.5</v>
       </c>
       <c r="H795" s="4">
@@ -42434,7 +42496,7 @@
       <c r="F796" s="3">
         <v>4660</v>
       </c>
-      <c r="G796">
+      <c r="G796" s="3">
         <v>6990</v>
       </c>
       <c r="H796" s="4">
@@ -42469,7 +42531,7 @@
       <c r="F797" s="3">
         <v>3255</v>
       </c>
-      <c r="G797">
+      <c r="G797" s="3">
         <v>4882.5</v>
       </c>
       <c r="H797" s="4">
@@ -42504,7 +42566,7 @@
       <c r="F798" s="3">
         <v>3755</v>
       </c>
-      <c r="G798">
+      <c r="G798" s="3">
         <v>5632.5</v>
       </c>
       <c r="H798" s="4">
@@ -42539,7 +42601,7 @@
       <c r="F799" s="3">
         <v>860</v>
       </c>
-      <c r="G799">
+      <c r="G799" s="3">
         <v>1290</v>
       </c>
       <c r="H799" s="4">
@@ -42574,7 +42636,7 @@
       <c r="F800" s="3">
         <v>1600</v>
       </c>
-      <c r="G800">
+      <c r="G800" s="3">
         <v>2400</v>
       </c>
       <c r="H800" s="4">
@@ -42609,7 +42671,7 @@
       <c r="F801" s="3">
         <v>1145</v>
       </c>
-      <c r="G801">
+      <c r="G801" s="3">
         <v>1717.5</v>
       </c>
       <c r="H801" s="4">
@@ -42644,7 +42706,7 @@
       <c r="F802" s="3">
         <v>405</v>
       </c>
-      <c r="G802">
+      <c r="G802" s="3">
         <v>607.5</v>
       </c>
       <c r="H802" s="4">
@@ -42679,7 +42741,7 @@
       <c r="F803" s="3">
         <v>2135</v>
       </c>
-      <c r="G803">
+      <c r="G803" s="3">
         <v>3202.5</v>
       </c>
       <c r="H803" s="4">
@@ -42714,7 +42776,7 @@
       <c r="F804" s="3">
         <v>3945</v>
       </c>
-      <c r="G804">
+      <c r="G804" s="3">
         <v>5917.5</v>
       </c>
       <c r="H804" s="4">
@@ -42749,7 +42811,7 @@
       <c r="F805" s="3">
         <v>1850</v>
       </c>
-      <c r="G805">
+      <c r="G805" s="3">
         <v>2775</v>
       </c>
       <c r="H805" s="4">
@@ -42784,7 +42846,7 @@
       <c r="F806" s="3">
         <v>4465</v>
       </c>
-      <c r="G806">
+      <c r="G806" s="3">
         <v>6697.5</v>
       </c>
       <c r="H806" s="4">
@@ -42819,7 +42881,7 @@
       <c r="F807" s="3">
         <v>2320</v>
       </c>
-      <c r="G807">
+      <c r="G807" s="3">
         <v>3480</v>
       </c>
       <c r="H807" s="4">
@@ -42854,7 +42916,7 @@
       <c r="F808" s="3">
         <v>4290</v>
       </c>
-      <c r="G808">
+      <c r="G808" s="3">
         <v>6435</v>
       </c>
       <c r="H808" s="4">
@@ -42889,7 +42951,7 @@
       <c r="F809" s="3">
         <v>395</v>
       </c>
-      <c r="G809">
+      <c r="G809" s="3">
         <v>592.5</v>
       </c>
       <c r="H809" s="4">
@@ -42924,7 +42986,7 @@
       <c r="F810" s="3">
         <v>2285</v>
       </c>
-      <c r="G810">
+      <c r="G810" s="3">
         <v>3427.5</v>
       </c>
       <c r="H810" s="4">
@@ -42959,7 +43021,7 @@
       <c r="F811" s="3">
         <v>3400</v>
       </c>
-      <c r="G811">
+      <c r="G811" s="3">
         <v>5100</v>
       </c>
       <c r="H811" s="4">
@@ -42994,7 +43056,7 @@
       <c r="F812" s="3">
         <v>1190</v>
       </c>
-      <c r="G812">
+      <c r="G812" s="3">
         <v>1785</v>
       </c>
       <c r="H812" s="4">
@@ -43029,7 +43091,7 @@
       <c r="F813" s="3">
         <v>2345</v>
       </c>
-      <c r="G813">
+      <c r="G813" s="3">
         <v>3517.5</v>
       </c>
       <c r="H813" s="4">
@@ -43064,7 +43126,7 @@
       <c r="F814" s="3">
         <v>1255</v>
       </c>
-      <c r="G814">
+      <c r="G814" s="3">
         <v>1882.5</v>
       </c>
       <c r="H814" s="4">
@@ -43099,7 +43161,7 @@
       <c r="F815" s="3">
         <v>2435</v>
       </c>
-      <c r="G815">
+      <c r="G815" s="3">
         <v>3652.5</v>
       </c>
       <c r="H815" s="4">
@@ -43134,7 +43196,7 @@
       <c r="F816" s="3">
         <v>1375</v>
       </c>
-      <c r="G816">
+      <c r="G816" s="3">
         <v>2062.5</v>
       </c>
       <c r="H816" s="4">
@@ -43169,7 +43231,7 @@
       <c r="F817" s="3">
         <v>3945</v>
       </c>
-      <c r="G817">
+      <c r="G817" s="3">
         <v>5917.5</v>
       </c>
       <c r="H817" s="4">
@@ -43204,7 +43266,7 @@
       <c r="F818" s="3">
         <v>2005</v>
       </c>
-      <c r="G818">
+      <c r="G818" s="3">
         <v>3007.5</v>
       </c>
       <c r="H818" s="4">
@@ -43239,7 +43301,7 @@
       <c r="F819" s="3">
         <v>1265</v>
       </c>
-      <c r="G819">
+      <c r="G819" s="3">
         <v>1897.5</v>
       </c>
       <c r="H819" s="4">
@@ -43274,7 +43336,7 @@
       <c r="F820" s="3">
         <v>1955</v>
       </c>
-      <c r="G820">
+      <c r="G820" s="3">
         <v>2932.5</v>
       </c>
       <c r="H820" s="4">
@@ -43309,7 +43371,7 @@
       <c r="F821" s="3">
         <v>2850</v>
       </c>
-      <c r="G821">
+      <c r="G821" s="3">
         <v>4275</v>
       </c>
       <c r="H821" s="4">
@@ -43344,7 +43406,7 @@
       <c r="F822" s="3">
         <v>4270</v>
       </c>
-      <c r="G822">
+      <c r="G822" s="3">
         <v>6405</v>
       </c>
       <c r="H822" s="4">
@@ -43379,7 +43441,7 @@
       <c r="F823" s="3">
         <v>1315</v>
       </c>
-      <c r="G823">
+      <c r="G823" s="3">
         <v>1972.5</v>
       </c>
       <c r="H823" s="4">
@@ -43414,7 +43476,7 @@
       <c r="F824" s="3">
         <v>1190</v>
       </c>
-      <c r="G824">
+      <c r="G824" s="3">
         <v>1785</v>
       </c>
       <c r="H824" s="4">
@@ -43449,7 +43511,7 @@
       <c r="F825" s="3">
         <v>715</v>
       </c>
-      <c r="G825">
+      <c r="G825" s="3">
         <v>1072.5</v>
       </c>
       <c r="H825" s="4">
@@ -43484,7 +43546,7 @@
       <c r="F826" s="3">
         <v>675</v>
       </c>
-      <c r="G826">
+      <c r="G826" s="3">
         <v>1012.5</v>
       </c>
       <c r="H826" s="4">
@@ -43519,7 +43581,7 @@
       <c r="F827" s="3">
         <v>1650</v>
       </c>
-      <c r="G827">
+      <c r="G827" s="3">
         <v>2475</v>
       </c>
       <c r="H827" s="4">
@@ -43554,7 +43616,7 @@
       <c r="F828" s="3">
         <v>1360</v>
       </c>
-      <c r="G828">
+      <c r="G828" s="3">
         <v>2040</v>
       </c>
       <c r="H828" s="4">
@@ -43589,7 +43651,7 @@
       <c r="F829" s="3">
         <v>4635</v>
       </c>
-      <c r="G829">
+      <c r="G829" s="3">
         <v>6952.5</v>
       </c>
       <c r="H829" s="4">
@@ -43624,7 +43686,7 @@
       <c r="F830" s="3">
         <v>1075</v>
       </c>
-      <c r="G830">
+      <c r="G830" s="3">
         <v>1612.5</v>
       </c>
       <c r="H830" s="4">
@@ -43659,7 +43721,7 @@
       <c r="F831" s="3">
         <v>3710</v>
       </c>
-      <c r="G831">
+      <c r="G831" s="3">
         <v>5565</v>
       </c>
       <c r="H831" s="4">
@@ -43694,7 +43756,7 @@
       <c r="F832" s="3">
         <v>1840</v>
       </c>
-      <c r="G832">
+      <c r="G832" s="3">
         <v>2760</v>
       </c>
       <c r="H832" s="4">
@@ -43729,7 +43791,7 @@
       <c r="F833" s="3">
         <v>4280</v>
       </c>
-      <c r="G833">
+      <c r="G833" s="3">
         <v>6420</v>
       </c>
       <c r="H833" s="4">
@@ -43764,7 +43826,7 @@
       <c r="F834" s="3">
         <v>615</v>
       </c>
-      <c r="G834">
+      <c r="G834" s="3">
         <v>922.5</v>
       </c>
       <c r="H834" s="4">
@@ -43799,7 +43861,7 @@
       <c r="F835" s="3">
         <v>3470</v>
       </c>
-      <c r="G835">
+      <c r="G835" s="3">
         <v>5205</v>
       </c>
       <c r="H835" s="4">
@@ -43834,7 +43896,7 @@
       <c r="F836" s="3">
         <v>925</v>
       </c>
-      <c r="G836">
+      <c r="G836" s="3">
         <v>1387.5</v>
       </c>
       <c r="H836" s="4">
@@ -43869,7 +43931,7 @@
       <c r="F837" s="3">
         <v>3170</v>
       </c>
-      <c r="G837">
+      <c r="G837" s="3">
         <v>4755</v>
       </c>
       <c r="H837" s="4">
@@ -43904,7 +43966,7 @@
       <c r="F838" s="3">
         <v>2785</v>
       </c>
-      <c r="G838">
+      <c r="G838" s="3">
         <v>4177.5</v>
       </c>
       <c r="H838" s="4">
@@ -43939,7 +44001,7 @@
       <c r="F839" s="3">
         <v>3995</v>
       </c>
-      <c r="G839">
+      <c r="G839" s="3">
         <v>5992.5</v>
       </c>
       <c r="H839" s="4">
@@ -43974,7 +44036,7 @@
       <c r="F840" s="3">
         <v>4340</v>
       </c>
-      <c r="G840">
+      <c r="G840" s="3">
         <v>6510</v>
       </c>
       <c r="H840" s="4">
@@ -44009,7 +44071,7 @@
       <c r="F841" s="3">
         <v>4720</v>
       </c>
-      <c r="G841">
+      <c r="G841" s="3">
         <v>7080</v>
       </c>
       <c r="H841" s="4">
@@ -44044,7 +44106,7 @@
       <c r="F842" s="3">
         <v>250</v>
       </c>
-      <c r="G842">
+      <c r="G842" s="3">
         <v>375</v>
       </c>
       <c r="H842" s="4">
@@ -44079,7 +44141,7 @@
       <c r="F843" s="3">
         <v>2770</v>
       </c>
-      <c r="G843">
+      <c r="G843" s="3">
         <v>4155</v>
       </c>
       <c r="H843" s="4">
@@ -44114,7 +44176,7 @@
       <c r="F844" s="3">
         <v>2785</v>
       </c>
-      <c r="G844">
+      <c r="G844" s="3">
         <v>4177.5</v>
       </c>
       <c r="H844" s="4">
@@ -44149,7 +44211,7 @@
       <c r="F845" s="3">
         <v>4920</v>
       </c>
-      <c r="G845">
+      <c r="G845" s="3">
         <v>7380</v>
       </c>
       <c r="H845" s="4">
@@ -44184,7 +44246,7 @@
       <c r="F846" s="3">
         <v>2475</v>
       </c>
-      <c r="G846">
+      <c r="G846" s="3">
         <v>3712.5</v>
       </c>
       <c r="H846" s="4">
@@ -44219,7 +44281,7 @@
       <c r="F847" s="3">
         <v>2645</v>
       </c>
-      <c r="G847">
+      <c r="G847" s="3">
         <v>3967.5</v>
       </c>
       <c r="H847" s="4">
@@ -44254,7 +44316,7 @@
       <c r="F848" s="3">
         <v>1820</v>
       </c>
-      <c r="G848">
+      <c r="G848" s="3">
         <v>2730</v>
       </c>
       <c r="H848" s="4">
@@ -44289,7 +44351,7 @@
       <c r="F849" s="3">
         <v>3555</v>
       </c>
-      <c r="G849">
+      <c r="G849" s="3">
         <v>5332.5</v>
       </c>
       <c r="H849" s="4">
@@ -44324,7 +44386,7 @@
       <c r="F850" s="3">
         <v>4250</v>
       </c>
-      <c r="G850">
+      <c r="G850" s="3">
         <v>6375</v>
       </c>
       <c r="H850" s="4">
@@ -44359,7 +44421,7 @@
       <c r="F851" s="3">
         <v>4290</v>
       </c>
-      <c r="G851">
+      <c r="G851" s="3">
         <v>6435</v>
       </c>
       <c r="H851" s="4">
@@ -44394,7 +44456,7 @@
       <c r="F852" s="3">
         <v>3300</v>
       </c>
-      <c r="G852">
+      <c r="G852" s="3">
         <v>4950</v>
       </c>
       <c r="H852" s="4">
@@ -44429,7 +44491,7 @@
       <c r="F853" s="3">
         <v>1705</v>
       </c>
-      <c r="G853">
+      <c r="G853" s="3">
         <v>2557.5</v>
       </c>
       <c r="H853" s="4">
@@ -44464,7 +44526,7 @@
       <c r="F854" s="3">
         <v>4775</v>
       </c>
-      <c r="G854">
+      <c r="G854" s="3">
         <v>7162.5</v>
       </c>
       <c r="H854" s="4">
